--- a/models/restricted_oos/data/US_local.xlsx
+++ b/models/restricted_oos/data/US_local.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_iis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_cond_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FEE11F-2E51-C849-89EF-FF95BA8D8E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB499A89-22AF-A84D-AC4A-23ECD9D5642B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7298,8 +7298,8 @@
       <c r="B444" s="2">
         <v>44012</v>
       </c>
-      <c r="C444">
-        <v>38.31</v>
+      <c r="C444" s="3">
+        <v>38.307272727272725</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7309,8 +7309,8 @@
       <c r="B445" s="2">
         <v>44043</v>
       </c>
-      <c r="C445">
-        <v>40.71</v>
+      <c r="C445" s="3">
+        <v>40.710454545454546</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7320,12 +7320,20 @@
       <c r="B446" s="2">
         <v>44074</v>
       </c>
-      <c r="C446">
-        <v>42.34</v>
+      <c r="C446" s="3">
+        <v>42.339047619047619</v>
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="15"/>
+      <c r="A447" s="15">
+        <v>202009</v>
+      </c>
+      <c r="B447" s="2">
+        <v>44104</v>
+      </c>
+      <c r="C447" s="3">
+        <v>39.644210526315788</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16407,6 +16415,9 @@
       <c r="GK1" s="12">
         <v>44074</v>
       </c>
+      <c r="GL1" s="12">
+        <v>44104</v>
+      </c>
     </row>
     <row r="2" spans="1:951">
       <c r="A2" s="4" t="s">
@@ -16987,6 +16998,9 @@
       </c>
       <c r="GK2" s="8">
         <v>44074</v>
+      </c>
+      <c r="GL2" s="8">
+        <v>44104</v>
       </c>
       <c r="ACF2" s="6"/>
       <c r="ACG2" s="6"/>

--- a/models/restricted_oos/data/US_local.xlsx
+++ b/models/restricted_oos/data/US_local.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_cond_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB499A89-22AF-A84D-AC4A-23ECD9D5642B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E4D11A-8F17-DD49-B42C-002C98AE8B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15824,7 +15824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJO4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="FR1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="GL1" sqref="GL1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -17769,7 +17771,7 @@
       <c r="GI3" s="8">
         <v>43966</v>
       </c>
-      <c r="GK3" s="8">
+      <c r="GL3" s="8">
         <v>44057</v>
       </c>
       <c r="ACF3" s="6"/>
@@ -18539,7 +18541,7 @@
       <c r="GI4" s="8">
         <v>43966</v>
       </c>
-      <c r="GK4" s="8">
+      <c r="GL4" s="8">
         <v>44057</v>
       </c>
     </row>

--- a/models/restricted_oos/data/US_local.xlsx
+++ b/models/restricted_oos/data/US_local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_cond_2020/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_iis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E4D11A-8F17-DD49-B42C-002C98AE8B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63490CB9-345E-3841-8280-EA8EE235F0E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="6" r:id="rId1"/>
@@ -2462,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15"/>
   <cols>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="C19" s="17">
         <f>SPF_growth!K19/100</f>
-        <v>9.2310923276235357E-3</v>
+        <v>3.6922544312030681E-2</v>
       </c>
       <c r="D19" s="19">
         <v>4.1242000000000001</v>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C20" s="17">
         <f>SPF_growth!K20/100</f>
-        <v>8.0413554106493201E-3</v>
+        <v>3.2137747581665987E-2</v>
       </c>
       <c r="D20" s="19">
         <v>4.3497000000000003</v>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C21" s="17">
         <f>SPF_growth!K21/100</f>
-        <v>6.8305145354505825E-3</v>
+        <v>2.7313483157874074E-2</v>
       </c>
       <c r="D21" s="19">
         <v>4.2496999999999998</v>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="C22" s="17">
         <f>SPF_growth!K22/100</f>
-        <v>7.362304176079304E-3</v>
+        <v>2.9446934030723515E-2</v>
       </c>
       <c r="D22" s="19">
         <v>3.8496999999999999</v>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="C23" s="17">
         <f>SPF_growth!K23/100</f>
-        <v>6.972346001087093E-3</v>
+        <v>2.7858348434464553E-2</v>
       </c>
       <c r="D23" s="19">
         <v>3.5871</v>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="C24" s="17">
         <f>SPF_growth!K24/100</f>
-        <v>9.1249075773616184E-3</v>
+        <v>3.6498560972900052E-2</v>
       </c>
       <c r="D24" s="19">
         <v>3.4112</v>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="C25" s="17">
         <f>SPF_growth!K25/100</f>
-        <v>7.3248926246487489E-3</v>
+        <v>2.9298316998485063E-2</v>
       </c>
       <c r="D25" s="19">
         <v>3.4998999999999998</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="C26" s="17">
         <f>SPF_growth!K26/100</f>
-        <v>7.2429386776224902E-3</v>
+        <v>2.8962309099209271E-2</v>
       </c>
       <c r="D26" s="19">
         <v>3.6248</v>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="C27" s="17">
         <f>SPF_growth!K27/100</f>
-        <v>7.3186843382373468E-3</v>
+        <v>2.9273972275436044E-2</v>
       </c>
       <c r="D27" s="19">
         <v>3.8997000000000002</v>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="C28" s="17">
         <f>SPF_growth!K28/100</f>
-        <v>7.0498309407629467E-3</v>
+        <v>2.8197353472078301E-2</v>
       </c>
       <c r="D28" s="19">
         <v>4.3624999999999998</v>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="C29" s="17">
         <f>SPF_growth!K29/100</f>
-        <v>7.0739588682282584E-3</v>
+        <v>2.8283661412836558E-2</v>
       </c>
       <c r="D29" s="19">
         <v>4.4999000000000002</v>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C30" s="17">
         <f>SPF_growth!K30/100</f>
-        <v>5.4535653638578818E-3</v>
+        <v>2.1782702955254862E-2</v>
       </c>
       <c r="D30" s="19">
         <v>4.3749000000000002</v>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="C31" s="17">
         <f>SPF_growth!K31/100</f>
-        <v>5.3529086139807447E-3</v>
+        <v>2.1372268634696212E-2</v>
       </c>
       <c r="D31" s="19">
         <v>4.1997</v>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="C32" s="17">
         <f>SPF_growth!K32/100</f>
-        <v>6.6241501398442981E-3</v>
+        <v>2.6486664339376853E-2</v>
       </c>
       <c r="D32" s="19">
         <v>4.5749000000000004</v>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="C33" s="17">
         <f>SPF_growth!K33/100</f>
-        <v>6.5118259928413913E-3</v>
+        <v>2.6039412316339439E-2</v>
       </c>
       <c r="D33" s="19">
         <v>4.9749999999999996</v>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="C34" s="17">
         <f>SPF_growth!K34/100</f>
-        <v>6.2972928794058358E-3</v>
+        <v>2.5157384741446132E-2</v>
       </c>
       <c r="D34" s="19">
         <v>4.9000000000000004</v>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="C35" s="17">
         <f>SPF_growth!K35/100</f>
-        <v>4.0494520061742367E-3</v>
+        <v>1.6191334241490107E-2</v>
       </c>
       <c r="D35" s="19">
         <v>4.8498999999999999</v>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C36" s="17">
         <f>SPF_growth!K36/100</f>
-        <v>3.812019316142834E-3</v>
+        <v>1.5242405791953795E-2</v>
       </c>
       <c r="D36" s="19">
         <v>4.9123000000000001</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="C37" s="17">
         <f>SPF_growth!K37/100</f>
-        <v>5.264785151075202E-3</v>
+        <v>2.1012825081917041E-2</v>
       </c>
       <c r="D37" s="19">
         <v>4.6500000000000004</v>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="C38" s="17">
         <f>SPF_growth!K38/100</f>
-        <v>5.0121317528326603E-3</v>
+        <v>2.0044194202922139E-2</v>
       </c>
       <c r="D38" s="19">
         <v>4.2249999999999996</v>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C39" s="17">
         <f>SPF_growth!K39/100</f>
-        <v>5.774770227933379E-3</v>
+        <v>2.3096385648375017E-2</v>
       </c>
       <c r="D39" s="19">
         <v>4.3498999999999999</v>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C40" s="17">
         <f>SPF_growth!K40/100</f>
-        <v>6.2308049092900664E-3</v>
+        <v>2.4918001560686465E-2</v>
       </c>
       <c r="D40" s="19">
         <v>4.1997999999999998</v>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="C41" s="17">
         <f>SPF_growth!K41/100</f>
-        <v>2.9921486625135163E-3</v>
+        <v>1.1949708630425215E-2</v>
       </c>
       <c r="D41" s="19">
         <v>4.4493999999999998</v>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C42" s="17">
         <f>SPF_growth!K42/100</f>
-        <v>1.8699840887628216E-3</v>
+        <v>7.4202101906017948E-3</v>
       </c>
       <c r="D42" s="19">
         <v>4.5114000000000001</v>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C43" s="17">
         <f>SPF_growth!K43/100</f>
-        <v>4.9892985882478147E-3</v>
+        <v>1.9904617953586223E-2</v>
       </c>
       <c r="D43" s="19">
         <v>3.6623999999999999</v>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C44" s="17">
         <f>SPF_growth!K44/100</f>
-        <v>6.7617243643305347E-3</v>
+        <v>2.7037805365373035E-2</v>
       </c>
       <c r="D44" s="19">
         <v>3.8374999999999999</v>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C45" s="17">
         <f>SPF_growth!K45/100</f>
-        <v>7.0373174696498619E-3</v>
+        <v>2.8147140076542509E-2</v>
       </c>
       <c r="D45" s="19">
         <v>3.7724000000000002</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="C46" s="17">
         <f>SPF_growth!K46/100</f>
-        <v>7.0368503741999877E-3</v>
+        <v>2.8139816743379287E-2</v>
       </c>
       <c r="D46" s="19">
         <v>3.5499000000000001</v>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="C47" s="17">
         <f>SPF_growth!K47/100</f>
-        <v>7.0933774800152616E-3</v>
+        <v>2.8369158274043293E-2</v>
       </c>
       <c r="D47" s="19">
         <v>3.3999000000000001</v>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="C48" s="17">
         <f>SPF_growth!K48/100</f>
-        <v>7.8874483082800317E-3</v>
+        <v>3.1549192351855382E-2</v>
       </c>
       <c r="D48" s="19">
         <v>3.5249000000000001</v>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="C49" s="17">
         <f>SPF_growth!K49/100</f>
-        <v>6.7183843321154679E-3</v>
+        <v>2.68692668135182E-2</v>
       </c>
       <c r="D49" s="19">
         <v>3.3250000000000002</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="C50" s="17">
         <f>SPF_growth!K50/100</f>
-        <v>7.3995781607556488E-3</v>
+        <v>2.9593390764326211E-2</v>
       </c>
       <c r="D50" s="19">
         <v>3.2498999999999998</v>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C51" s="17">
         <f>SPF_growth!K51/100</f>
-        <v>7.8185838971052135E-3</v>
+        <v>3.1272402831565849E-2</v>
       </c>
       <c r="D51" s="19">
         <v>3.2124999999999999</v>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="C52" s="17">
         <f>SPF_growth!K52/100</f>
-        <v>7.7060129398076604E-3</v>
+        <v>3.0821288545825443E-2</v>
       </c>
       <c r="D52" s="19">
         <v>3.3748999999999998</v>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="C53" s="17">
         <f>SPF_growth!K53/100</f>
-        <v>7.3623960000597233E-3</v>
+        <v>2.9448371699775322E-2</v>
       </c>
       <c r="D53" s="19">
         <v>3.3</v>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C54" s="17">
         <f>SPF_growth!K54/100</f>
-        <v>6.9373953182720882E-3</v>
+        <v>2.7748358219851665E-2</v>
       </c>
       <c r="D54" s="19">
         <v>3.03</v>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="C55" s="17">
         <f>SPF_growth!K55/100</f>
-        <v>7.1121542451979547E-3</v>
+        <v>2.8444582186815559E-2</v>
       </c>
       <c r="D55" s="19">
         <v>3.2</v>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="C56" s="17">
         <f>SPF_growth!K56/100</f>
-        <v>6.724734925990683E-3</v>
+        <v>2.6895842963834404E-2</v>
       </c>
       <c r="D56" s="19">
         <v>3.2749999999999999</v>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C57" s="17">
         <f>SPF_growth!K57/100</f>
-        <v>6.1874699511825781E-3</v>
+        <v>2.4749527910862268E-2</v>
       </c>
       <c r="D57" s="19">
         <v>3.3250000000000002</v>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="C58" s="17">
         <f>SPF_growth!K58/100</f>
-        <v>6.3061654967608849E-3</v>
+        <v>2.5223673921311862E-2</v>
       </c>
       <c r="D58" s="19">
         <v>3.4249999999999998</v>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="C59" s="17">
         <f>SPF_growth!K59/100</f>
-        <v>6.0623011217268985E-3</v>
+        <v>2.4246874179230549E-2</v>
       </c>
       <c r="D59" s="19">
         <v>3.4125000000000001</v>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C60" s="17">
         <f>SPF_growth!K60/100</f>
-        <v>6.331080545903145E-3</v>
+        <v>2.5322338974672842E-2</v>
       </c>
       <c r="D60" s="19">
         <v>3.5249999999999999</v>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="C61" s="17">
         <f>SPF_growth!K61/100</f>
-        <v>6.7374799001742591E-3</v>
+        <v>2.6949684692662457E-2</v>
       </c>
       <c r="D61" s="19">
         <v>3.2749999999999999</v>
@@ -8206,7 +8206,7 @@
       </c>
       <c r="C62" s="17">
         <f>SPF_growth!K62/100</f>
-        <v>6.2437075477326243E-3</v>
+        <v>2.4974333062786735E-2</v>
       </c>
       <c r="D62" s="19">
         <v>2.95</v>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C63" s="17">
         <f>SPF_growth!K63/100</f>
-        <v>5.9685755205713953E-3</v>
+        <v>2.3872257440832989E-2</v>
       </c>
       <c r="D63" s="19">
         <v>2.7749999999999999</v>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="C64" s="17">
         <f>SPF_growth!K64/100</f>
-        <v>5.1061485916221727E-3</v>
+        <v>2.0423402163198157E-2</v>
       </c>
       <c r="D64" s="19">
         <v>2.8748999999999998</v>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="C65" s="17">
         <f>SPF_growth!K65/100</f>
-        <v>5.0873503970347844E-3</v>
+        <v>2.0347643376059654E-2</v>
       </c>
       <c r="D65" s="19">
         <v>3.0024999999999999</v>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C66" s="17">
         <f>SPF_growth!K66/100</f>
-        <v>5.4999064609069226E-3</v>
+        <v>2.1998527946560653E-2</v>
       </c>
       <c r="D66" s="19">
         <v>3.0249999999999999</v>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="C67" s="17">
         <f>SPF_growth!K67/100</f>
-        <v>5.5436703808635635E-3</v>
+        <v>2.2173746731410482E-2</v>
       </c>
       <c r="D67" s="19">
         <v>3.0625</v>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="C68" s="17">
         <f>SPF_growth!K68/100</f>
-        <v>5.5060822588559599E-3</v>
+        <v>2.2022358943001974E-2</v>
       </c>
       <c r="D68" s="19">
         <v>2.9998999999999998</v>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C69" s="17">
         <f>SPF_growth!K69/100</f>
-        <v>6.0934820113078825E-3</v>
+        <v>2.4370787226465129E-2</v>
       </c>
       <c r="D69" s="19">
         <v>2.8498999999999999</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C70" s="17">
         <f>SPF_growth!K70/100</f>
-        <v>5.8624505213646927E-3</v>
+        <v>2.3449221804469289E-2</v>
       </c>
       <c r="D70" s="19">
         <v>2.6</v>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C71" s="17">
         <f>SPF_growth!K71/100</f>
-        <v>5.6184528476153073E-3</v>
+        <v>2.2470323313886764E-2</v>
       </c>
       <c r="D71" s="19">
         <v>2.2624</v>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C72" s="17">
         <f>SPF_growth!K72/100</f>
-        <v>5.6124860919704034E-3</v>
+        <v>2.2449781057347407E-2</v>
       </c>
       <c r="D72" s="19">
         <v>2.4499</v>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="C73" s="17">
         <f>SPF_growth!K73/100</f>
-        <v>6.1870707036402184E-3</v>
+        <v>2.4743262797058518E-2</v>
       </c>
       <c r="D73" s="19">
         <v>2.4750000000000001</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="C74" s="17">
         <f>SPF_growth!K74/100</f>
-        <v>4.6811346999353631E-3</v>
+        <v>1.8723180630888958E-2</v>
       </c>
       <c r="D74" s="19">
         <v>2.3123999999999998</v>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C75" s="17">
         <f>SPF_growth!K75/100</f>
-        <v>5.8747795233102806E-3</v>
+        <v>2.3496530666561766E-2</v>
       </c>
       <c r="D75" s="19">
         <v>2.1749000000000001</v>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="C76" s="17">
         <f>SPF_growth!K76/100</f>
-        <v>6.4368840898705315E-3</v>
+        <v>2.574031161338608E-2</v>
       </c>
       <c r="D76" s="19">
         <v>2.2000000000000002</v>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="C77" s="17">
         <f>SPF_growth!K77/100</f>
-        <v>6.3744641358740584E-3</v>
+        <v>2.5491576060820087E-2</v>
       </c>
       <c r="D77" s="19">
         <v>2.3786999999999998</v>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="C78" s="17">
         <f>SPF_growth!K78/100</f>
-        <v>7.2807160968004769E-3</v>
+        <v>2.9116628268810896E-2</v>
       </c>
       <c r="D78" s="19">
         <v>2.5249999999999999</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="C79" s="17">
         <f>SPF_growth!K79/100</f>
-        <v>7.5811621767614135E-3</v>
+        <v>3.0323626163698769E-2</v>
       </c>
       <c r="D79" s="19">
         <v>2.4624999999999999</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="C80" s="17">
         <f>SPF_growth!K80/100</f>
-        <v>7.4056953353818233E-3</v>
+        <v>2.9616325518800224E-2</v>
       </c>
       <c r="D80" s="19">
         <v>2.6061999999999999</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="C81" s="17">
         <f>SPF_growth!K81/100</f>
-        <v>7.5686105000138948E-3</v>
+        <v>3.027281589905817E-2</v>
       </c>
       <c r="D81" s="19">
         <v>2.7124999999999999</v>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="C82" s="17">
         <f>SPF_growth!K82/100</f>
-        <v>8.1499886860054715E-3</v>
+        <v>3.2599823264466421E-2</v>
       </c>
       <c r="D82" s="19">
         <v>2.6749999999999998</v>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="C83" s="17">
         <f>SPF_growth!K83/100</f>
-        <v>8.0175650744016558E-3</v>
+        <v>3.2056426627349532E-2</v>
       </c>
       <c r="D83" s="19">
         <v>2.4874999999999998</v>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C84" s="17">
         <f>SPF_growth!K84/100</f>
-        <v>7.0238949003273987E-3</v>
+        <v>2.8082671208828014E-2</v>
       </c>
       <c r="D84" s="19">
         <v>2.5125000000000002</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="C85" s="17">
         <f>SPF_growth!K85/100</f>
-        <v>7.7367802883900882E-3</v>
+        <v>3.0938769884218287E-2</v>
       </c>
       <c r="D85" s="19">
         <v>2.6</v>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="C86" s="17">
         <f>SPF_growth!K86/100</f>
-        <v>6.2989332866600911E-3</v>
+        <v>2.5109502263829908E-2</v>
       </c>
       <c r="D86" s="19">
         <v>2.1497999999999999</v>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="C87" s="17">
         <f>SPF_growth!K87/100</f>
-        <v>8.2056296806840567E-3</v>
+        <v>3.2815309627315603E-2</v>
       </c>
       <c r="D87" s="19">
         <v>2.1999</v>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C88" s="17">
         <f>SPF_growth!K88/100</f>
-        <v>8.5999403513785655E-3</v>
+        <v>3.4399069185299558E-2</v>
       </c>
       <c r="D88" s="19">
         <v>2.3498999999999999</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="C89" s="17">
         <f>SPF_growth!K89/100</f>
-        <v>7.9870220883944132E-3</v>
+        <v>3.1942526948009808E-2</v>
       </c>
       <c r="D89" s="19">
         <v>2.2873999999999999</v>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C90" s="17">
         <f>SPF_growth!K90/100</f>
-        <v>8.1614694367966312E-3</v>
+        <v>3.2633923235135143E-2</v>
       </c>
       <c r="D90" s="19">
         <v>2.1875</v>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="C91" s="17">
         <f>SPF_growth!K91/100</f>
-        <v>8.4682556073343296E-3</v>
+        <v>3.3867273270793641E-2</v>
       </c>
       <c r="D91" s="19">
         <v>2.125</v>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="C92" s="17">
         <f>SPF_growth!K92/100</f>
-        <v>8.8435084553293297E-3</v>
+        <v>3.5371240019959949E-2</v>
       </c>
       <c r="D92" s="19">
         <v>2.0922999999999998</v>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="C93" s="17">
         <f>SPF_growth!K93/100</f>
-        <v>9.4749626894177208E-3</v>
+        <v>3.7899419029671533E-2</v>
       </c>
       <c r="D93" s="19">
         <v>1.8247</v>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="C94" s="17">
         <f>SPF_growth!K94/100</f>
-        <v>9.5437163552321014E-3</v>
+        <v>3.8174476483921582E-2</v>
       </c>
       <c r="D94" s="19">
         <v>2.125</v>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="C95" s="17">
         <f>SPF_growth!K95/100</f>
-        <v>9.9685873278418935E-3</v>
+        <v>3.9872471362852879E-2</v>
       </c>
       <c r="D95" s="19">
         <v>1.6274</v>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C96" s="17">
         <f>SPF_growth!K96/100</f>
-        <v>9.93120631126021E-3</v>
+        <v>3.9724320942474689E-2</v>
       </c>
       <c r="D96" s="19">
         <v>2.1318000000000001</v>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="C97" s="17">
         <f>SPF_growth!K97/100</f>
-        <v>9.256067547759983E-3</v>
+        <v>3.7022158033604091E-2</v>
       </c>
       <c r="D97" s="19">
         <v>2.2999999999999998</v>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="C98" s="17">
         <f>SPF_growth!K98/100</f>
-        <v>8.4999972112047573E-3</v>
+        <v>3.3999956479689786E-2</v>
       </c>
       <c r="D98" s="19">
         <v>2.2629999999999999</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C99" s="17">
         <f>SPF_growth!K99/100</f>
-        <v>8.7124426101865549E-3</v>
+        <v>3.4849104990666735E-2</v>
       </c>
       <c r="D99" s="19">
         <v>2.25</v>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="C100" s="17">
         <f>SPF_growth!K100/100</f>
-        <v>8.462469551814511E-3</v>
+        <v>3.3849524669374631E-2</v>
       </c>
       <c r="D100" s="19">
         <v>2.375</v>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="C101" s="17">
         <f>SPF_growth!K101/100</f>
-        <v>8.4186884409296336E-3</v>
+        <v>3.3674039682024315E-2</v>
       </c>
       <c r="D101" s="19">
         <v>2.4371999999999998</v>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C102" s="17">
         <f>SPF_growth!K102/100</f>
-        <v>8.3686041882338191E-3</v>
+        <v>3.3472726278753751E-2</v>
       </c>
       <c r="D102" s="19">
         <v>2.3929999999999998</v>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="C103" s="17">
         <f>SPF_growth!K103/100</f>
-        <v>8.0436963008880813E-3</v>
+        <v>3.2174160451558631E-2</v>
       </c>
       <c r="D103" s="19">
         <v>2.4295</v>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="C104" s="17">
         <f>SPF_growth!K104/100</f>
-        <v>7.5062325715924416E-3</v>
+        <v>3.002472721304339E-2</v>
       </c>
       <c r="D104" s="19">
         <v>2.3864999999999998</v>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C105" s="17">
         <f>SPF_growth!K105/100</f>
-        <v>7.1499773483414408E-3</v>
+        <v>2.8599645080507052E-2</v>
       </c>
       <c r="D105" s="19">
         <v>2.6282999999999999</v>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="C106" s="17">
         <f>SPF_growth!K106/100</f>
-        <v>7.1374786656293043E-3</v>
+        <v>2.8549665653235801E-2</v>
       </c>
       <c r="D106" s="19">
         <v>2.6179999999999999</v>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="C107" s="17">
         <f>SPF_growth!K107/100</f>
-        <v>7.4811657137521248E-3</v>
+        <v>2.9923680151054066E-2</v>
       </c>
       <c r="D107" s="19">
         <v>2.4563000000000001</v>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C108" s="17">
         <f>SPF_growth!K108/100</f>
-        <v>7.1061813537347529E-3</v>
+        <v>2.8423923836997211E-2</v>
       </c>
       <c r="D108" s="19">
         <v>2.4340999999999999</v>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="C109" s="17">
         <f>SPF_growth!K109/100</f>
-        <v>6.8312134796624235E-3</v>
+        <v>2.7324427672990481E-2</v>
       </c>
       <c r="D109" s="19">
         <v>2.2284999999999999</v>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="C110" s="17">
         <f>SPF_growth!K110/100</f>
-        <v>6.2310511792726953E-3</v>
+        <v>2.4921876837449286E-2</v>
       </c>
       <c r="D110" s="19">
         <v>2.4424000000000001</v>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C111" s="17">
         <f>SPF_growth!K111/100</f>
-        <v>6.2672552093250289E-3</v>
+        <v>2.5051441081405335E-2</v>
       </c>
       <c r="D111" s="19">
         <v>2.3818999999999999</v>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="C112" s="17">
         <f>SPF_growth!K112/100</f>
-        <v>5.2059145264187201E-3</v>
+        <v>2.0819715725480581E-2</v>
       </c>
       <c r="D112" s="19">
         <v>2.6650999999999998</v>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="C113" s="17">
         <f>SPF_growth!K113/100</f>
-        <v>4.3297974658751404E-3</v>
+        <v>1.7302026034275331E-2</v>
       </c>
       <c r="D113" s="19">
         <v>2.5230000000000001</v>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="C114" s="17">
         <f>SPF_growth!K114/100</f>
-        <v>1.7892637742296102E-3</v>
+        <v>7.1034578270543491E-3</v>
       </c>
       <c r="D114" s="19">
         <v>1.756</v>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="C115" s="17">
         <f>SPF_growth!K115/100</f>
-        <v>2.1358213498881007E-3</v>
+        <v>8.4481298171730224E-3</v>
       </c>
       <c r="D115" s="19">
         <v>1.5550999999999999</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="C116" s="17">
         <f>SPF_growth!K116/100</f>
-        <v>4.5724672696989543E-3</v>
+        <v>1.8259943942635859E-2</v>
       </c>
       <c r="D116" s="19">
         <v>1.7069000000000001</v>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="C117" s="17">
         <f>SPF_growth!K117/100</f>
-        <v>6.2998367858191351E-3</v>
+        <v>2.5197435627253073E-2</v>
       </c>
       <c r="D117" s="19">
         <v>1.8022</v>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="C118" s="17">
         <f>SPF_growth!K118/100</f>
-        <v>6.3935801326362451E-3</v>
+        <v>2.557233489269306E-2</v>
       </c>
       <c r="D118" s="19">
         <v>1.6329</v>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="C119" s="17">
         <f>SPF_growth!K119/100</f>
-        <v>6.7812494761951836E-3</v>
+        <v>2.7124991784523322E-2</v>
       </c>
       <c r="D119" s="19">
         <v>1.7883</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="C120" s="17">
         <f>SPF_growth!K120/100</f>
-        <v>7.5497999417120099E-3</v>
+        <v>3.0196869157094408E-2</v>
       </c>
       <c r="D120" s="19">
         <v>1.8774999999999999</v>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="C121" s="17">
         <f>SPF_growth!K121/100</f>
-        <v>6.9809261182789406E-3</v>
+        <v>2.7919916781333765E-2</v>
       </c>
       <c r="D121" s="19">
         <v>1.7209000000000001</v>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="C122" s="17">
         <f>SPF_growth!K122/100</f>
-        <v>7.037163570069227E-3</v>
+        <v>2.8144729016513992E-2</v>
       </c>
       <c r="D122" s="19">
         <v>1.609</v>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C123" s="17">
         <f>SPF_growth!K123/100</f>
-        <v>8.1373908181443522E-3</v>
+        <v>3.2548294741932882E-2</v>
       </c>
       <c r="D123" s="19">
         <v>1.7246999999999999</v>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="C124" s="17">
         <f>SPF_growth!K124/100</f>
-        <v>7.6682308294573343E-3</v>
+        <v>3.0666873015053664E-2</v>
       </c>
       <c r="D124" s="19">
         <v>2.1303999999999998</v>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="C125" s="17">
         <f>SPF_growth!K125/100</f>
-        <v>6.7621047359829323E-3</v>
+        <v>2.7043798557728316E-2</v>
       </c>
       <c r="D125" s="19">
         <v>2.0125000000000002</v>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="C126" s="17">
         <f>SPF_growth!K126/100</f>
-        <v>6.4498981568823499E-3</v>
+        <v>2.5798401246440728E-2</v>
       </c>
       <c r="D126" s="19">
         <v>1.9692000000000001</v>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="C127" s="17">
         <f>SPF_growth!K127/100</f>
-        <v>6.6747721160693718E-3</v>
+        <v>2.6696423591486607E-2</v>
       </c>
       <c r="D127" s="19">
         <v>2.0750000000000002</v>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="C128" s="17">
         <f>SPF_growth!K128/100</f>
-        <v>6.537478811403874E-3</v>
+        <v>2.6149667507851193E-2</v>
       </c>
       <c r="D128" s="19">
         <v>2.1831</v>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="C129" s="17">
         <f>SPF_growth!K129/100</f>
-        <v>5.5623034792899873E-3</v>
+        <v>2.2246905346389179E-2</v>
       </c>
       <c r="D129" s="19">
         <v>2.1097999999999999</v>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="C130" s="17">
         <f>SPF_growth!K130/100</f>
-        <v>5.7743478978349305E-3</v>
+        <v>2.3089739005454302E-2</v>
       </c>
       <c r="D130" s="19">
         <v>2.1930999999999998</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="C131" s="17">
         <f>SPF_growth!K131/100</f>
-        <v>6.3249343229643262E-3</v>
+        <v>2.5298968673753031E-2</v>
       </c>
       <c r="D131" s="19">
         <v>2.1</v>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="C132" s="17">
         <f>SPF_growth!K132/100</f>
-        <v>6.6621833905278205E-3</v>
+        <v>2.664503782210792E-2</v>
       </c>
       <c r="D132" s="19">
         <v>2.0413999999999999</v>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="C133" s="17">
         <f>SPF_growth!K133/100</f>
-        <v>6.7248360627107928E-3</v>
+        <v>2.6897426719732165E-2</v>
       </c>
       <c r="D133" s="19">
         <v>1.8626</v>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="C134" s="17">
         <f>SPF_growth!K134/100</f>
-        <v>6.9936364774929594E-3</v>
+        <v>2.7973218931677257E-2</v>
       </c>
       <c r="D134" s="19">
         <v>1.984</v>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="C135" s="17">
         <f>SPF_growth!K135/100</f>
-        <v>7.343627884191184E-3</v>
+        <v>2.9373088629461863E-2</v>
       </c>
       <c r="D135" s="19">
         <v>1.8880999999999999</v>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="C136" s="17">
         <f>SPF_growth!K136/100</f>
-        <v>7.7436990780379578E-3</v>
+        <v>3.0974203259393374E-2</v>
       </c>
       <c r="D136" s="19">
         <v>1.9582999999999999</v>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="C137" s="17">
         <f>SPF_growth!K137/100</f>
-        <v>7.6687366054348782E-3</v>
+        <v>3.0674790416898023E-2</v>
       </c>
       <c r="D137" s="19">
         <v>2.0990000000000002</v>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="C138" s="17">
         <f>SPF_growth!K138/100</f>
-        <v>7.268691307859898E-3</v>
+        <v>2.9074080930262092E-2</v>
       </c>
       <c r="D138" s="19">
         <v>1.9161999999999999</v>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C139" s="17">
         <f>SPF_growth!K139/100</f>
-        <v>7.2187159691659009E-3</v>
+        <v>2.8874467005739701E-2</v>
       </c>
       <c r="D139" s="19">
         <v>1.8937999999999999</v>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="C140" s="17">
         <f>SPF_growth!K140/100</f>
-        <v>7.1747712375660466E-3</v>
+        <v>2.8696412232316781E-2</v>
       </c>
       <c r="D140" s="19">
         <v>1.9731000000000001</v>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="C141" s="17">
         <f>SPF_growth!K141/100</f>
-        <v>6.9499970517634679E-3</v>
+        <v>2.7799953786201481E-2</v>
       </c>
       <c r="D141" s="19">
         <v>2.0421999999999998</v>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="C142" s="17">
         <f>SPF_growth!K142/100</f>
-        <v>6.543647354068538E-3</v>
+        <v>2.6173390093989113E-2</v>
       </c>
       <c r="D142" s="19">
         <v>2.0434999999999999</v>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="C143" s="17">
         <f>SPF_growth!K143/100</f>
-        <v>6.03122229410058E-3</v>
+        <v>2.4124564450076491E-2</v>
       </c>
       <c r="D143" s="19">
         <v>1.9849000000000001</v>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="C144" s="17">
         <f>SPF_growth!K144/100</f>
-        <v>5.9687462139725866E-3</v>
+        <v>2.3874940481516616E-2</v>
       </c>
       <c r="D144" s="19">
         <v>2.0573999999999999</v>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="C145" s="17">
         <f>SPF_growth!K145/100</f>
-        <v>5.6249825964032052E-3</v>
+        <v>2.2499726069437509E-2</v>
       </c>
       <c r="D145" s="19">
         <v>2.2275999999999998</v>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="C146" s="17">
         <f>SPF_growth!K146/100</f>
-        <v>5.5187463676455994E-3</v>
+        <v>2.2074942821143084E-2</v>
       </c>
       <c r="D146" s="19">
         <v>2.2029000000000001</v>
@@ -9481,7 +9481,7 @@
       </c>
       <c r="C147" s="17">
         <f>SPF_growth!K147/100</f>
-        <v>5.8124890472608381E-3</v>
+        <v>2.3249827706908643E-2</v>
       </c>
       <c r="D147" s="19">
         <v>2.3595999999999999</v>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="C148" s="17">
         <f>SPF_growth!K148/100</f>
-        <v>6.3061991793602612E-3</v>
+        <v>2.5224202386088468E-2</v>
       </c>
       <c r="D148" s="19">
         <v>2.2749999999999999</v>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="C149" s="17">
         <f>SPF_growth!K149/100</f>
-        <v>5.8749818241192742E-3</v>
+        <v>2.3499714128947913E-2</v>
       </c>
       <c r="D149" s="19">
         <v>2.2052999999999998</v>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C150" s="17">
         <f>SPF_growth!K150/100</f>
-        <v>5.7937115634378866E-3</v>
+        <v>2.3174395144807347E-2</v>
       </c>
       <c r="D150" s="19">
         <v>2.0907</v>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="C151" s="17">
         <f>SPF_growth!K151/100</f>
-        <v>6.5998859078126859E-3</v>
+        <v>2.6398209672111594E-2</v>
       </c>
       <c r="D151" s="19">
         <v>2.2117</v>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C152" s="17">
         <f>SPF_growth!K152/100</f>
-        <v>6.7373568240012283E-3</v>
+        <v>2.6947754267060642E-2</v>
       </c>
       <c r="D152" s="19">
         <v>2.2597</v>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="C153" s="17">
         <f>SPF_growth!K153/100</f>
-        <v>6.6312159467654119E-3</v>
+        <v>2.6524465629334415E-2</v>
       </c>
       <c r="D153" s="19">
         <v>2.2589000000000001</v>
@@ -9586,7 +9586,7 @@
       </c>
       <c r="C154" s="17">
         <f>SPF_growth!K154/100</f>
-        <v>6.0186597195719393E-3</v>
+        <v>2.4073581713849102E-2</v>
       </c>
       <c r="D154" s="19">
         <v>2.3658000000000001</v>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="C155" s="17">
         <f>SPF_growth!K155/100</f>
-        <v>5.5562194855705016E-3</v>
+        <v>2.2224519712605417E-2</v>
       </c>
       <c r="D155" s="19">
         <v>2.2650999999999999</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C156" s="17">
         <f>SPF_growth!K156/100</f>
-        <v>5.0061460695227655E-3</v>
+        <v>2.0023360801152634E-2</v>
       </c>
       <c r="D156" s="19">
         <v>2.0855000000000001</v>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="C157" s="17">
         <f>SPF_growth!K157/100</f>
-        <v>4.9312488533208576E-3</v>
+        <v>1.9724981919775786E-2</v>
       </c>
       <c r="D157" s="19">
         <v>2.0369000000000002</v>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="C158" s="17">
         <f>SPF_growth!K158/100</f>
-        <v>4.4707222751454445E-3</v>
+        <v>1.7882562216519515E-2</v>
       </c>
       <c r="D158" s="19">
         <v>2.1383999999999999</v>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C159" s="17">
         <f>SPF_growth!K159/100</f>
-        <v>5.2778019665837839E-3</v>
+        <v>2.111108406407225E-2</v>
       </c>
       <c r="D159" s="19">
         <v>2.1581999999999999</v>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="C160" s="17">
         <f>SPF_growth!K160/100</f>
-        <v>1.7457701945593485E-2</v>
+        <v>6.9642892619533381E-2</v>
       </c>
       <c r="D160" s="19">
         <v>1.859</v>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="C161" s="17">
         <f>SPF_growth!K161/100</f>
-        <v>1.1519212755085606E-2</v>
+        <v>4.6045612628194066E-2</v>
       </c>
       <c r="D161" s="19">
         <v>1.7697000000000001</v>
@@ -9707,7 +9707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J161" sqref="J161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -10058,24 +10060,24 @@
         <v>3.4</v>
       </c>
       <c r="G19" s="14">
-        <f>1+C19/400</f>
-        <v>1.0096750000000001</v>
+        <f>1+C19/100</f>
+        <v>1.0387</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" ref="H19:J19" si="0">1+D19/400</f>
-        <v>1.0098750000000001</v>
+        <f t="shared" ref="H19:J19" si="0">1+D19/100</f>
+        <v>1.0395000000000001</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="0"/>
-        <v>1.008875</v>
+        <v>1.0355000000000001</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="0"/>
-        <v>1.0085</v>
+        <v>1.034</v>
       </c>
       <c r="K19" s="14">
         <f>100*(PRODUCT(G19:J19)^(1/4)-1)</f>
-        <v>0.92310923276235357</v>
+        <v>3.6922544312030681</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10098,24 +10100,24 @@
         <v>2.82</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" ref="G20:G83" si="1">1+C20/400</f>
-        <v>1.0118</v>
+        <f t="shared" ref="G20:G83" si="1">1+C20/100</f>
+        <v>1.0471999999999999</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" ref="H20:H83" si="2">1+D20/400</f>
-        <v>1.007125</v>
+        <f t="shared" ref="H20:H83" si="2">1+D20/100</f>
+        <v>1.0285</v>
       </c>
       <c r="I20" s="14">
-        <f t="shared" ref="I20:I83" si="3">1+E20/400</f>
-        <v>1.0062</v>
+        <f t="shared" ref="I20:I83" si="3">1+E20/100</f>
+        <v>1.0247999999999999</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" ref="J20:J83" si="4">1+F20/400</f>
-        <v>1.00705</v>
+        <f t="shared" ref="J20:J83" si="4">1+F20/100</f>
+        <v>1.0282</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" ref="K20:K83" si="5">100*(PRODUCT(G20:J20)^(1/4)-1)</f>
-        <v>0.80413554106493201</v>
+        <v>3.2137747581665987</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10139,23 +10141,23 @@
       </c>
       <c r="G21" s="14">
         <f t="shared" si="1"/>
-        <v>1.0087250000000001</v>
+        <v>1.0348999999999999</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="2"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="3"/>
-        <v>1.0056</v>
+        <v>1.0224</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="4"/>
-        <v>1.00705</v>
+        <v>1.0282</v>
       </c>
       <c r="K21" s="14">
         <f t="shared" si="5"/>
-        <v>0.68305145354505825</v>
+        <v>2.7313483157874074</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10179,23 +10181,23 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="1"/>
-        <v>1.00715</v>
+        <v>1.0286</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="2"/>
-        <v>1.0065</v>
+        <v>1.026</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="3"/>
-        <v>1.0082249999999999</v>
+        <v>1.0328999999999999</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="4"/>
-        <v>1.0075750000000001</v>
+        <v>1.0303</v>
       </c>
       <c r="K22" s="14">
         <f t="shared" si="5"/>
-        <v>0.7362304176079304</v>
+        <v>2.9446934030723515</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10219,23 +10221,23 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="1"/>
-        <v>1.007525</v>
+        <v>1.0301</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="2"/>
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="3"/>
-        <v>1.00685</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="4"/>
-        <v>1.003525</v>
+        <v>1.0141</v>
       </c>
       <c r="K23" s="14">
         <f t="shared" si="5"/>
-        <v>0.6972346001087093</v>
+        <v>2.7858348434464553</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -10259,23 +10261,23 @@
       </c>
       <c r="G24" s="14">
         <f t="shared" si="1"/>
-        <v>1.0091749999999999</v>
+        <v>1.0367</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="2"/>
-        <v>1.0098</v>
+        <v>1.0391999999999999</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="3"/>
-        <v>1.008875</v>
+        <v>1.0355000000000001</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="4"/>
-        <v>1.00865</v>
+        <v>1.0346</v>
       </c>
       <c r="K24" s="14">
         <f t="shared" si="5"/>
-        <v>0.91249075773616184</v>
+        <v>3.6498560972900052</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -10299,23 +10301,23 @@
       </c>
       <c r="G25" s="14">
         <f t="shared" si="1"/>
-        <v>1.0076750000000001</v>
+        <v>1.0306999999999999</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="2"/>
-        <v>1.0065249999999999</v>
+        <v>1.0261</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="3"/>
-        <v>1.0075750000000001</v>
+        <v>1.0303</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>1.007525</v>
+        <v>1.0301</v>
       </c>
       <c r="K25" s="14">
         <f t="shared" si="5"/>
-        <v>0.73248926246487489</v>
+        <v>2.9298316998485063</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -10339,23 +10341,23 @@
       </c>
       <c r="G26" s="14">
         <f t="shared" si="1"/>
-        <v>1.0057</v>
+        <v>1.0227999999999999</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="2"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="3"/>
-        <v>1.007125</v>
+        <v>1.0285</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="4"/>
-        <v>1.00925</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="K26" s="14">
         <f t="shared" si="5"/>
-        <v>0.72429386776224902</v>
+        <v>2.8962309099209271</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -10379,23 +10381,23 @@
       </c>
       <c r="G27" s="14">
         <f t="shared" si="1"/>
-        <v>1.0072000000000001</v>
+        <v>1.0287999999999999</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="2"/>
-        <v>1.0072749999999999</v>
+        <v>1.0290999999999999</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="3"/>
-        <v>1.0079</v>
+        <v>1.0316000000000001</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="4"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="K27" s="14">
         <f t="shared" si="5"/>
-        <v>0.73186843382373468</v>
+        <v>2.9273972275436044</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -10419,23 +10421,23 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="1"/>
-        <v>1.006575</v>
+        <v>1.0263</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="2"/>
-        <v>1.0080249999999999</v>
+        <v>1.0321</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="3"/>
-        <v>1.0066250000000001</v>
+        <v>1.0265</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="4"/>
-        <v>1.006975</v>
+        <v>1.0279</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="5"/>
-        <v>0.70498309407629467</v>
+        <v>2.8197353472078301</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -10459,23 +10461,23 @@
       </c>
       <c r="G29" s="14">
         <f t="shared" si="1"/>
-        <v>1.0072749999999999</v>
+        <v>1.0290999999999999</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="2"/>
-        <v>1.0088250000000001</v>
+        <v>1.0352999999999999</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="3"/>
-        <v>1.0047999999999999</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="4"/>
-        <v>1.0074000000000001</v>
+        <v>1.0296000000000001</v>
       </c>
       <c r="K29" s="14">
         <f t="shared" si="5"/>
-        <v>0.70739588682282584</v>
+        <v>2.8283661412836558</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -10499,23 +10501,23 @@
       </c>
       <c r="G30" s="14">
         <f t="shared" si="1"/>
-        <v>1.005225</v>
+        <v>1.0208999999999999</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="2"/>
-        <v>1.002075</v>
+        <v>1.0083</v>
       </c>
       <c r="I30" s="14">
         <f t="shared" si="3"/>
-        <v>1.0085999999999999</v>
+        <v>1.0344</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="4"/>
-        <v>1.005925</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="K30" s="14">
         <f t="shared" si="5"/>
-        <v>0.54535653638578818</v>
+        <v>2.1782702955254862</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -10539,23 +10541,23 @@
       </c>
       <c r="G31" s="14">
         <f t="shared" si="1"/>
-        <v>1.0015499999999999</v>
+        <v>1.0062</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="2"/>
-        <v>1.0044</v>
+        <v>1.0176000000000001</v>
       </c>
       <c r="I31" s="14">
         <f t="shared" si="3"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="4"/>
-        <v>1.0079750000000001</v>
+        <v>1.0319</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" si="5"/>
-        <v>0.53529086139807447</v>
+        <v>2.1372268634696212</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -10579,23 +10581,23 @@
       </c>
       <c r="G32" s="14">
         <f t="shared" si="1"/>
-        <v>1.0064249999999999</v>
+        <v>1.0257000000000001</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="2"/>
-        <v>1.0084500000000001</v>
+        <v>1.0338000000000001</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" si="3"/>
-        <v>1.00685</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="4"/>
-        <v>1.004775</v>
+        <v>1.0190999999999999</v>
       </c>
       <c r="K32" s="14">
         <f t="shared" si="5"/>
-        <v>0.66241501398442981</v>
+        <v>2.6486664339376853</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -10619,23 +10621,23 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="1"/>
-        <v>1.0073000000000001</v>
+        <v>1.0291999999999999</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="2"/>
-        <v>1.0061249999999999</v>
+        <v>1.0245</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="3"/>
-        <v>1.007825</v>
+        <v>1.0313000000000001</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="4"/>
-        <v>1.0047999999999999</v>
+        <v>1.0192000000000001</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="5"/>
-        <v>0.65118259928413913</v>
+        <v>2.6039412316339439</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -10659,23 +10661,23 @@
       </c>
       <c r="G34" s="14">
         <f t="shared" si="1"/>
-        <v>1.00905</v>
+        <v>1.0362</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="2"/>
-        <v>1.007325</v>
+        <v>1.0293000000000001</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="3"/>
-        <v>1.0061500000000001</v>
+        <v>1.0246</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="4"/>
-        <v>1.002675</v>
+        <v>1.0106999999999999</v>
       </c>
       <c r="K34" s="14">
         <f t="shared" si="5"/>
-        <v>0.62972928794058358</v>
+        <v>2.5157384741446132</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -10699,23 +10701,23 @@
       </c>
       <c r="G35" s="14">
         <f t="shared" si="1"/>
-        <v>1.0052000000000001</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="2"/>
-        <v>1.0049250000000001</v>
+        <v>1.0197000000000001</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="3"/>
-        <v>1.002675</v>
+        <v>1.0106999999999999</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="4"/>
-        <v>1.0034000000000001</v>
+        <v>1.0136000000000001</v>
       </c>
       <c r="K35" s="14">
         <f t="shared" si="5"/>
-        <v>0.40494520061742367</v>
+        <v>1.6191334241490107</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -10739,23 +10741,23 @@
       </c>
       <c r="G36" s="14">
         <f t="shared" si="1"/>
-        <v>1.003925</v>
+        <v>1.0157</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="2"/>
-        <v>1.0029250000000001</v>
+        <v>1.0117</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="3"/>
-        <v>1.0053749999999999</v>
+        <v>1.0215000000000001</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="4"/>
-        <v>1.0030250000000001</v>
+        <v>1.0121</v>
       </c>
       <c r="K36" s="14">
         <f t="shared" si="5"/>
-        <v>0.3812019316142834</v>
+        <v>1.5242405791953795</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -10779,23 +10781,23 @@
       </c>
       <c r="G37" s="14">
         <f t="shared" si="1"/>
-        <v>1.004875</v>
+        <v>1.0195000000000001</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="2"/>
-        <v>1.0024249999999999</v>
+        <v>1.0097</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="3"/>
-        <v>1.0038499999999999</v>
+        <v>1.0154000000000001</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="4"/>
-        <v>1.009925</v>
+        <v>1.0397000000000001</v>
       </c>
       <c r="K37" s="14">
         <f t="shared" si="5"/>
-        <v>0.5264785151075202</v>
+        <v>2.1012825081917041</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -10819,23 +10821,23 @@
       </c>
       <c r="G38" s="14">
         <f t="shared" si="1"/>
-        <v>1.0043500000000001</v>
+        <v>1.0174000000000001</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="2"/>
-        <v>1.0039750000000001</v>
+        <v>1.0159</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="3"/>
-        <v>1.0058750000000001</v>
+        <v>1.0235000000000001</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="4"/>
-        <v>1.0058499999999999</v>
+        <v>1.0234000000000001</v>
       </c>
       <c r="K38" s="14">
         <f t="shared" si="5"/>
-        <v>0.50121317528326603</v>
+        <v>2.0044194202922139</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -10859,23 +10861,23 @@
       </c>
       <c r="G39" s="14">
         <f t="shared" si="1"/>
-        <v>1.0048250000000001</v>
+        <v>1.0193000000000001</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="2"/>
-        <v>1.006</v>
+        <v>1.024</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="3"/>
-        <v>1.0066999999999999</v>
+        <v>1.0267999999999999</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="4"/>
-        <v>1.0055750000000001</v>
+        <v>1.0223</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" si="5"/>
-        <v>0.5774770227933379</v>
+        <v>2.3096385648375017</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -10899,23 +10901,23 @@
       </c>
       <c r="G40" s="14">
         <f t="shared" si="1"/>
-        <v>1.0062249999999999</v>
+        <v>1.0248999999999999</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="2"/>
-        <v>1.00475</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" si="3"/>
-        <v>1.00735</v>
+        <v>1.0294000000000001</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" si="4"/>
-        <v>1.0065999999999999</v>
+        <v>1.0264</v>
       </c>
       <c r="K40" s="14">
         <f t="shared" si="5"/>
-        <v>0.62308049092900664</v>
+        <v>2.4918001560686465</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -10939,23 +10941,23 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="1"/>
-        <v>1.001925</v>
+        <v>1.0077</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="2"/>
-        <v>1.0019750000000001</v>
+        <v>1.0079</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="3"/>
-        <v>1.0019750000000001</v>
+        <v>1.0079</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>1.0061</v>
+        <v>1.0244</v>
       </c>
       <c r="K41" s="14">
         <f t="shared" si="5"/>
-        <v>0.29921486625135163</v>
+        <v>1.1949708630425215</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -10979,23 +10981,23 @@
       </c>
       <c r="G42" s="14">
         <f t="shared" si="1"/>
-        <v>0.99770000000000003</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="2"/>
-        <v>1.0003500000000001</v>
+        <v>1.0014000000000001</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" si="3"/>
-        <v>1.0032749999999999</v>
+        <v>1.0131000000000001</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" si="4"/>
-        <v>1.006175</v>
+        <v>1.0246999999999999</v>
       </c>
       <c r="K42" s="14">
         <f t="shared" si="5"/>
-        <v>0.18699840887628216</v>
+        <v>0.74202101906017948</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -11019,23 +11021,23 @@
       </c>
       <c r="G43" s="14">
         <f t="shared" si="1"/>
-        <v>1.000475</v>
+        <v>1.0019</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" si="2"/>
-        <v>1.0041500000000001</v>
+        <v>1.0165999999999999</v>
       </c>
       <c r="I43" s="14">
         <f t="shared" si="3"/>
-        <v>1.007325</v>
+        <v>1.0293000000000001</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" si="4"/>
-        <v>1.0080249999999999</v>
+        <v>1.0321</v>
       </c>
       <c r="K43" s="14">
         <f t="shared" si="5"/>
-        <v>0.49892985882478147</v>
+        <v>1.9904617953586223</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -11059,23 +11061,23 @@
       </c>
       <c r="G44" s="14">
         <f t="shared" si="1"/>
-        <v>1.00465</v>
+        <v>1.0185999999999999</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="2"/>
-        <v>1.00705</v>
+        <v>1.0282</v>
       </c>
       <c r="I44" s="14">
         <f t="shared" si="3"/>
-        <v>1.0075499999999999</v>
+        <v>1.0302</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" si="4"/>
-        <v>1.0078</v>
+        <v>1.0311999999999999</v>
       </c>
       <c r="K44" s="14">
         <f t="shared" si="5"/>
-        <v>0.67617243643305347</v>
+        <v>2.7037805365373035</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -11099,23 +11101,23 @@
       </c>
       <c r="G45" s="14">
         <f t="shared" si="1"/>
-        <v>1.0062249999999999</v>
+        <v>1.0248999999999999</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="2"/>
-        <v>1.0071000000000001</v>
+        <v>1.0284</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="3"/>
-        <v>1.007925</v>
+        <v>1.0317000000000001</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="4"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="5"/>
-        <v>0.70373174696498619</v>
+        <v>2.8147140076542509</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -11139,23 +11141,23 @@
       </c>
       <c r="G46" s="14">
         <f t="shared" si="1"/>
-        <v>1.005425</v>
+        <v>1.0217000000000001</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="2"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I46" s="14">
         <f t="shared" si="3"/>
-        <v>1.0085500000000001</v>
+        <v>1.0342</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="4"/>
-        <v>1.006675</v>
+        <v>1.0266999999999999</v>
       </c>
       <c r="K46" s="14">
         <f t="shared" si="5"/>
-        <v>0.70368503741999877</v>
+        <v>2.8139816743379287</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -11179,23 +11181,23 @@
       </c>
       <c r="G47" s="14">
         <f t="shared" si="1"/>
-        <v>1.0057750000000001</v>
+        <v>1.0230999999999999</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" si="2"/>
-        <v>1.0076499999999999</v>
+        <v>1.0306</v>
       </c>
       <c r="I47" s="14">
         <f t="shared" si="3"/>
-        <v>1.0080499999999999</v>
+        <v>1.0322</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="4"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="K47" s="14">
         <f t="shared" si="5"/>
-        <v>0.70933774800152616</v>
+        <v>2.8369158274043293</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -11219,23 +11221,23 @@
       </c>
       <c r="G48" s="14">
         <f t="shared" si="1"/>
-        <v>1.0084249999999999</v>
+        <v>1.0337000000000001</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="2"/>
-        <v>1.007725</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="I48" s="14">
         <f t="shared" si="3"/>
-        <v>1.0075750000000001</v>
+        <v>1.0303</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" si="4"/>
-        <v>1.007825</v>
+        <v>1.0313000000000001</v>
       </c>
       <c r="K48" s="14">
         <f t="shared" si="5"/>
-        <v>0.78874483082800317</v>
+        <v>3.1549192351855382</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -11259,23 +11261,23 @@
       </c>
       <c r="G49" s="14">
         <f t="shared" si="1"/>
-        <v>1.0060249999999999</v>
+        <v>1.0241</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="2"/>
-        <v>1.007925</v>
+        <v>1.0317000000000001</v>
       </c>
       <c r="I49" s="14">
         <f t="shared" si="3"/>
-        <v>1.0058</v>
+        <v>1.0232000000000001</v>
       </c>
       <c r="J49" s="14">
         <f t="shared" si="4"/>
-        <v>1.007125</v>
+        <v>1.0285</v>
       </c>
       <c r="K49" s="14">
         <f t="shared" si="5"/>
-        <v>0.67183843321154679</v>
+        <v>2.68692668135182</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -11299,23 +11301,23 @@
       </c>
       <c r="G50" s="14">
         <f t="shared" si="1"/>
-        <v>1.0060249999999999</v>
+        <v>1.0241</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="2"/>
-        <v>1.0071000000000001</v>
+        <v>1.0284</v>
       </c>
       <c r="I50" s="14">
         <f t="shared" si="3"/>
-        <v>1.0081500000000001</v>
+        <v>1.0326</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="4"/>
-        <v>1.0083249999999999</v>
+        <v>1.0333000000000001</v>
       </c>
       <c r="K50" s="14">
         <f t="shared" si="5"/>
-        <v>0.73995781607556488</v>
+        <v>2.9593390764326211</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -11339,23 +11341,23 @@
       </c>
       <c r="G51" s="14">
         <f t="shared" si="1"/>
-        <v>1.00735</v>
+        <v>1.0294000000000001</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="2"/>
-        <v>1.008275</v>
+        <v>1.0330999999999999</v>
       </c>
       <c r="I51" s="14">
         <f t="shared" si="3"/>
-        <v>1.0085</v>
+        <v>1.034</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" si="4"/>
-        <v>1.00715</v>
+        <v>1.0286</v>
       </c>
       <c r="K51" s="14">
         <f t="shared" si="5"/>
-        <v>0.78185838971052135</v>
+        <v>3.1272402831565849</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -11379,23 +11381,23 @@
       </c>
       <c r="G52" s="14">
         <f t="shared" si="1"/>
-        <v>1.0082249999999999</v>
+        <v>1.0328999999999999</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="2"/>
-        <v>1.0083500000000001</v>
+        <v>1.0334000000000001</v>
       </c>
       <c r="I52" s="14">
         <f t="shared" si="3"/>
-        <v>1.0076499999999999</v>
+        <v>1.0306</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="4"/>
-        <v>1.0065999999999999</v>
+        <v>1.0264</v>
       </c>
       <c r="K52" s="14">
         <f t="shared" si="5"/>
-        <v>0.77060129398076604</v>
+        <v>3.0821288545825443</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -11419,23 +11421,23 @@
       </c>
       <c r="G53" s="14">
         <f t="shared" si="1"/>
-        <v>1.008</v>
+        <v>1.032</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="2"/>
-        <v>1.0067250000000001</v>
+        <v>1.0268999999999999</v>
       </c>
       <c r="I53" s="14">
         <f t="shared" si="3"/>
-        <v>1.00725</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="4"/>
-        <v>1.0074749999999999</v>
+        <v>1.0299</v>
       </c>
       <c r="K53" s="14">
         <f t="shared" si="5"/>
-        <v>0.73623960000597233</v>
+        <v>2.9448371699775322</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -11459,23 +11461,23 @@
       </c>
       <c r="G54" s="14">
         <f t="shared" si="1"/>
-        <v>1.0072000000000001</v>
+        <v>1.0287999999999999</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="2"/>
-        <v>1.0062249999999999</v>
+        <v>1.0248999999999999</v>
       </c>
       <c r="I54" s="14">
         <f t="shared" si="3"/>
-        <v>1.00745</v>
+        <v>1.0298</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="4"/>
-        <v>1.006875</v>
+        <v>1.0275000000000001</v>
       </c>
       <c r="K54" s="14">
         <f t="shared" si="5"/>
-        <v>0.69373953182720882</v>
+        <v>2.7748358219851665</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -11499,23 +11501,23 @@
       </c>
       <c r="G55" s="14">
         <f t="shared" si="1"/>
-        <v>1.0081500000000001</v>
+        <v>1.0326</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="2"/>
-        <v>1.0066250000000001</v>
+        <v>1.0265</v>
       </c>
       <c r="I55" s="14">
         <f t="shared" si="3"/>
-        <v>1.0076499999999999</v>
+        <v>1.0306</v>
       </c>
       <c r="J55" s="14">
         <f t="shared" si="4"/>
-        <v>1.0060249999999999</v>
+        <v>1.0241</v>
       </c>
       <c r="K55" s="14">
         <f t="shared" si="5"/>
-        <v>0.71121542451979547</v>
+        <v>2.8444582186815559</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -11539,23 +11541,23 @@
       </c>
       <c r="G56" s="14">
         <f t="shared" si="1"/>
-        <v>1.007725</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="2"/>
-        <v>1.0070749999999999</v>
+        <v>1.0283</v>
       </c>
       <c r="I56" s="14">
         <f t="shared" si="3"/>
-        <v>1.006275</v>
+        <v>1.0250999999999999</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="4"/>
-        <v>1.005825</v>
+        <v>1.0233000000000001</v>
       </c>
       <c r="K56" s="14">
         <f t="shared" si="5"/>
-        <v>0.6724734925990683</v>
+        <v>2.6895842963834404</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -11579,23 +11581,23 @@
       </c>
       <c r="G57" s="14">
         <f t="shared" si="1"/>
-        <v>1.006475</v>
+        <v>1.0259</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="2"/>
-        <v>1.0060249999999999</v>
+        <v>1.0241</v>
       </c>
       <c r="I57" s="14">
         <f t="shared" si="3"/>
-        <v>1.0058750000000001</v>
+        <v>1.0235000000000001</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="4"/>
-        <v>1.006375</v>
+        <v>1.0255000000000001</v>
       </c>
       <c r="K57" s="14">
         <f t="shared" si="5"/>
-        <v>0.61874699511825781</v>
+        <v>2.4749527910862268</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -11619,23 +11621,23 @@
       </c>
       <c r="G58" s="14">
         <f t="shared" si="1"/>
-        <v>1.0069999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="2"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="3"/>
-        <v>1.0062249999999999</v>
+        <v>1.0248999999999999</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="4"/>
-        <v>1.0060500000000001</v>
+        <v>1.0242</v>
       </c>
       <c r="K58" s="14">
         <f t="shared" si="5"/>
-        <v>0.63061654967608849</v>
+        <v>2.5223673921311862</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -11659,23 +11661,23 @@
       </c>
       <c r="G59" s="14">
         <f t="shared" si="1"/>
-        <v>1.006675</v>
+        <v>1.0266999999999999</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="2"/>
-        <v>1.0055750000000001</v>
+        <v>1.0223</v>
       </c>
       <c r="I59" s="14">
         <f t="shared" si="3"/>
-        <v>1.0053000000000001</v>
+        <v>1.0212000000000001</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="4"/>
-        <v>1.0066999999999999</v>
+        <v>1.0267999999999999</v>
       </c>
       <c r="K59" s="14">
         <f t="shared" si="5"/>
-        <v>0.60623011217268985</v>
+        <v>2.4246874179230549</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -11699,23 +11701,23 @@
       </c>
       <c r="G60" s="14">
         <f t="shared" si="1"/>
-        <v>1.0057</v>
+        <v>1.0227999999999999</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="2"/>
-        <v>1.006975</v>
+        <v>1.0279</v>
       </c>
       <c r="I60" s="14">
         <f t="shared" si="3"/>
-        <v>1.00685</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="4"/>
-        <v>1.0058</v>
+        <v>1.0232000000000001</v>
       </c>
       <c r="K60" s="14">
         <f t="shared" si="5"/>
-        <v>0.6331080545903145</v>
+        <v>2.5322338974672842</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -11739,23 +11741,23 @@
       </c>
       <c r="G61" s="14">
         <f t="shared" si="1"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="2"/>
-        <v>1.00695</v>
+        <v>1.0278</v>
       </c>
       <c r="I61" s="14">
         <f t="shared" si="3"/>
-        <v>1.00665</v>
+        <v>1.0266</v>
       </c>
       <c r="J61" s="14">
         <f t="shared" si="4"/>
-        <v>1.0064500000000001</v>
+        <v>1.0258</v>
       </c>
       <c r="K61" s="14">
         <f t="shared" si="5"/>
-        <v>0.67374799001742591</v>
+        <v>2.6949684692662457</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -11779,23 +11781,23 @@
       </c>
       <c r="G62" s="14">
         <f t="shared" si="1"/>
-        <v>1.006575</v>
+        <v>1.0263</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="2"/>
-        <v>1.0061249999999999</v>
+        <v>1.0245</v>
       </c>
       <c r="I62" s="14">
         <f t="shared" si="3"/>
-        <v>1.0064500000000001</v>
+        <v>1.0258</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="4"/>
-        <v>1.005825</v>
+        <v>1.0233000000000001</v>
       </c>
       <c r="K62" s="14">
         <f t="shared" si="5"/>
-        <v>0.62437075477326243</v>
+        <v>2.4974333062786735</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -11819,23 +11821,23 @@
       </c>
       <c r="G63" s="14">
         <f t="shared" si="1"/>
-        <v>1.00515</v>
+        <v>1.0206</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="2"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="I63" s="14">
         <f t="shared" si="3"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="J63" s="14">
         <f t="shared" si="4"/>
-        <v>1.0068250000000001</v>
+        <v>1.0273000000000001</v>
       </c>
       <c r="K63" s="14">
         <f t="shared" si="5"/>
-        <v>0.59685755205713953</v>
+        <v>2.3872257440832989</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -11859,23 +11861,23 @@
       </c>
       <c r="G64" s="14">
         <f t="shared" si="1"/>
-        <v>1.005725</v>
+        <v>1.0228999999999999</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="2"/>
-        <v>1.00465</v>
+        <v>1.0185999999999999</v>
       </c>
       <c r="I64" s="14">
         <f t="shared" si="3"/>
-        <v>1.00535</v>
+        <v>1.0214000000000001</v>
       </c>
       <c r="J64" s="14">
         <f t="shared" si="4"/>
-        <v>1.0046999999999999</v>
+        <v>1.0187999999999999</v>
       </c>
       <c r="K64" s="14">
         <f t="shared" si="5"/>
-        <v>0.51061485916221727</v>
+        <v>2.0423402163198157</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -11899,23 +11901,23 @@
       </c>
       <c r="G65" s="14">
         <f t="shared" si="1"/>
-        <v>1.005925</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="2"/>
-        <v>1.0052000000000001</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="I65" s="14">
         <f t="shared" si="3"/>
-        <v>1.00475</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="J65" s="14">
         <f t="shared" si="4"/>
-        <v>1.004475</v>
+        <v>1.0179</v>
       </c>
       <c r="K65" s="14">
         <f t="shared" si="5"/>
-        <v>0.50873503970347844</v>
+        <v>2.0347643376059654</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -11939,23 +11941,23 @@
       </c>
       <c r="G66" s="14">
         <f t="shared" si="1"/>
-        <v>1.0061249999999999</v>
+        <v>1.0245</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="2"/>
-        <v>1.0051749999999999</v>
+        <v>1.0206999999999999</v>
       </c>
       <c r="I66" s="14">
         <f t="shared" si="3"/>
-        <v>1.0050250000000001</v>
+        <v>1.0201</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="4"/>
-        <v>1.0056750000000001</v>
+        <v>1.0226999999999999</v>
       </c>
       <c r="K66" s="14">
         <f t="shared" si="5"/>
-        <v>0.54999064609069226</v>
+        <v>2.1998527946560653</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -11979,23 +11981,23 @@
       </c>
       <c r="G67" s="14">
         <f t="shared" si="1"/>
-        <v>1.005925</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="2"/>
-        <v>1.00505</v>
+        <v>1.0202</v>
       </c>
       <c r="I67" s="14">
         <f t="shared" si="3"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="4"/>
-        <v>1.00525</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="K67" s="14">
         <f t="shared" si="5"/>
-        <v>0.55436703808635635</v>
+        <v>2.2173746731410482</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -12019,23 +12021,23 @@
       </c>
       <c r="G68" s="14">
         <f t="shared" si="1"/>
-        <v>1.0062500000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="H68" s="14">
         <f t="shared" si="2"/>
-        <v>1.0057750000000001</v>
+        <v>1.0230999999999999</v>
       </c>
       <c r="I68" s="14">
         <f t="shared" si="3"/>
-        <v>1.005325</v>
+        <v>1.0213000000000001</v>
       </c>
       <c r="J68" s="14">
         <f t="shared" si="4"/>
-        <v>1.004675</v>
+        <v>1.0186999999999999</v>
       </c>
       <c r="K68" s="14">
         <f t="shared" si="5"/>
-        <v>0.55060822588559599</v>
+        <v>2.2022358943001974</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -12059,23 +12061,23 @@
       </c>
       <c r="G69" s="14">
         <f t="shared" si="1"/>
-        <v>1.0070250000000001</v>
+        <v>1.0281</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="2"/>
-        <v>1.0064249999999999</v>
+        <v>1.0257000000000001</v>
       </c>
       <c r="I69" s="14">
         <f t="shared" si="3"/>
-        <v>1.0059</v>
+        <v>1.0236000000000001</v>
       </c>
       <c r="J69" s="14">
         <f t="shared" si="4"/>
-        <v>1.0050250000000001</v>
+        <v>1.0201</v>
       </c>
       <c r="K69" s="14">
         <f t="shared" si="5"/>
-        <v>0.60934820113078825</v>
+        <v>2.4370787226465129</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -12099,23 +12101,23 @@
       </c>
       <c r="G70" s="14">
         <f t="shared" si="1"/>
-        <v>1.0062500000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="2"/>
-        <v>1.0060249999999999</v>
+        <v>1.0241</v>
       </c>
       <c r="I70" s="14">
         <f t="shared" si="3"/>
-        <v>1.0057750000000001</v>
+        <v>1.0230999999999999</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="4"/>
-        <v>1.0054000000000001</v>
+        <v>1.0216000000000001</v>
       </c>
       <c r="K70" s="14">
         <f t="shared" si="5"/>
-        <v>0.58624505213646927</v>
+        <v>2.3449221804469289</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -12139,23 +12141,23 @@
       </c>
       <c r="G71" s="14">
         <f t="shared" si="1"/>
-        <v>1.0046250000000001</v>
+        <v>1.0185</v>
       </c>
       <c r="H71" s="14">
         <f t="shared" si="2"/>
-        <v>1.005125</v>
+        <v>1.0205</v>
       </c>
       <c r="I71" s="14">
         <f t="shared" si="3"/>
-        <v>1.0062</v>
+        <v>1.0247999999999999</v>
       </c>
       <c r="J71" s="14">
         <f t="shared" si="4"/>
-        <v>1.0065249999999999</v>
+        <v>1.0261</v>
       </c>
       <c r="K71" s="14">
         <f t="shared" si="5"/>
-        <v>0.56184528476153073</v>
+        <v>2.2470323313886764</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -12179,23 +12181,23 @@
       </c>
       <c r="G72" s="14">
         <f t="shared" si="1"/>
-        <v>1.005325</v>
+        <v>1.0213000000000001</v>
       </c>
       <c r="H72" s="14">
         <f t="shared" si="2"/>
-        <v>1.005725</v>
+        <v>1.0228999999999999</v>
       </c>
       <c r="I72" s="14">
         <f t="shared" si="3"/>
-        <v>1.005725</v>
+        <v>1.0228999999999999</v>
       </c>
       <c r="J72" s="14">
         <f t="shared" si="4"/>
-        <v>1.0056750000000001</v>
+        <v>1.0226999999999999</v>
       </c>
       <c r="K72" s="14">
         <f t="shared" si="5"/>
-        <v>0.56124860919704034</v>
+        <v>2.2449781057347407</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -12219,23 +12221,23 @@
       </c>
       <c r="G73" s="14">
         <f t="shared" si="1"/>
-        <v>1.0076499999999999</v>
+        <v>1.0306</v>
       </c>
       <c r="H73" s="14">
         <f t="shared" si="2"/>
-        <v>1.0057</v>
+        <v>1.0227999999999999</v>
       </c>
       <c r="I73" s="14">
         <f t="shared" si="3"/>
-        <v>1.00515</v>
+        <v>1.0206</v>
       </c>
       <c r="J73" s="14">
         <f t="shared" si="4"/>
-        <v>1.0062500000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K73" s="14">
         <f t="shared" si="5"/>
-        <v>0.61870707036402184</v>
+        <v>2.4743262797058518</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -12259,23 +12261,23 @@
       </c>
       <c r="G74" s="14">
         <f t="shared" si="1"/>
-        <v>1.0042</v>
+        <v>1.0167999999999999</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="2"/>
-        <v>1.0042</v>
+        <v>1.0167999999999999</v>
       </c>
       <c r="I74" s="14">
         <f t="shared" si="3"/>
-        <v>1.0051749999999999</v>
+        <v>1.0206999999999999</v>
       </c>
       <c r="J74" s="14">
         <f t="shared" si="4"/>
-        <v>1.00515</v>
+        <v>1.0206</v>
       </c>
       <c r="K74" s="14">
         <f t="shared" si="5"/>
-        <v>0.46811346999353631</v>
+        <v>1.8723180630888958</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12299,23 +12301,23 @@
       </c>
       <c r="G75" s="14">
         <f t="shared" si="1"/>
-        <v>1.006675</v>
+        <v>1.0266999999999999</v>
       </c>
       <c r="H75" s="14">
         <f t="shared" si="2"/>
-        <v>1.0048250000000001</v>
+        <v>1.0193000000000001</v>
       </c>
       <c r="I75" s="14">
         <f t="shared" si="3"/>
-        <v>1.006</v>
+        <v>1.024</v>
       </c>
       <c r="J75" s="14">
         <f t="shared" si="4"/>
-        <v>1.006</v>
+        <v>1.024</v>
       </c>
       <c r="K75" s="14">
         <f t="shared" si="5"/>
-        <v>0.58747795233102806</v>
+        <v>2.3496530666561766</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12339,23 +12341,23 @@
       </c>
       <c r="G76" s="14">
         <f t="shared" si="1"/>
-        <v>1.006975</v>
+        <v>1.0279</v>
       </c>
       <c r="H76" s="14">
         <f t="shared" si="2"/>
-        <v>1.0066999999999999</v>
+        <v>1.0267999999999999</v>
       </c>
       <c r="I76" s="14">
         <f t="shared" si="3"/>
-        <v>1.004575</v>
+        <v>1.0183</v>
       </c>
       <c r="J76" s="14">
         <f t="shared" si="4"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="K76" s="14">
         <f t="shared" si="5"/>
-        <v>0.64368840898705315</v>
+        <v>2.574031161338608</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12379,23 +12381,23 @@
       </c>
       <c r="G77" s="14">
         <f t="shared" si="1"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>1.00475</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="I77" s="14">
         <f t="shared" si="3"/>
-        <v>1.0069999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="J77" s="14">
         <f t="shared" si="4"/>
-        <v>1.0062500000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K77" s="14">
         <f t="shared" si="5"/>
-        <v>0.63744641358740584</v>
+        <v>2.5491576060820087</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12419,23 +12421,23 @@
       </c>
       <c r="G78" s="14">
         <f t="shared" si="1"/>
-        <v>1.005625</v>
+        <v>1.0225</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>1.007625</v>
+        <v>1.0305</v>
       </c>
       <c r="I78" s="14">
         <f t="shared" si="3"/>
-        <v>1.0074000000000001</v>
+        <v>1.0296000000000001</v>
       </c>
       <c r="J78" s="14">
         <f t="shared" si="4"/>
-        <v>1.008475</v>
+        <v>1.0339</v>
       </c>
       <c r="K78" s="14">
         <f t="shared" si="5"/>
-        <v>0.72807160968004769</v>
+        <v>2.9116628268810896</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12459,23 +12461,23 @@
       </c>
       <c r="G79" s="14">
         <f t="shared" si="1"/>
-        <v>1.0077750000000001</v>
+        <v>1.0310999999999999</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>1.008175</v>
+        <v>1.0327</v>
       </c>
       <c r="I79" s="14">
         <f t="shared" si="3"/>
-        <v>1.00725</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="J79" s="14">
         <f t="shared" si="4"/>
-        <v>1.007125</v>
+        <v>1.0285</v>
       </c>
       <c r="K79" s="14">
         <f t="shared" si="5"/>
-        <v>0.75811621767614135</v>
+        <v>3.0323626163698769</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -12499,23 +12501,23 @@
       </c>
       <c r="G80" s="14">
         <f t="shared" si="1"/>
-        <v>1.0089999999999999</v>
+        <v>1.036</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>1.007725</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="I80" s="14">
         <f t="shared" si="3"/>
-        <v>1.006475</v>
+        <v>1.0259</v>
       </c>
       <c r="J80" s="14">
         <f t="shared" si="4"/>
-        <v>1.0064249999999999</v>
+        <v>1.0257000000000001</v>
       </c>
       <c r="K80" s="14">
         <f t="shared" si="5"/>
-        <v>0.74056953353818233</v>
+        <v>2.9616325518800224</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -12539,23 +12541,23 @@
       </c>
       <c r="G81" s="14">
         <f t="shared" si="1"/>
-        <v>1.0080499999999999</v>
+        <v>1.0322</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>1.00745</v>
+        <v>1.0298</v>
       </c>
       <c r="I81" s="14">
         <f t="shared" si="3"/>
-        <v>1.00675</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="J81" s="14">
         <f t="shared" si="4"/>
-        <v>1.0080249999999999</v>
+        <v>1.0321</v>
       </c>
       <c r="K81" s="14">
         <f t="shared" si="5"/>
-        <v>0.75686105000138948</v>
+        <v>3.027281589905817</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -12579,23 +12581,23 @@
       </c>
       <c r="G82" s="14">
         <f t="shared" si="1"/>
-        <v>1.008275</v>
+        <v>1.0330999999999999</v>
       </c>
       <c r="H82" s="14">
         <f t="shared" si="2"/>
-        <v>1.008</v>
+        <v>1.032</v>
       </c>
       <c r="I82" s="14">
         <f t="shared" si="3"/>
-        <v>1.0083249999999999</v>
+        <v>1.0333000000000001</v>
       </c>
       <c r="J82" s="14">
         <f t="shared" si="4"/>
-        <v>1.008</v>
+        <v>1.032</v>
       </c>
       <c r="K82" s="14">
         <f t="shared" si="5"/>
-        <v>0.81499886860054715</v>
+        <v>3.2599823264466421</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -12619,23 +12621,23 @@
       </c>
       <c r="G83" s="14">
         <f t="shared" si="1"/>
-        <v>1.0054000000000001</v>
+        <v>1.0216000000000001</v>
       </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>1.008375</v>
+        <v>1.0335000000000001</v>
       </c>
       <c r="I83" s="14">
         <f t="shared" si="3"/>
-        <v>1.009125</v>
+        <v>1.0365</v>
       </c>
       <c r="J83" s="14">
         <f t="shared" si="4"/>
-        <v>1.0091749999999999</v>
+        <v>1.0367</v>
       </c>
       <c r="K83" s="14">
         <f t="shared" si="5"/>
-        <v>0.80175650744016558</v>
+        <v>3.2056426627349532</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -12658,24 +12660,24 @@
         <v>3.57</v>
       </c>
       <c r="G84" s="14">
-        <f t="shared" ref="G84:G147" si="6">1+C84/400</f>
-        <v>1.0048999999999999</v>
+        <f t="shared" ref="G84:G147" si="6">1+C84/100</f>
+        <v>1.0196000000000001</v>
       </c>
       <c r="H84" s="14">
-        <f t="shared" ref="H84:H147" si="7">1+D84/400</f>
-        <v>1.0065249999999999</v>
+        <f t="shared" ref="H84:H147" si="7">1+D84/100</f>
+        <v>1.0261</v>
       </c>
       <c r="I84" s="14">
-        <f t="shared" ref="I84:I147" si="8">1+E84/400</f>
-        <v>1.0077499999999999</v>
+        <f t="shared" ref="I84:I147" si="8">1+E84/100</f>
+        <v>1.0309999999999999</v>
       </c>
       <c r="J84" s="14">
-        <f t="shared" ref="J84:J147" si="9">1+F84/400</f>
-        <v>1.0089250000000001</v>
+        <f t="shared" ref="J84:J147" si="9">1+F84/100</f>
+        <v>1.0357000000000001</v>
       </c>
       <c r="K84" s="14">
         <f t="shared" ref="K84:K147" si="10">100*(PRODUCT(G84:J84)^(1/4)-1)</f>
-        <v>0.70238949003273987</v>
+        <v>2.8082671208828014</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -12699,23 +12701,23 @@
       </c>
       <c r="G85" s="14">
         <f t="shared" si="6"/>
-        <v>1.0069250000000001</v>
+        <v>1.0277000000000001</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="7"/>
-        <v>1.006775</v>
+        <v>1.0270999999999999</v>
       </c>
       <c r="I85" s="14">
         <f t="shared" si="8"/>
-        <v>1.0074749999999999</v>
+        <v>1.0299</v>
       </c>
       <c r="J85" s="14">
         <f t="shared" si="9"/>
-        <v>1.0097750000000001</v>
+        <v>1.0390999999999999</v>
       </c>
       <c r="K85" s="14">
         <f t="shared" si="10"/>
-        <v>0.77367802883900882</v>
+        <v>3.0938769884218287</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -12739,23 +12741,23 @@
       </c>
       <c r="G86" s="14">
         <f t="shared" si="6"/>
-        <v>1.0002249999999999</v>
+        <v>1.0008999999999999</v>
       </c>
       <c r="H86" s="14">
         <f t="shared" si="7"/>
-        <v>1.0058750000000001</v>
+        <v>1.0235000000000001</v>
       </c>
       <c r="I86" s="14">
         <f t="shared" si="8"/>
-        <v>1.0091000000000001</v>
+        <v>1.0364</v>
       </c>
       <c r="J86" s="14">
         <f t="shared" si="9"/>
-        <v>1.010025</v>
+        <v>1.0401</v>
       </c>
       <c r="K86" s="14">
         <f t="shared" si="10"/>
-        <v>0.62989332866600911</v>
+        <v>2.5109502263829908</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -12779,23 +12781,23 @@
       </c>
       <c r="G87" s="14">
         <f t="shared" si="6"/>
-        <v>1.0065999999999999</v>
+        <v>1.0264</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="7"/>
-        <v>1.0097499999999999</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="I87" s="14">
         <f t="shared" si="8"/>
-        <v>1.0081</v>
+        <v>1.0324</v>
       </c>
       <c r="J87" s="14">
         <f t="shared" si="9"/>
-        <v>1.008375</v>
+        <v>1.0335000000000001</v>
       </c>
       <c r="K87" s="14">
         <f t="shared" si="10"/>
-        <v>0.82056296806840567</v>
+        <v>3.2815309627315603</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -12819,23 +12821,23 @@
       </c>
       <c r="G88" s="14">
         <f t="shared" si="6"/>
-        <v>1.0080750000000001</v>
+        <v>1.0323</v>
       </c>
       <c r="H88" s="14">
         <f t="shared" si="7"/>
-        <v>1.0085500000000001</v>
+        <v>1.0342</v>
       </c>
       <c r="I88" s="14">
         <f t="shared" si="8"/>
-        <v>1.00875</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="J88" s="14">
         <f t="shared" si="9"/>
-        <v>1.0090250000000001</v>
+        <v>1.0361</v>
       </c>
       <c r="K88" s="14">
         <f t="shared" si="10"/>
-        <v>0.85999403513785655</v>
+        <v>3.4399069185299558</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -12859,23 +12861,23 @@
       </c>
       <c r="G89" s="14">
         <f t="shared" si="6"/>
-        <v>1.006575</v>
+        <v>1.0263</v>
       </c>
       <c r="H89" s="14">
         <f t="shared" si="7"/>
-        <v>1.0085999999999999</v>
+        <v>1.0344</v>
       </c>
       <c r="I89" s="14">
         <f t="shared" si="8"/>
-        <v>1.007625</v>
+        <v>1.0305</v>
       </c>
       <c r="J89" s="14">
         <f t="shared" si="9"/>
-        <v>1.00915</v>
+        <v>1.0366</v>
       </c>
       <c r="K89" s="14">
         <f t="shared" si="10"/>
-        <v>0.79870220883944132</v>
+        <v>3.1942526948009808</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -12899,23 +12901,23 @@
       </c>
       <c r="G90" s="14">
         <f t="shared" si="6"/>
-        <v>1.0064249999999999</v>
+        <v>1.0257000000000001</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="7"/>
-        <v>1.007625</v>
+        <v>1.0305</v>
       </c>
       <c r="I90" s="14">
         <f t="shared" si="8"/>
-        <v>1.0082</v>
+        <v>1.0327999999999999</v>
       </c>
       <c r="J90" s="14">
         <f t="shared" si="9"/>
-        <v>1.0104</v>
+        <v>1.0416000000000001</v>
       </c>
       <c r="K90" s="14">
         <f t="shared" si="10"/>
-        <v>0.81614694367966312</v>
+        <v>3.2633923235135143</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -12939,23 +12941,23 @@
       </c>
       <c r="G91" s="14">
         <f t="shared" si="6"/>
-        <v>1.00685</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="H91" s="14">
         <f t="shared" si="7"/>
-        <v>1.008575</v>
+        <v>1.0343</v>
       </c>
       <c r="I91" s="14">
         <f t="shared" si="8"/>
-        <v>1.0088999999999999</v>
+        <v>1.0356000000000001</v>
       </c>
       <c r="J91" s="14">
         <f t="shared" si="9"/>
-        <v>1.0095499999999999</v>
+        <v>1.0382</v>
       </c>
       <c r="K91" s="14">
         <f t="shared" si="10"/>
-        <v>0.84682556073343296</v>
+        <v>3.3867273270793641</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -12979,23 +12981,23 @@
       </c>
       <c r="G92" s="14">
         <f t="shared" si="6"/>
-        <v>1.0084</v>
+        <v>1.0336000000000001</v>
       </c>
       <c r="H92" s="14">
         <f t="shared" si="7"/>
-        <v>1.0084</v>
+        <v>1.0336000000000001</v>
       </c>
       <c r="I92" s="14">
         <f t="shared" si="8"/>
-        <v>1.0100499999999999</v>
+        <v>1.0402</v>
       </c>
       <c r="J92" s="14">
         <f t="shared" si="9"/>
-        <v>1.0085249999999999</v>
+        <v>1.0341</v>
       </c>
       <c r="K92" s="14">
         <f t="shared" si="10"/>
-        <v>0.88435084553293297</v>
+        <v>3.5371240019959949</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13019,23 +13021,23 @@
       </c>
       <c r="G93" s="14">
         <f t="shared" si="6"/>
-        <v>1.0096499999999999</v>
+        <v>1.0386</v>
       </c>
       <c r="H93" s="14">
         <f t="shared" si="7"/>
-        <v>1.009625</v>
+        <v>1.0385</v>
       </c>
       <c r="I93" s="14">
         <f t="shared" si="8"/>
-        <v>1.009625</v>
+        <v>1.0385</v>
       </c>
       <c r="J93" s="14">
         <f t="shared" si="9"/>
-        <v>1.0089999999999999</v>
+        <v>1.036</v>
       </c>
       <c r="K93" s="14">
         <f t="shared" si="10"/>
-        <v>0.94749626894177208</v>
+        <v>3.7899419029671533</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13059,23 +13061,23 @@
       </c>
       <c r="G94" s="14">
         <f t="shared" si="6"/>
-        <v>1.0098750000000001</v>
+        <v>1.0395000000000001</v>
       </c>
       <c r="H94" s="14">
         <f t="shared" si="7"/>
-        <v>1.0096750000000001</v>
+        <v>1.0387</v>
       </c>
       <c r="I94" s="14">
         <f t="shared" si="8"/>
-        <v>1.0091749999999999</v>
+        <v>1.0367</v>
       </c>
       <c r="J94" s="14">
         <f t="shared" si="9"/>
-        <v>1.00945</v>
+        <v>1.0378000000000001</v>
       </c>
       <c r="K94" s="14">
         <f t="shared" si="10"/>
-        <v>0.95437163552321014</v>
+        <v>3.8174476483921582</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13099,23 +13101,23 @@
       </c>
       <c r="G95" s="14">
         <f t="shared" si="6"/>
-        <v>1.0106999999999999</v>
+        <v>1.0427999999999999</v>
       </c>
       <c r="H95" s="14">
         <f t="shared" si="7"/>
-        <v>1.0098499999999999</v>
+        <v>1.0394000000000001</v>
       </c>
       <c r="I95" s="14">
         <f t="shared" si="8"/>
-        <v>1.0102</v>
+        <v>1.0407999999999999</v>
       </c>
       <c r="J95" s="14">
         <f t="shared" si="9"/>
-        <v>1.009125</v>
+        <v>1.0365</v>
       </c>
       <c r="K95" s="14">
         <f t="shared" si="10"/>
-        <v>0.99685873278418935</v>
+        <v>3.9872471362852879</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13139,23 +13141,23 @@
       </c>
       <c r="G96" s="14">
         <f t="shared" si="6"/>
-        <v>1.0103249999999999</v>
+        <v>1.0412999999999999</v>
       </c>
       <c r="H96" s="14">
         <f t="shared" si="7"/>
-        <v>1.010025</v>
+        <v>1.0401</v>
       </c>
       <c r="I96" s="14">
         <f t="shared" si="8"/>
-        <v>1.0095000000000001</v>
+        <v>1.038</v>
       </c>
       <c r="J96" s="14">
         <f t="shared" si="9"/>
-        <v>1.0098750000000001</v>
+        <v>1.0395000000000001</v>
       </c>
       <c r="K96" s="14">
         <f t="shared" si="10"/>
-        <v>0.993120631126021</v>
+        <v>3.9724320942474689</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13179,23 +13181,23 @@
       </c>
       <c r="G97" s="14">
         <f t="shared" si="6"/>
-        <v>1.0100499999999999</v>
+        <v>1.0402</v>
       </c>
       <c r="H97" s="14">
         <f t="shared" si="7"/>
-        <v>1.0094000000000001</v>
+        <v>1.0376000000000001</v>
       </c>
       <c r="I97" s="14">
         <f t="shared" si="8"/>
-        <v>1.009225</v>
+        <v>1.0368999999999999</v>
       </c>
       <c r="J97" s="14">
         <f t="shared" si="9"/>
-        <v>1.0083500000000001</v>
+        <v>1.0334000000000001</v>
       </c>
       <c r="K97" s="14">
         <f t="shared" si="10"/>
-        <v>0.9256067547759983</v>
+        <v>3.7022158033604091</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -13219,23 +13221,23 @@
       </c>
       <c r="G98" s="14">
         <f t="shared" si="6"/>
-        <v>1.0084249999999999</v>
+        <v>1.0337000000000001</v>
       </c>
       <c r="H98" s="14">
         <f t="shared" si="7"/>
-        <v>1.008575</v>
+        <v>1.0343</v>
       </c>
       <c r="I98" s="14">
         <f t="shared" si="8"/>
-        <v>1.008575</v>
+        <v>1.0343</v>
       </c>
       <c r="J98" s="14">
         <f t="shared" si="9"/>
-        <v>1.0084249999999999</v>
+        <v>1.0337000000000001</v>
       </c>
       <c r="K98" s="14">
         <f t="shared" si="10"/>
-        <v>0.84999972112047573</v>
+        <v>3.3999956479689786</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -13259,23 +13261,23 @@
       </c>
       <c r="G99" s="14">
         <f t="shared" si="6"/>
-        <v>1.00915</v>
+        <v>1.0366</v>
       </c>
       <c r="H99" s="14">
         <f t="shared" si="7"/>
-        <v>1.0083</v>
+        <v>1.0331999999999999</v>
       </c>
       <c r="I99" s="14">
         <f t="shared" si="8"/>
-        <v>1.008475</v>
+        <v>1.0339</v>
       </c>
       <c r="J99" s="14">
         <f t="shared" si="9"/>
-        <v>1.0089250000000001</v>
+        <v>1.0357000000000001</v>
       </c>
       <c r="K99" s="14">
         <f t="shared" si="10"/>
-        <v>0.87124426101865549</v>
+        <v>3.4849104990666735</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -13299,23 +13301,23 @@
       </c>
       <c r="G100" s="14">
         <f t="shared" si="6"/>
-        <v>1.00875</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="H100" s="14">
         <f t="shared" si="7"/>
-        <v>1.008575</v>
+        <v>1.0343</v>
       </c>
       <c r="I100" s="14">
         <f t="shared" si="8"/>
-        <v>1.0080750000000001</v>
+        <v>1.0323</v>
       </c>
       <c r="J100" s="14">
         <f t="shared" si="9"/>
-        <v>1.0084500000000001</v>
+        <v>1.0338000000000001</v>
       </c>
       <c r="K100" s="14">
         <f t="shared" si="10"/>
-        <v>0.8462469551814511</v>
+        <v>3.3849524669374631</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -13339,23 +13341,23 @@
       </c>
       <c r="G101" s="14">
         <f t="shared" si="6"/>
-        <v>1.0089999999999999</v>
+        <v>1.036</v>
       </c>
       <c r="H101" s="14">
         <f t="shared" si="7"/>
-        <v>1.0081500000000001</v>
+        <v>1.0326</v>
       </c>
       <c r="I101" s="14">
         <f t="shared" si="8"/>
-        <v>1.0084</v>
+        <v>1.0336000000000001</v>
       </c>
       <c r="J101" s="14">
         <f t="shared" si="9"/>
-        <v>1.0081249999999999</v>
+        <v>1.0325</v>
       </c>
       <c r="K101" s="14">
         <f t="shared" si="10"/>
-        <v>0.84186884409296336</v>
+        <v>3.3674039682024315</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -13379,23 +13381,23 @@
       </c>
       <c r="G102" s="14">
         <f t="shared" si="6"/>
-        <v>1.0093000000000001</v>
+        <v>1.0371999999999999</v>
       </c>
       <c r="H102" s="14">
         <f t="shared" si="7"/>
-        <v>1.008175</v>
+        <v>1.0327</v>
       </c>
       <c r="I102" s="14">
         <f t="shared" si="8"/>
-        <v>1.008</v>
+        <v>1.032</v>
       </c>
       <c r="J102" s="14">
         <f t="shared" si="9"/>
-        <v>1.008</v>
+        <v>1.032</v>
       </c>
       <c r="K102" s="14">
         <f t="shared" si="10"/>
-        <v>0.83686041882338191</v>
+        <v>3.3472726278753751</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -13419,23 +13421,23 @@
       </c>
       <c r="G103" s="14">
         <f t="shared" si="6"/>
-        <v>1.008375</v>
+        <v>1.0335000000000001</v>
       </c>
       <c r="H103" s="14">
         <f t="shared" si="7"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I103" s="14">
         <f t="shared" si="8"/>
-        <v>1.0081</v>
+        <v>1.0324</v>
       </c>
       <c r="J103" s="14">
         <f t="shared" si="9"/>
-        <v>1.0082</v>
+        <v>1.0327999999999999</v>
       </c>
       <c r="K103" s="14">
         <f t="shared" si="10"/>
-        <v>0.80436963008880813</v>
+        <v>3.2174160451558631</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13459,23 +13461,23 @@
       </c>
       <c r="G104" s="14">
         <f t="shared" si="6"/>
-        <v>1.0077499999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="H104" s="14">
         <f t="shared" si="7"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I104" s="14">
         <f t="shared" si="8"/>
-        <v>1.007225</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="J104" s="14">
         <f t="shared" si="9"/>
-        <v>1.0075499999999999</v>
+        <v>1.0302</v>
       </c>
       <c r="K104" s="14">
         <f t="shared" si="10"/>
-        <v>0.75062325715924416</v>
+        <v>3.002472721304339</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -13499,23 +13501,23 @@
       </c>
       <c r="G105" s="14">
         <f t="shared" si="6"/>
-        <v>1.0071749999999999</v>
+        <v>1.0286999999999999</v>
       </c>
       <c r="H105" s="14">
         <f t="shared" si="7"/>
-        <v>1.0071749999999999</v>
+        <v>1.0286999999999999</v>
       </c>
       <c r="I105" s="14">
         <f t="shared" si="8"/>
-        <v>1.0068250000000001</v>
+        <v>1.0273000000000001</v>
       </c>
       <c r="J105" s="14">
         <f t="shared" si="9"/>
-        <v>1.007425</v>
+        <v>1.0297000000000001</v>
       </c>
       <c r="K105" s="14">
         <f t="shared" si="10"/>
-        <v>0.71499773483414408</v>
+        <v>2.8599645080507052</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -13539,23 +13541,23 @@
       </c>
       <c r="G106" s="14">
         <f t="shared" si="6"/>
-        <v>1.0067999999999999</v>
+        <v>1.0272000000000001</v>
       </c>
       <c r="H106" s="14">
         <f t="shared" si="7"/>
-        <v>1.00715</v>
+        <v>1.0286</v>
       </c>
       <c r="I106" s="14">
         <f t="shared" si="8"/>
-        <v>1.00735</v>
+        <v>1.0294000000000001</v>
       </c>
       <c r="J106" s="14">
         <f t="shared" si="9"/>
-        <v>1.00725</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="K106" s="14">
         <f t="shared" si="10"/>
-        <v>0.71374786656293043</v>
+        <v>2.8549665653235801</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13579,23 +13581,23 @@
       </c>
       <c r="G107" s="14">
         <f t="shared" si="6"/>
-        <v>1.0068250000000001</v>
+        <v>1.0273000000000001</v>
       </c>
       <c r="H107" s="14">
         <f t="shared" si="7"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I107" s="14">
         <f t="shared" si="8"/>
-        <v>1.0079499999999999</v>
+        <v>1.0318000000000001</v>
       </c>
       <c r="J107" s="14">
         <f t="shared" si="9"/>
-        <v>1.0076499999999999</v>
+        <v>1.0306</v>
       </c>
       <c r="K107" s="14">
         <f t="shared" si="10"/>
-        <v>0.74811657137521248</v>
+        <v>2.9923680151054066</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -13619,23 +13621,23 @@
       </c>
       <c r="G108" s="14">
         <f t="shared" si="6"/>
-        <v>1.0065</v>
+        <v>1.026</v>
       </c>
       <c r="H108" s="14">
         <f t="shared" si="7"/>
-        <v>1.00715</v>
+        <v>1.0286</v>
       </c>
       <c r="I108" s="14">
         <f t="shared" si="8"/>
-        <v>1.0072749999999999</v>
+        <v>1.0290999999999999</v>
       </c>
       <c r="J108" s="14">
         <f t="shared" si="9"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="K108" s="14">
         <f t="shared" si="10"/>
-        <v>0.71061813537347529</v>
+        <v>2.8423923836997211</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -13659,23 +13661,23 @@
       </c>
       <c r="G109" s="14">
         <f t="shared" si="6"/>
-        <v>1.00665</v>
+        <v>1.0266</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="7"/>
-        <v>1.0066999999999999</v>
+        <v>1.0267999999999999</v>
       </c>
       <c r="I109" s="14">
         <f t="shared" si="8"/>
-        <v>1.0073000000000001</v>
+        <v>1.0291999999999999</v>
       </c>
       <c r="J109" s="14">
         <f t="shared" si="9"/>
-        <v>1.006675</v>
+        <v>1.0266999999999999</v>
       </c>
       <c r="K109" s="14">
         <f t="shared" si="10"/>
-        <v>0.68312134796624235</v>
+        <v>2.7324427672990481</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -13699,23 +13701,23 @@
       </c>
       <c r="G110" s="14">
         <f t="shared" si="6"/>
-        <v>1.0054749999999999</v>
+        <v>1.0219</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="7"/>
-        <v>1.0057499999999999</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="I110" s="14">
         <f t="shared" si="8"/>
-        <v>1.0067250000000001</v>
+        <v>1.0268999999999999</v>
       </c>
       <c r="J110" s="14">
         <f t="shared" si="9"/>
-        <v>1.006975</v>
+        <v>1.0279</v>
       </c>
       <c r="K110" s="14">
         <f t="shared" si="10"/>
-        <v>0.62310511792726953</v>
+        <v>2.4921876837449286</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -13739,23 +13741,23 @@
       </c>
       <c r="G111" s="14">
         <f t="shared" si="6"/>
-        <v>1.003325</v>
+        <v>1.0133000000000001</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="7"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="8"/>
-        <v>1.00705</v>
+        <v>1.0282</v>
       </c>
       <c r="J111" s="14">
         <f t="shared" si="9"/>
-        <v>1.0078</v>
+        <v>1.0311999999999999</v>
       </c>
       <c r="K111" s="14">
         <f t="shared" si="10"/>
-        <v>0.62672552093250289</v>
+        <v>2.5051441081405335</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -13779,23 +13781,23 @@
       </c>
       <c r="G112" s="14">
         <f t="shared" si="6"/>
-        <v>1.0042500000000001</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="7"/>
-        <v>1.0045999999999999</v>
+        <v>1.0184</v>
       </c>
       <c r="I112" s="14">
         <f t="shared" si="8"/>
-        <v>1.0056750000000001</v>
+        <v>1.0226999999999999</v>
       </c>
       <c r="J112" s="14">
         <f t="shared" si="9"/>
-        <v>1.0063</v>
+        <v>1.0251999999999999</v>
       </c>
       <c r="K112" s="14">
         <f t="shared" si="10"/>
-        <v>0.52059145264187201</v>
+        <v>2.0819715725480581</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -13819,23 +13821,23 @@
       </c>
       <c r="G113" s="14">
         <f t="shared" si="6"/>
-        <v>1.0017750000000001</v>
+        <v>1.0071000000000001</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="7"/>
-        <v>1.003925</v>
+        <v>1.0157</v>
       </c>
       <c r="I113" s="14">
         <f t="shared" si="8"/>
-        <v>1.0052749999999999</v>
+        <v>1.0210999999999999</v>
       </c>
       <c r="J113" s="14">
         <f t="shared" si="9"/>
-        <v>1.0063500000000001</v>
+        <v>1.0254000000000001</v>
       </c>
       <c r="K113" s="14">
         <f t="shared" si="10"/>
-        <v>0.43297974658751404</v>
+        <v>1.7302026034275331</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -13859,23 +13861,23 @@
       </c>
       <c r="G114" s="14">
         <f t="shared" si="6"/>
-        <v>0.99724999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="7"/>
-        <v>1.0021</v>
+        <v>1.0084</v>
       </c>
       <c r="I114" s="14">
         <f t="shared" si="8"/>
-        <v>1.0021500000000001</v>
+        <v>1.0085999999999999</v>
       </c>
       <c r="J114" s="14">
         <f t="shared" si="9"/>
-        <v>1.0056750000000001</v>
+        <v>1.0226999999999999</v>
       </c>
       <c r="K114" s="14">
         <f t="shared" si="10"/>
-        <v>0.17892637742296102</v>
+        <v>0.71034578270543491</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -13899,23 +13901,23 @@
       </c>
       <c r="G115" s="14">
         <f t="shared" si="6"/>
-        <v>0.99562499999999998</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="7"/>
-        <v>1.0024249999999999</v>
+        <v>1.0097</v>
       </c>
       <c r="I115" s="14">
         <f t="shared" si="8"/>
-        <v>1.0044249999999999</v>
+        <v>1.0177</v>
       </c>
       <c r="J115" s="14">
         <f t="shared" si="9"/>
-        <v>1.0061</v>
+        <v>1.0244</v>
       </c>
       <c r="K115" s="14">
         <f t="shared" si="10"/>
-        <v>0.21358213498881007</v>
+        <v>0.84481298171730224</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -13939,23 +13941,23 @@
       </c>
       <c r="G116" s="14">
         <f t="shared" si="6"/>
-        <v>1.001125</v>
+        <v>1.0044999999999999</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="7"/>
-        <v>1.0043249999999999</v>
+        <v>1.0173000000000001</v>
       </c>
       <c r="I116" s="14">
         <f t="shared" si="8"/>
-        <v>1.0055499999999999</v>
+        <v>1.0222</v>
       </c>
       <c r="J116" s="14">
         <f t="shared" si="9"/>
-        <v>1.0073000000000001</v>
+        <v>1.0291999999999999</v>
       </c>
       <c r="K116" s="14">
         <f t="shared" si="10"/>
-        <v>0.45724672696989543</v>
+        <v>1.8259943942635859</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -13979,23 +13981,23 @@
       </c>
       <c r="G117" s="14">
         <f t="shared" si="6"/>
-        <v>1.005425</v>
+        <v>1.0217000000000001</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="7"/>
-        <v>1.0063</v>
+        <v>1.0251999999999999</v>
       </c>
       <c r="I117" s="14">
         <f t="shared" si="8"/>
-        <v>1.0070250000000001</v>
+        <v>1.0281</v>
       </c>
       <c r="J117" s="14">
         <f t="shared" si="9"/>
-        <v>1.0064500000000001</v>
+        <v>1.0258</v>
       </c>
       <c r="K117" s="14">
         <f t="shared" si="10"/>
-        <v>0.62998367858191351</v>
+        <v>2.5197435627253073</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -14019,23 +14021,23 @@
       </c>
       <c r="G118" s="14">
         <f t="shared" si="6"/>
-        <v>1.0057499999999999</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="7"/>
-        <v>1.0061</v>
+        <v>1.0244</v>
       </c>
       <c r="I118" s="14">
         <f t="shared" si="8"/>
-        <v>1.0064</v>
+        <v>1.0256000000000001</v>
       </c>
       <c r="J118" s="14">
         <f t="shared" si="9"/>
-        <v>1.007325</v>
+        <v>1.0293000000000001</v>
       </c>
       <c r="K118" s="14">
         <f t="shared" si="10"/>
-        <v>0.63935801326362451</v>
+        <v>2.557233489269306</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -14059,23 +14061,23 @@
       </c>
       <c r="G119" s="14">
         <f t="shared" si="6"/>
-        <v>1.0067999999999999</v>
+        <v>1.0272000000000001</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="7"/>
-        <v>1.0067999999999999</v>
+        <v>1.0272000000000001</v>
       </c>
       <c r="I119" s="14">
         <f t="shared" si="8"/>
-        <v>1.0067999999999999</v>
+        <v>1.0272000000000001</v>
       </c>
       <c r="J119" s="14">
         <f t="shared" si="9"/>
-        <v>1.0067250000000001</v>
+        <v>1.0268999999999999</v>
       </c>
       <c r="K119" s="14">
         <f t="shared" si="10"/>
-        <v>0.67812494761951836</v>
+        <v>2.7124991784523322</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -14099,23 +14101,23 @@
       </c>
       <c r="G120" s="14">
         <f t="shared" si="6"/>
-        <v>1.0082249999999999</v>
+        <v>1.0328999999999999</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="7"/>
-        <v>1.0070749999999999</v>
+        <v>1.0283</v>
       </c>
       <c r="I120" s="14">
         <f t="shared" si="8"/>
-        <v>1.006775</v>
+        <v>1.0270999999999999</v>
       </c>
       <c r="J120" s="14">
         <f t="shared" si="9"/>
-        <v>1.0081249999999999</v>
+        <v>1.0325</v>
       </c>
       <c r="K120" s="14">
         <f t="shared" si="10"/>
-        <v>0.75497999417120099</v>
+        <v>3.0196869157094408</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -14139,23 +14141,23 @@
       </c>
       <c r="G121" s="14">
         <f t="shared" si="6"/>
-        <v>1.0070749999999999</v>
+        <v>1.0283</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="7"/>
-        <v>1.0056499999999999</v>
+        <v>1.0226</v>
       </c>
       <c r="I121" s="14">
         <f t="shared" si="8"/>
-        <v>1.0077750000000001</v>
+        <v>1.0310999999999999</v>
       </c>
       <c r="J121" s="14">
         <f t="shared" si="9"/>
-        <v>1.007425</v>
+        <v>1.0297000000000001</v>
       </c>
       <c r="K121" s="14">
         <f t="shared" si="10"/>
-        <v>0.69809261182789406</v>
+        <v>2.7919916781333765</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -14179,23 +14181,23 @@
       </c>
       <c r="G122" s="14">
         <f t="shared" si="6"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="7"/>
-        <v>1.00675</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="I122" s="14">
         <f t="shared" si="8"/>
-        <v>1.0082249999999999</v>
+        <v>1.0328999999999999</v>
       </c>
       <c r="J122" s="14">
         <f t="shared" si="9"/>
-        <v>1.007225</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="K122" s="14">
         <f t="shared" si="10"/>
-        <v>0.7037163570069227</v>
+        <v>2.8144729016513992</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -14219,23 +14221,23 @@
       </c>
       <c r="G123" s="14">
         <f t="shared" si="6"/>
-        <v>1.008775</v>
+        <v>1.0350999999999999</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="7"/>
-        <v>1.0076750000000001</v>
+        <v>1.0306999999999999</v>
       </c>
       <c r="I123" s="14">
         <f t="shared" si="8"/>
-        <v>1.0084</v>
+        <v>1.0336000000000001</v>
       </c>
       <c r="J123" s="14">
         <f t="shared" si="9"/>
-        <v>1.0077</v>
+        <v>1.0307999999999999</v>
       </c>
       <c r="K123" s="14">
         <f t="shared" si="10"/>
-        <v>0.81373908181443522</v>
+        <v>3.2548294741932882</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -14259,23 +14261,23 @@
       </c>
       <c r="G124" s="14">
         <f t="shared" si="6"/>
-        <v>1.0085999999999999</v>
+        <v>1.0344</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="7"/>
-        <v>1.00865</v>
+        <v>1.0346</v>
       </c>
       <c r="I124" s="14">
         <f t="shared" si="8"/>
-        <v>1.007225</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="J124" s="14">
         <f t="shared" si="9"/>
-        <v>1.0062</v>
+        <v>1.0247999999999999</v>
       </c>
       <c r="K124" s="14">
         <f t="shared" si="10"/>
-        <v>0.76682308294573343</v>
+        <v>3.0666873015053664</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -14299,23 +14301,23 @@
       </c>
       <c r="G125" s="14">
         <f t="shared" si="6"/>
-        <v>1.0064249999999999</v>
+        <v>1.0257000000000001</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="7"/>
-        <v>1.0055000000000001</v>
+        <v>1.022</v>
       </c>
       <c r="I125" s="14">
         <f t="shared" si="8"/>
-        <v>1.00725</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="J125" s="14">
         <f t="shared" si="9"/>
-        <v>1.0078750000000001</v>
+        <v>1.0315000000000001</v>
       </c>
       <c r="K125" s="14">
         <f t="shared" si="10"/>
-        <v>0.67621047359829323</v>
+        <v>2.7043798557728316</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -14339,23 +14341,23 @@
       </c>
       <c r="G126" s="14">
         <f t="shared" si="6"/>
-        <v>1.0060500000000001</v>
+        <v>1.0242</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="7"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="I126" s="14">
         <f t="shared" si="8"/>
-        <v>1.00695</v>
+        <v>1.0278</v>
       </c>
       <c r="J126" s="14">
         <f t="shared" si="9"/>
-        <v>1.00685</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="K126" s="14">
         <f t="shared" si="10"/>
-        <v>0.64498981568823499</v>
+        <v>2.5798401246440728</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -14379,23 +14381,23 @@
       </c>
       <c r="G127" s="14">
         <f t="shared" si="6"/>
-        <v>1.0056750000000001</v>
+        <v>1.0226999999999999</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="7"/>
-        <v>1.0065249999999999</v>
+        <v>1.0261</v>
       </c>
       <c r="I127" s="14">
         <f t="shared" si="8"/>
-        <v>1.007525</v>
+        <v>1.0301</v>
       </c>
       <c r="J127" s="14">
         <f t="shared" si="9"/>
-        <v>1.006975</v>
+        <v>1.0279</v>
       </c>
       <c r="K127" s="14">
         <f t="shared" si="10"/>
-        <v>0.66747721160693718</v>
+        <v>2.6696423591486607</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -14419,23 +14421,23 @@
       </c>
       <c r="G128" s="14">
         <f t="shared" si="6"/>
-        <v>1.006275</v>
+        <v>1.0250999999999999</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="7"/>
-        <v>1.0065500000000001</v>
+        <v>1.0262</v>
       </c>
       <c r="I128" s="14">
         <f t="shared" si="8"/>
-        <v>1.006475</v>
+        <v>1.0259</v>
       </c>
       <c r="J128" s="14">
         <f t="shared" si="9"/>
-        <v>1.00685</v>
+        <v>1.0274000000000001</v>
       </c>
       <c r="K128" s="14">
         <f t="shared" si="10"/>
-        <v>0.6537478811403874</v>
+        <v>2.6149667507851193</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -14459,23 +14461,23 @@
       </c>
       <c r="G129" s="14">
         <f t="shared" si="6"/>
-        <v>1.0055000000000001</v>
+        <v>1.022</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="7"/>
-        <v>1.0045999999999999</v>
+        <v>1.0184</v>
       </c>
       <c r="I129" s="14">
         <f t="shared" si="8"/>
-        <v>1.005825</v>
+        <v>1.0233000000000001</v>
       </c>
       <c r="J129" s="14">
         <f t="shared" si="9"/>
-        <v>1.0063249999999999</v>
+        <v>1.0253000000000001</v>
       </c>
       <c r="K129" s="14">
         <f t="shared" si="10"/>
-        <v>0.55623034792899873</v>
+        <v>2.2246905346389179</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -14499,23 +14501,23 @@
       </c>
       <c r="G130" s="14">
         <f t="shared" si="6"/>
-        <v>1.0042500000000001</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="7"/>
-        <v>1.0051000000000001</v>
+        <v>1.0204</v>
       </c>
       <c r="I130" s="14">
         <f t="shared" si="8"/>
-        <v>1.0067250000000001</v>
+        <v>1.0268999999999999</v>
       </c>
       <c r="J130" s="14">
         <f t="shared" si="9"/>
-        <v>1.0070250000000001</v>
+        <v>1.0281</v>
       </c>
       <c r="K130" s="14">
         <f t="shared" si="10"/>
-        <v>0.57743478978349305</v>
+        <v>2.3089739005454302</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -14539,23 +14541,23 @@
       </c>
       <c r="G131" s="14">
         <f t="shared" si="6"/>
-        <v>1.0058499999999999</v>
+        <v>1.0234000000000001</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="7"/>
-        <v>1.006475</v>
+        <v>1.0259</v>
       </c>
       <c r="I131" s="14">
         <f t="shared" si="8"/>
-        <v>1.0061500000000001</v>
+        <v>1.0246</v>
       </c>
       <c r="J131" s="14">
         <f t="shared" si="9"/>
-        <v>1.0068250000000001</v>
+        <v>1.0273000000000001</v>
       </c>
       <c r="K131" s="14">
         <f t="shared" si="10"/>
-        <v>0.63249343229643262</v>
+        <v>2.5298968673753031</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -14579,23 +14581,23 @@
       </c>
       <c r="G132" s="14">
         <f t="shared" si="6"/>
-        <v>1.0058499999999999</v>
+        <v>1.0234000000000001</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="7"/>
-        <v>1.00675</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="I132" s="14">
         <f t="shared" si="8"/>
-        <v>1.0061249999999999</v>
+        <v>1.0245</v>
       </c>
       <c r="J132" s="14">
         <f t="shared" si="9"/>
-        <v>1.007925</v>
+        <v>1.0317000000000001</v>
       </c>
       <c r="K132" s="14">
         <f t="shared" si="10"/>
-        <v>0.66621833905278205</v>
+        <v>2.664503782210792</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -14619,23 +14621,23 @@
       </c>
       <c r="G133" s="14">
         <f t="shared" si="6"/>
-        <v>1.005825</v>
+        <v>1.0233000000000001</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="7"/>
-        <v>1.0066250000000001</v>
+        <v>1.0265</v>
       </c>
       <c r="I133" s="14">
         <f t="shared" si="8"/>
-        <v>1.007225</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="J133" s="14">
         <f t="shared" si="9"/>
-        <v>1.007225</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="K133" s="14">
         <f t="shared" si="10"/>
-        <v>0.67248360627107928</v>
+        <v>2.6897426719732165</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -14659,23 +14661,23 @@
       </c>
       <c r="G134" s="14">
         <f t="shared" si="6"/>
-        <v>1.006175</v>
+        <v>1.0246999999999999</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="7"/>
-        <v>1.00715</v>
+        <v>1.0286</v>
       </c>
       <c r="I134" s="14">
         <f t="shared" si="8"/>
-        <v>1.007325</v>
+        <v>1.0293000000000001</v>
       </c>
       <c r="J134" s="14">
         <f t="shared" si="9"/>
-        <v>1.007325</v>
+        <v>1.0293000000000001</v>
       </c>
       <c r="K134" s="14">
         <f t="shared" si="10"/>
-        <v>0.69936364774929594</v>
+        <v>2.7973218931677257</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -14699,23 +14701,23 @@
       </c>
       <c r="G135" s="14">
         <f t="shared" si="6"/>
-        <v>1.0075000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="7"/>
-        <v>1.0070250000000001</v>
+        <v>1.0281</v>
       </c>
       <c r="I135" s="14">
         <f t="shared" si="8"/>
-        <v>1.006775</v>
+        <v>1.0270999999999999</v>
       </c>
       <c r="J135" s="14">
         <f t="shared" si="9"/>
-        <v>1.0080750000000001</v>
+        <v>1.0323</v>
       </c>
       <c r="K135" s="14">
         <f t="shared" si="10"/>
-        <v>0.7343627884191184</v>
+        <v>2.9373088629461863</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -14739,23 +14741,23 @@
       </c>
       <c r="G136" s="14">
         <f t="shared" si="6"/>
-        <v>1.007225</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="7"/>
-        <v>1.0081</v>
+        <v>1.0324</v>
       </c>
       <c r="I136" s="14">
         <f t="shared" si="8"/>
-        <v>1.0078</v>
+        <v>1.0311999999999999</v>
       </c>
       <c r="J136" s="14">
         <f t="shared" si="9"/>
-        <v>1.0078499999999999</v>
+        <v>1.0314000000000001</v>
       </c>
       <c r="K136" s="14">
         <f t="shared" si="10"/>
-        <v>0.77436990780379578</v>
+        <v>3.0974203259393374</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -14779,23 +14781,23 @@
       </c>
       <c r="G137" s="14">
         <f t="shared" si="6"/>
-        <v>1.0076750000000001</v>
+        <v>1.0306999999999999</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="7"/>
-        <v>1.007825</v>
+        <v>1.0313000000000001</v>
       </c>
       <c r="I137" s="14">
         <f t="shared" si="8"/>
-        <v>1.0077750000000001</v>
+        <v>1.0310999999999999</v>
       </c>
       <c r="J137" s="14">
         <f t="shared" si="9"/>
-        <v>1.0074000000000001</v>
+        <v>1.0296000000000001</v>
       </c>
       <c r="K137" s="14">
         <f t="shared" si="10"/>
-        <v>0.76687366054348782</v>
+        <v>3.0674790416898023</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -14819,23 +14821,23 @@
       </c>
       <c r="G138" s="14">
         <f t="shared" si="6"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="7"/>
-        <v>1.007725</v>
+        <v>1.0308999999999999</v>
       </c>
       <c r="I138" s="14">
         <f t="shared" si="8"/>
-        <v>1.006975</v>
+        <v>1.0279</v>
       </c>
       <c r="J138" s="14">
         <f t="shared" si="9"/>
-        <v>1.0074749999999999</v>
+        <v>1.0299</v>
       </c>
       <c r="K138" s="14">
         <f t="shared" si="10"/>
-        <v>0.7268691307859898</v>
+        <v>2.9074080930262092</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -14859,23 +14861,23 @@
       </c>
       <c r="G139" s="14">
         <f t="shared" si="6"/>
-        <v>1.0075750000000001</v>
+        <v>1.0303</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="7"/>
-        <v>1.00705</v>
+        <v>1.0282</v>
       </c>
       <c r="I139" s="14">
         <f t="shared" si="8"/>
-        <v>1.0068999999999999</v>
+        <v>1.0276000000000001</v>
       </c>
       <c r="J139" s="14">
         <f t="shared" si="9"/>
-        <v>1.00735</v>
+        <v>1.0294000000000001</v>
       </c>
       <c r="K139" s="14">
         <f t="shared" si="10"/>
-        <v>0.72187159691659009</v>
+        <v>2.8874467005739701</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -14899,23 +14901,23 @@
       </c>
       <c r="G140" s="14">
         <f t="shared" si="6"/>
-        <v>1.0078</v>
+        <v>1.0311999999999999</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="7"/>
-        <v>1.00725</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="I140" s="14">
         <f t="shared" si="8"/>
-        <v>1.0060500000000001</v>
+        <v>1.0242</v>
       </c>
       <c r="J140" s="14">
         <f t="shared" si="9"/>
-        <v>1.0076000000000001</v>
+        <v>1.0304</v>
       </c>
       <c r="K140" s="14">
         <f t="shared" si="10"/>
-        <v>0.71747712375660466</v>
+        <v>2.8696412232316781</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -14939,23 +14941,23 @@
       </c>
       <c r="G141" s="14">
         <f t="shared" si="6"/>
-        <v>1.00705</v>
+        <v>1.0282</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="7"/>
-        <v>1.0069999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="I141" s="14">
         <f t="shared" si="8"/>
-        <v>1.006875</v>
+        <v>1.0275000000000001</v>
       </c>
       <c r="J141" s="14">
         <f t="shared" si="9"/>
-        <v>1.006875</v>
+        <v>1.0275000000000001</v>
       </c>
       <c r="K141" s="14">
         <f t="shared" si="10"/>
-        <v>0.69499970517634679</v>
+        <v>2.7799953786201481</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -14979,23 +14981,23 @@
       </c>
       <c r="G142" s="14">
         <f t="shared" si="6"/>
-        <v>1.006275</v>
+        <v>1.0250999999999999</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="7"/>
-        <v>1.0065500000000001</v>
+        <v>1.0262</v>
       </c>
       <c r="I142" s="14">
         <f t="shared" si="8"/>
-        <v>1.0072749999999999</v>
+        <v>1.0290999999999999</v>
       </c>
       <c r="J142" s="14">
         <f t="shared" si="9"/>
-        <v>1.0060750000000001</v>
+        <v>1.0243</v>
       </c>
       <c r="K142" s="14">
         <f t="shared" si="10"/>
-        <v>0.6543647354068538</v>
+        <v>2.6173390093989113</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -15019,23 +15021,23 @@
       </c>
       <c r="G143" s="14">
         <f t="shared" si="6"/>
-        <v>1.006175</v>
+        <v>1.0246999999999999</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="7"/>
-        <v>1.0056750000000001</v>
+        <v>1.0226999999999999</v>
       </c>
       <c r="I143" s="14">
         <f t="shared" si="8"/>
-        <v>1.0063</v>
+        <v>1.0251999999999999</v>
       </c>
       <c r="J143" s="14">
         <f t="shared" si="9"/>
-        <v>1.0059750000000001</v>
+        <v>1.0239</v>
       </c>
       <c r="K143" s="14">
         <f t="shared" si="10"/>
-        <v>0.603122229410058</v>
+        <v>2.4124564450076491</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -15059,23 +15061,23 @@
       </c>
       <c r="G144" s="14">
         <f t="shared" si="6"/>
-        <v>1.0060750000000001</v>
+        <v>1.0243</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="7"/>
-        <v>1.0058499999999999</v>
+        <v>1.0234000000000001</v>
       </c>
       <c r="I144" s="14">
         <f t="shared" si="8"/>
-        <v>1.005925</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="J144" s="14">
         <f t="shared" si="9"/>
-        <v>1.0060249999999999</v>
+        <v>1.0241</v>
       </c>
       <c r="K144" s="14">
         <f t="shared" si="10"/>
-        <v>0.59687462139725866</v>
+        <v>2.3874940481516616</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -15099,23 +15101,23 @@
       </c>
       <c r="G145" s="14">
         <f t="shared" si="6"/>
-        <v>1.005825</v>
+        <v>1.0233000000000001</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="7"/>
-        <v>1.005725</v>
+        <v>1.0228999999999999</v>
       </c>
       <c r="I145" s="14">
         <f t="shared" si="8"/>
-        <v>1.005625</v>
+        <v>1.0225</v>
       </c>
       <c r="J145" s="14">
         <f t="shared" si="9"/>
-        <v>1.005325</v>
+        <v>1.0213000000000001</v>
       </c>
       <c r="K145" s="14">
         <f t="shared" si="10"/>
-        <v>0.56249825964032052</v>
+        <v>2.2499726069437509</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -15139,23 +15141,23 @@
       </c>
       <c r="G146" s="14">
         <f t="shared" si="6"/>
-        <v>1.0056</v>
+        <v>1.0224</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="7"/>
-        <v>1.0054000000000001</v>
+        <v>1.0216000000000001</v>
       </c>
       <c r="I146" s="14">
         <f t="shared" si="8"/>
-        <v>1.0054749999999999</v>
+        <v>1.0219</v>
       </c>
       <c r="J146" s="14">
         <f t="shared" si="9"/>
-        <v>1.0056</v>
+        <v>1.0224</v>
       </c>
       <c r="K146" s="14">
         <f t="shared" si="10"/>
-        <v>0.55187463676455994</v>
+        <v>2.2074942821143084</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -15179,23 +15181,23 @@
       </c>
       <c r="G147" s="14">
         <f t="shared" si="6"/>
-        <v>1.0058</v>
+        <v>1.0232000000000001</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="7"/>
-        <v>1.005925</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="I147" s="14">
         <f t="shared" si="8"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="J147" s="14">
         <f t="shared" si="9"/>
-        <v>1.0055750000000001</v>
+        <v>1.0223</v>
       </c>
       <c r="K147" s="14">
         <f t="shared" si="10"/>
-        <v>0.58124890472608381</v>
+        <v>2.3249827706908643</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -15218,24 +15220,24 @@
         <v>2.74</v>
       </c>
       <c r="G148" s="14">
-        <f t="shared" ref="G148:G159" si="11">1+C148/400</f>
-        <v>1.0062249999999999</v>
+        <f t="shared" ref="G148:G161" si="11">1+C148/100</f>
+        <v>1.0248999999999999</v>
       </c>
       <c r="H148" s="14">
-        <f t="shared" ref="H148:H159" si="12">1+D148/400</f>
-        <v>1.0060750000000001</v>
+        <f t="shared" ref="H148:H161" si="12">1+D148/100</f>
+        <v>1.0243</v>
       </c>
       <c r="I148" s="14">
-        <f t="shared" ref="I148:I159" si="13">1+E148/400</f>
-        <v>1.0060750000000001</v>
+        <f t="shared" ref="I148:I161" si="13">1+E148/100</f>
+        <v>1.0243</v>
       </c>
       <c r="J148" s="14">
-        <f t="shared" ref="J148:J159" si="14">1+F148/400</f>
-        <v>1.00685</v>
+        <f t="shared" ref="J148:J161" si="14">1+F148/100</f>
+        <v>1.0274000000000001</v>
       </c>
       <c r="K148" s="14">
         <f t="shared" ref="K148:K159" si="15">100*(PRODUCT(G148:J148)^(1/4)-1)</f>
-        <v>0.63061991793602612</v>
+        <v>2.5224202386088468</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -15259,23 +15261,23 @@
       </c>
       <c r="G149" s="14">
         <f t="shared" si="11"/>
-        <v>1.0058499999999999</v>
+        <v>1.0234000000000001</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="12"/>
-        <v>1.0055750000000001</v>
+        <v>1.0223</v>
       </c>
       <c r="I149" s="14">
         <f t="shared" si="13"/>
-        <v>1.006</v>
+        <v>1.024</v>
       </c>
       <c r="J149" s="14">
         <f t="shared" si="14"/>
-        <v>1.0060750000000001</v>
+        <v>1.0243</v>
       </c>
       <c r="K149" s="14">
         <f t="shared" si="15"/>
-        <v>0.58749818241192742</v>
+        <v>2.3499714128947913</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -15299,23 +15301,23 @@
       </c>
       <c r="G150" s="14">
         <f t="shared" si="11"/>
-        <v>1.0060500000000001</v>
+        <v>1.0242</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="12"/>
-        <v>1.005925</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="I150" s="14">
         <f t="shared" si="13"/>
-        <v>1.005325</v>
+        <v>1.0213000000000001</v>
       </c>
       <c r="J150" s="14">
         <f t="shared" si="14"/>
-        <v>1.0058750000000001</v>
+        <v>1.0235000000000001</v>
       </c>
       <c r="K150" s="14">
         <f t="shared" si="15"/>
-        <v>0.57937115634378866</v>
+        <v>2.3174395144807347</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -15339,23 +15341,23 @@
       </c>
       <c r="G151" s="14">
         <f t="shared" si="11"/>
-        <v>1.0071749999999999</v>
+        <v>1.0286999999999999</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="12"/>
-        <v>1.00695</v>
+        <v>1.0278</v>
       </c>
       <c r="I151" s="14">
         <f t="shared" si="13"/>
-        <v>1.006275</v>
+        <v>1.0250999999999999</v>
       </c>
       <c r="J151" s="14">
         <f t="shared" si="14"/>
-        <v>1.006</v>
+        <v>1.024</v>
       </c>
       <c r="K151" s="14">
         <f t="shared" si="15"/>
-        <v>0.65998859078126859</v>
+        <v>2.6398209672111594</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -15379,23 +15381,23 @@
       </c>
       <c r="G152" s="14">
         <f t="shared" si="11"/>
-        <v>1.00745</v>
+        <v>1.0298</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="12"/>
-        <v>1.0069999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="I152" s="14">
         <f t="shared" si="13"/>
-        <v>1.0060249999999999</v>
+        <v>1.0241</v>
       </c>
       <c r="J152" s="14">
         <f t="shared" si="14"/>
-        <v>1.006475</v>
+        <v>1.0259</v>
       </c>
       <c r="K152" s="14">
         <f t="shared" si="15"/>
-        <v>0.67373568240012283</v>
+        <v>2.6947754267060642</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -15419,23 +15421,23 @@
       </c>
       <c r="G153" s="14">
         <f t="shared" si="11"/>
-        <v>1.00695</v>
+        <v>1.0278</v>
       </c>
       <c r="H153" s="14">
         <f t="shared" si="12"/>
-        <v>1.0062500000000001</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="I153" s="14">
         <f t="shared" si="13"/>
-        <v>1.006775</v>
+        <v>1.0270999999999999</v>
       </c>
       <c r="J153" s="14">
         <f t="shared" si="14"/>
-        <v>1.0065500000000001</v>
+        <v>1.0262</v>
       </c>
       <c r="K153" s="14">
         <f t="shared" si="15"/>
-        <v>0.66312159467654119</v>
+        <v>2.6524465629334415</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -15459,23 +15461,23 @@
       </c>
       <c r="G154" s="14">
         <f t="shared" si="11"/>
-        <v>1.0059499999999999</v>
+        <v>1.0238</v>
       </c>
       <c r="H154" s="14">
         <f t="shared" si="12"/>
-        <v>1.0066999999999999</v>
+        <v>1.0267999999999999</v>
       </c>
       <c r="I154" s="14">
         <f t="shared" si="13"/>
-        <v>1.0059</v>
+        <v>1.0236000000000001</v>
       </c>
       <c r="J154" s="14">
         <f t="shared" si="14"/>
-        <v>1.005525</v>
+        <v>1.0221</v>
       </c>
       <c r="K154" s="14">
         <f t="shared" si="15"/>
-        <v>0.60186597195719393</v>
+        <v>2.4073581713849102</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -15499,23 +15501,23 @@
       </c>
       <c r="G155" s="14">
         <f t="shared" si="11"/>
-        <v>1.0059</v>
+        <v>1.0236000000000001</v>
       </c>
       <c r="H155" s="14">
         <f t="shared" si="12"/>
-        <v>1.0055499999999999</v>
+        <v>1.0222</v>
       </c>
       <c r="I155" s="14">
         <f t="shared" si="13"/>
-        <v>1.0055750000000001</v>
+        <v>1.0223</v>
       </c>
       <c r="J155" s="14">
         <f t="shared" si="14"/>
-        <v>1.0052000000000001</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="K155" s="14">
         <f t="shared" si="15"/>
-        <v>0.55562194855705016</v>
+        <v>2.2224519712605417</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -15539,23 +15541,23 @@
       </c>
       <c r="G156" s="14">
         <f t="shared" si="11"/>
-        <v>1.0053000000000001</v>
+        <v>1.0212000000000001</v>
       </c>
       <c r="H156" s="14">
         <f t="shared" si="12"/>
-        <v>1.0055000000000001</v>
+        <v>1.022</v>
       </c>
       <c r="I156" s="14">
         <f t="shared" si="13"/>
-        <v>1.0049250000000001</v>
+        <v>1.0197000000000001</v>
       </c>
       <c r="J156" s="14">
         <f t="shared" si="14"/>
-        <v>1.0043</v>
+        <v>1.0172000000000001</v>
       </c>
       <c r="K156" s="14">
         <f t="shared" si="15"/>
-        <v>0.50061460695227655</v>
+        <v>2.0023360801152634</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -15579,23 +15581,23 @@
       </c>
       <c r="G157" s="14">
         <f t="shared" si="11"/>
-        <v>1.0049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="H157" s="14">
         <f t="shared" si="12"/>
-        <v>1.004875</v>
+        <v>1.0195000000000001</v>
       </c>
       <c r="I157" s="14">
         <f t="shared" si="13"/>
-        <v>1.00495</v>
+        <v>1.0198</v>
       </c>
       <c r="J157" s="14">
         <f t="shared" si="14"/>
-        <v>1.0048999999999999</v>
+        <v>1.0196000000000001</v>
       </c>
       <c r="K157" s="14">
         <f t="shared" si="15"/>
-        <v>0.49312488533208576</v>
+        <v>1.9724981919775786</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -15619,23 +15621,23 @@
       </c>
       <c r="G158" s="14">
         <f t="shared" si="11"/>
-        <v>1.00474475</v>
+        <v>1.0189790000000001</v>
       </c>
       <c r="H158" s="14">
         <f t="shared" si="12"/>
-        <v>1.0043385</v>
+        <v>1.0173540000000001</v>
       </c>
       <c r="I158" s="14">
         <f t="shared" si="13"/>
-        <v>1.0041547500000001</v>
+        <v>1.0166189999999999</v>
       </c>
       <c r="J158" s="14">
         <f t="shared" si="14"/>
-        <v>1.004645</v>
+        <v>1.01858</v>
       </c>
       <c r="K158" s="14">
         <f t="shared" si="15"/>
-        <v>0.44707222751454445</v>
+        <v>1.7882562216519515</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -15659,23 +15661,23 @@
       </c>
       <c r="G159" s="14">
         <f t="shared" si="11"/>
-        <v>1.0052622499999999</v>
+        <v>1.0210490000000001</v>
       </c>
       <c r="H159" s="14">
         <f t="shared" si="12"/>
-        <v>1.00505975</v>
+        <v>1.0202389999999999</v>
       </c>
       <c r="I159" s="14">
         <f t="shared" si="13"/>
-        <v>1.0053252500000001</v>
+        <v>1.021301</v>
       </c>
       <c r="J159" s="14">
         <f t="shared" si="14"/>
-        <v>1.0054639999999999</v>
+        <v>1.0218560000000001</v>
       </c>
       <c r="K159" s="14">
         <f t="shared" si="15"/>
-        <v>0.52778019665837839</v>
+        <v>2.111108406407225</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -15698,24 +15700,24 @@
         <v>4.0907999999999998</v>
       </c>
       <c r="G160" s="14">
-        <f t="shared" ref="G160" si="16">1+C160/400</f>
-        <v>1.0265837499999999</v>
+        <f t="shared" si="11"/>
+        <v>1.1063350000000001</v>
       </c>
       <c r="H160" s="14">
-        <f t="shared" ref="H160" si="17">1+D160/400</f>
-        <v>1.01619375</v>
+        <f t="shared" si="12"/>
+        <v>1.064775</v>
       </c>
       <c r="I160" s="14">
-        <f t="shared" ref="I160" si="18">1+E160/400</f>
-        <v>1.0168937499999999</v>
+        <f t="shared" si="13"/>
+        <v>1.0675749999999999</v>
       </c>
       <c r="J160" s="14">
-        <f t="shared" ref="J160" si="19">1+F160/400</f>
-        <v>1.010227</v>
+        <f t="shared" si="14"/>
+        <v>1.0409079999999999</v>
       </c>
       <c r="K160" s="14">
-        <f t="shared" ref="K160" si="20">100*(PRODUCT(G160:J160)^(1/4)-1)</f>
-        <v>1.7457701945593485</v>
+        <f t="shared" ref="K160" si="16">100*(PRODUCT(G160:J160)^(1/4)-1)</f>
+        <v>6.9642892619533381</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -15738,24 +15740,24 @@
         <v>3.5560999999999998</v>
       </c>
       <c r="G161" s="14">
-        <f t="shared" ref="G161" si="21">1+C161/400</f>
-        <v>1.0145165</v>
+        <f t="shared" si="11"/>
+        <v>1.058066</v>
       </c>
       <c r="H161" s="14">
-        <f t="shared" ref="H161" si="22">1+D161/400</f>
-        <v>1.0130859999999999</v>
+        <f t="shared" si="12"/>
+        <v>1.0523439999999999</v>
       </c>
       <c r="I161" s="14">
-        <f t="shared" ref="I161" si="23">1+E161/400</f>
-        <v>1.009595</v>
+        <f t="shared" si="13"/>
+        <v>1.0383800000000001</v>
       </c>
       <c r="J161" s="14">
-        <f t="shared" ref="J161" si="24">1+F161/400</f>
-        <v>1.0088902500000001</v>
+        <f t="shared" si="14"/>
+        <v>1.035561</v>
       </c>
       <c r="K161" s="14">
-        <f t="shared" ref="K161" si="25">100*(PRODUCT(G161:J161)^(1/4)-1)</f>
-        <v>1.1519212755085606</v>
+        <f t="shared" ref="K161" si="17">100*(PRODUCT(G161:J161)^(1/4)-1)</f>
+        <v>4.6045612628194066</v>
       </c>
     </row>
   </sheetData>

--- a/models/restricted_oos/data/US_local.xlsx
+++ b/models/restricted_oos/data/US_local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/replication-hasenzagl-et-al-2021/models/baseline_iis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Documents/Research/Economics/replication-hasenzagl-et-al-2021/models/baseline_iis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63490CB9-345E-3841-8280-EA8EE235F0E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A2A19-C4E3-5043-A99E-0DE6E1752C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="672">
   <si>
     <t>19851 *Q</t>
   </si>
@@ -1982,6 +1982,81 @@
   </si>
   <si>
     <t>WTISPLC@FRED</t>
+  </si>
+  <si>
+    <t>202009</t>
+  </si>
+  <si>
+    <t>202010</t>
+  </si>
+  <si>
+    <t>202011</t>
+  </si>
+  <si>
+    <t>202012</t>
+  </si>
+  <si>
+    <t>202101</t>
+  </si>
+  <si>
+    <t>202102</t>
+  </si>
+  <si>
+    <t>202103</t>
+  </si>
+  <si>
+    <t>202104</t>
+  </si>
+  <si>
+    <t>202105</t>
+  </si>
+  <si>
+    <t>202106</t>
+  </si>
+  <si>
+    <t>202107</t>
+  </si>
+  <si>
+    <t>202108</t>
+  </si>
+  <si>
+    <t>202109</t>
+  </si>
+  <si>
+    <t>202110</t>
+  </si>
+  <si>
+    <t>202111</t>
+  </si>
+  <si>
+    <t>202112</t>
+  </si>
+  <si>
+    <t>202201</t>
+  </si>
+  <si>
+    <t>202202</t>
+  </si>
+  <si>
+    <t>202203</t>
+  </si>
+  <si>
+    <t>202204</t>
+  </si>
+  <si>
+    <t>202205</t>
+  </si>
+  <si>
+    <t>202206</t>
+  </si>
+  <si>
+    <t>202207</t>
+  </si>
+  <si>
+    <t>202208</t>
+  </si>
+  <si>
+    <t>202209</t>
   </si>
 </sst>
 </file>
@@ -2460,9 +2535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C447"/>
+  <dimension ref="A1:C471"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15"/>
   <cols>
@@ -6386,7 +6463,7 @@
         <v>41486</v>
       </c>
       <c r="C361">
-        <v>104.67</v>
+        <v>104.61</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -7299,7 +7376,7 @@
         <v>44012</v>
       </c>
       <c r="C444" s="3">
-        <v>38.307272727272725</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7310,7 +7387,7 @@
         <v>44043</v>
       </c>
       <c r="C445" s="3">
-        <v>40.710454545454546</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -7321,18 +7398,282 @@
         <v>44074</v>
       </c>
       <c r="C446" s="3">
-        <v>42.339047619047619</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" s="15">
-        <v>202009</v>
+      <c r="A447" s="15" t="s">
+        <v>647</v>
       </c>
       <c r="B447" s="2">
         <v>44104</v>
       </c>
       <c r="C447" s="3">
-        <v>39.644210526315788</v>
+        <v>39.630000000000003</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B448" s="2">
+        <v>44135</v>
+      </c>
+      <c r="C448" s="3">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B449" s="2">
+        <v>44165</v>
+      </c>
+      <c r="C449" s="3">
+        <v>40.94</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B450" s="2">
+        <v>44196</v>
+      </c>
+      <c r="C450" s="3">
+        <v>47.02</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="B451" s="2">
+        <v>44227</v>
+      </c>
+      <c r="C451" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B452" s="2">
+        <v>44255</v>
+      </c>
+      <c r="C452" s="3">
+        <v>59.04</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="B453" s="2">
+        <v>44286</v>
+      </c>
+      <c r="C453" s="3">
+        <v>62.33</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B454" s="2">
+        <v>44316</v>
+      </c>
+      <c r="C454" s="3">
+        <v>61.72</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B455" s="2">
+        <v>44347</v>
+      </c>
+      <c r="C455" s="3">
+        <v>65.17</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B456" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C456" s="3">
+        <v>71.38</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B457" s="2">
+        <v>44408</v>
+      </c>
+      <c r="C457" s="3">
+        <v>72.489999999999995</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="B458" s="2">
+        <v>44439</v>
+      </c>
+      <c r="C458" s="3">
+        <v>67.73</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="B459" s="2">
+        <v>44469</v>
+      </c>
+      <c r="C459" s="3">
+        <v>71.650000000000006</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="B460" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C460" s="3">
+        <v>81.48</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="B461" s="2">
+        <v>44530</v>
+      </c>
+      <c r="C461" s="3">
+        <v>79.150000000000006</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B462" s="2">
+        <v>44561</v>
+      </c>
+      <c r="C462" s="3">
+        <v>71.709999999999994</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="B463" s="2">
+        <v>44592</v>
+      </c>
+      <c r="C463" s="3">
+        <v>83.22</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B464" s="2">
+        <v>44620</v>
+      </c>
+      <c r="C464" s="3">
+        <v>91.64</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="B465" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C465" s="3">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="B466" s="2">
+        <v>44681</v>
+      </c>
+      <c r="C466" s="3">
+        <v>101.78</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="B467" s="2">
+        <v>44712</v>
+      </c>
+      <c r="C467" s="3">
+        <v>109.55</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B468" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C468" s="3">
+        <v>114.84</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B469" s="2">
+        <v>44773</v>
+      </c>
+      <c r="C469" s="3">
+        <v>101.62</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="B470" s="2">
+        <v>44804</v>
+      </c>
+      <c r="C470" s="3">
+        <v>93.67</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B471" s="2">
+        <v>44834</v>
+      </c>
+      <c r="C471" s="3">
+        <v>84.26</v>
       </c>
     </row>
   </sheetData>
@@ -7342,9 +7683,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15"/>
   <cols>
@@ -7561,7 +7904,7 @@
       </c>
       <c r="C19" s="17">
         <f>SPF_growth!K19/100</f>
-        <v>3.6922544312030681E-2</v>
+        <v>3.6949069984729244E-2</v>
       </c>
       <c r="D19" s="19">
         <v>4.1242000000000001</v>
@@ -7576,7 +7919,7 @@
       </c>
       <c r="C20" s="17">
         <f>SPF_growth!K20/100</f>
-        <v>3.2137747581665987E-2</v>
+        <v>3.2133311828965283E-2</v>
       </c>
       <c r="D20" s="19">
         <v>4.3497000000000003</v>
@@ -7591,7 +7934,7 @@
       </c>
       <c r="C21" s="17">
         <f>SPF_growth!K21/100</f>
-        <v>2.7313483157874074E-2</v>
+        <v>2.7315993999210919E-2</v>
       </c>
       <c r="D21" s="19">
         <v>4.2496999999999998</v>
@@ -7606,7 +7949,7 @@
       </c>
       <c r="C22" s="17">
         <f>SPF_growth!K22/100</f>
-        <v>2.9446934030723515E-2</v>
+        <v>2.9446376883722092E-2</v>
       </c>
       <c r="D22" s="19">
         <v>3.8496999999999999</v>
@@ -7621,7 +7964,7 @@
       </c>
       <c r="C23" s="17">
         <f>SPF_growth!K23/100</f>
-        <v>2.7858348434464553E-2</v>
+        <v>2.7823826086363468E-2</v>
       </c>
       <c r="D23" s="19">
         <v>3.5871</v>
@@ -7636,7 +7979,7 @@
       </c>
       <c r="C24" s="17">
         <f>SPF_growth!K24/100</f>
-        <v>3.6498560972900052E-2</v>
+        <v>3.6518324149883652E-2</v>
       </c>
       <c r="D24" s="19">
         <v>3.4112</v>
@@ -7651,7 +7994,7 @@
       </c>
       <c r="C25" s="17">
         <f>SPF_growth!K25/100</f>
-        <v>2.9298316998485063E-2</v>
+        <v>2.9292311336723387E-2</v>
       </c>
       <c r="D25" s="19">
         <v>3.4998999999999998</v>
@@ -7666,7 +8009,7 @@
       </c>
       <c r="C26" s="17">
         <f>SPF_growth!K26/100</f>
-        <v>2.8962309099209271E-2</v>
+        <v>2.8983650217252244E-2</v>
       </c>
       <c r="D26" s="19">
         <v>3.6248</v>
@@ -7681,7 +8024,7 @@
       </c>
       <c r="C27" s="17">
         <f>SPF_growth!K27/100</f>
-        <v>2.9273972275436044E-2</v>
+        <v>2.9261716137965799E-2</v>
       </c>
       <c r="D27" s="19">
         <v>3.8997000000000002</v>
@@ -7696,7 +8039,7 @@
       </c>
       <c r="C28" s="17">
         <f>SPF_growth!K28/100</f>
-        <v>2.8197353472078301E-2</v>
+        <v>2.8221607711108154E-2</v>
       </c>
       <c r="D28" s="19">
         <v>4.3624999999999998</v>
@@ -7711,7 +8054,7 @@
       </c>
       <c r="C29" s="17">
         <f>SPF_growth!K29/100</f>
-        <v>2.8283661412836558E-2</v>
+        <v>2.8272207699701069E-2</v>
       </c>
       <c r="D29" s="19">
         <v>4.4999000000000002</v>
@@ -7726,7 +8069,7 @@
       </c>
       <c r="C30" s="17">
         <f>SPF_growth!K30/100</f>
-        <v>2.1782702955254862E-2</v>
+        <v>2.1801015558545744E-2</v>
       </c>
       <c r="D30" s="19">
         <v>4.3749000000000002</v>
@@ -7741,7 +8084,7 @@
       </c>
       <c r="C31" s="17">
         <f>SPF_growth!K31/100</f>
-        <v>2.1372268634696212E-2</v>
+        <v>2.1380944991943984E-2</v>
       </c>
       <c r="D31" s="19">
         <v>4.1997</v>
@@ -7756,7 +8099,7 @@
       </c>
       <c r="C32" s="17">
         <f>SPF_growth!K32/100</f>
-        <v>2.6486664339376853E-2</v>
+        <v>2.646985818270009E-2</v>
       </c>
       <c r="D32" s="19">
         <v>4.5749000000000004</v>
@@ -7771,7 +8114,7 @@
       </c>
       <c r="C33" s="17">
         <f>SPF_growth!K33/100</f>
-        <v>2.6039412316339439E-2</v>
+        <v>2.6040522969043911E-2</v>
       </c>
       <c r="D33" s="19">
         <v>4.9749999999999996</v>
@@ -7786,7 +8129,7 @@
       </c>
       <c r="C34" s="17">
         <f>SPF_growth!K34/100</f>
-        <v>2.5157384741446132E-2</v>
+        <v>2.5167204455429637E-2</v>
       </c>
       <c r="D34" s="19">
         <v>4.9000000000000004</v>
@@ -7801,7 +8144,7 @@
       </c>
       <c r="C35" s="17">
         <f>SPF_growth!K35/100</f>
-        <v>1.6191334241490107E-2</v>
+        <v>1.6200700452394523E-2</v>
       </c>
       <c r="D35" s="19">
         <v>4.8498999999999999</v>
@@ -7816,7 +8159,7 @@
       </c>
       <c r="C36" s="17">
         <f>SPF_growth!K36/100</f>
-        <v>1.5242405791953795E-2</v>
+        <v>1.5232697051196009E-2</v>
       </c>
       <c r="D36" s="19">
         <v>4.9123000000000001</v>
@@ -7831,7 +8174,7 @@
       </c>
       <c r="C37" s="17">
         <f>SPF_growth!K37/100</f>
-        <v>2.1012825081917041E-2</v>
+        <v>2.0990155074684047E-2</v>
       </c>
       <c r="D37" s="19">
         <v>4.6500000000000004</v>
@@ -7846,7 +8189,7 @@
       </c>
       <c r="C38" s="17">
         <f>SPF_growth!K38/100</f>
-        <v>2.0044194202922139E-2</v>
+        <v>2.0026389610491968E-2</v>
       </c>
       <c r="D38" s="19">
         <v>4.2249999999999996</v>
@@ -7861,7 +8204,7 @@
       </c>
       <c r="C39" s="17">
         <f>SPF_growth!K39/100</f>
-        <v>2.3096385648375017E-2</v>
+        <v>2.3077882620234469E-2</v>
       </c>
       <c r="D39" s="19">
         <v>4.3498999999999999</v>
@@ -7876,7 +8219,7 @@
       </c>
       <c r="C40" s="17">
         <f>SPF_growth!K40/100</f>
-        <v>2.4918001560686465E-2</v>
+        <v>2.4922736005715818E-2</v>
       </c>
       <c r="D40" s="19">
         <v>4.1997999999999998</v>
@@ -7891,7 +8234,7 @@
       </c>
       <c r="C41" s="17">
         <f>SPF_growth!K41/100</f>
-        <v>1.1949708630425215E-2</v>
+        <v>1.1955549189085257E-2</v>
       </c>
       <c r="D41" s="19">
         <v>4.4493999999999998</v>
@@ -7906,7 +8249,7 @@
       </c>
       <c r="C42" s="17">
         <f>SPF_growth!K42/100</f>
-        <v>7.4202101906017948E-3</v>
+        <v>7.4409548233194123E-3</v>
       </c>
       <c r="D42" s="19">
         <v>4.5114000000000001</v>
@@ -7921,7 +8264,7 @@
       </c>
       <c r="C43" s="17">
         <f>SPF_growth!K43/100</f>
-        <v>1.9904617953586223E-2</v>
+        <v>1.9900551360996221E-2</v>
       </c>
       <c r="D43" s="19">
         <v>3.6623999999999999</v>
@@ -7936,7 +8279,7 @@
       </c>
       <c r="C44" s="17">
         <f>SPF_growth!K44/100</f>
-        <v>2.7037805365373035E-2</v>
+        <v>2.7025973044406904E-2</v>
       </c>
       <c r="D44" s="19">
         <v>3.8374999999999999</v>
@@ -7951,7 +8294,7 @@
       </c>
       <c r="C45" s="17">
         <f>SPF_growth!K45/100</f>
-        <v>2.8147140076542509E-2</v>
+        <v>2.8152100441876327E-2</v>
       </c>
       <c r="D45" s="19">
         <v>3.7724000000000002</v>
@@ -7966,7 +8309,7 @@
       </c>
       <c r="C46" s="17">
         <f>SPF_growth!K46/100</f>
-        <v>2.8139816743379287E-2</v>
+        <v>2.8158305044827747E-2</v>
       </c>
       <c r="D46" s="19">
         <v>3.5499000000000001</v>
@@ -7981,7 +8324,7 @@
       </c>
       <c r="C47" s="17">
         <f>SPF_growth!K47/100</f>
-        <v>2.8369158274043293E-2</v>
+        <v>2.8376867278957052E-2</v>
       </c>
       <c r="D47" s="19">
         <v>3.3999000000000001</v>
@@ -7996,7 +8339,7 @@
       </c>
       <c r="C48" s="17">
         <f>SPF_growth!K48/100</f>
-        <v>3.1549192351855382E-2</v>
+        <v>3.1560947873875422E-2</v>
       </c>
       <c r="D48" s="19">
         <v>3.5249000000000001</v>
@@ -8011,7 +8354,7 @@
       </c>
       <c r="C49" s="17">
         <f>SPF_growth!K49/100</f>
-        <v>2.68692668135182E-2</v>
+        <v>2.6852974980407174E-2</v>
       </c>
       <c r="D49" s="19">
         <v>3.3250000000000002</v>
@@ -8026,7 +8369,7 @@
       </c>
       <c r="C50" s="17">
         <f>SPF_growth!K50/100</f>
-        <v>2.9593390764326211E-2</v>
+        <v>2.9611668672248737E-2</v>
       </c>
       <c r="D50" s="19">
         <v>3.2498999999999998</v>
@@ -8041,7 +8384,7 @@
       </c>
       <c r="C51" s="17">
         <f>SPF_growth!K51/100</f>
-        <v>3.1272402831565849E-2</v>
+        <v>3.1270125174412078E-2</v>
       </c>
       <c r="D51" s="19">
         <v>3.2124999999999999</v>
@@ -8056,7 +8399,7 @@
       </c>
       <c r="C52" s="17">
         <f>SPF_growth!K52/100</f>
-        <v>3.0821288545825443E-2</v>
+        <v>3.0854269815176139E-2</v>
       </c>
       <c r="D52" s="19">
         <v>3.3748999999999998</v>
@@ -8071,7 +8414,7 @@
       </c>
       <c r="C53" s="17">
         <f>SPF_growth!K53/100</f>
-        <v>2.9448371699775322E-2</v>
+        <v>2.944787059152576E-2</v>
       </c>
       <c r="D53" s="19">
         <v>3.3</v>
@@ -8086,7 +8429,7 @@
       </c>
       <c r="C54" s="17">
         <f>SPF_growth!K54/100</f>
-        <v>2.7748358219851665E-2</v>
+        <v>2.773058163641573E-2</v>
       </c>
       <c r="D54" s="19">
         <v>3.03</v>
@@ -8101,7 +8444,7 @@
       </c>
       <c r="C55" s="17">
         <f>SPF_growth!K55/100</f>
-        <v>2.8444582186815559E-2</v>
+        <v>2.8438854249963619E-2</v>
       </c>
       <c r="D55" s="19">
         <v>3.2</v>
@@ -8116,7 +8459,7 @@
       </c>
       <c r="C56" s="17">
         <f>SPF_growth!K56/100</f>
-        <v>2.6895842963834404E-2</v>
+        <v>2.6889155529073339E-2</v>
       </c>
       <c r="D56" s="19">
         <v>3.2749999999999999</v>
@@ -8131,7 +8474,7 @@
       </c>
       <c r="C57" s="17">
         <f>SPF_growth!K57/100</f>
-        <v>2.4749527910862268E-2</v>
+        <v>2.4745034472481775E-2</v>
       </c>
       <c r="D57" s="19">
         <v>3.3250000000000002</v>
@@ -8146,7 +8489,7 @@
       </c>
       <c r="C58" s="17">
         <f>SPF_growth!K58/100</f>
-        <v>2.5223673921311862E-2</v>
+        <v>2.5239430777144412E-2</v>
       </c>
       <c r="D58" s="19">
         <v>3.4249999999999998</v>
@@ -8161,7 +8504,7 @@
       </c>
       <c r="C59" s="17">
         <f>SPF_growth!K59/100</f>
-        <v>2.4246874179230549E-2</v>
+        <v>2.4239625011623023E-2</v>
       </c>
       <c r="D59" s="19">
         <v>3.4125000000000001</v>
@@ -8176,7 +8519,7 @@
       </c>
       <c r="C60" s="17">
         <f>SPF_growth!K60/100</f>
-        <v>2.5322338974672842E-2</v>
+        <v>2.5311053466613664E-2</v>
       </c>
       <c r="D60" s="19">
         <v>3.5249999999999999</v>
@@ -8191,7 +8534,7 @@
       </c>
       <c r="C61" s="17">
         <f>SPF_growth!K61/100</f>
-        <v>2.6949684692662457E-2</v>
+        <v>2.6960674770536208E-2</v>
       </c>
       <c r="D61" s="19">
         <v>3.2749999999999999</v>
@@ -8206,7 +8549,7 @@
       </c>
       <c r="C62" s="17">
         <f>SPF_growth!K62/100</f>
-        <v>2.4974333062786735E-2</v>
+        <v>2.4989348060001193E-2</v>
       </c>
       <c r="D62" s="19">
         <v>2.95</v>
@@ -8221,7 +8564,7 @@
       </c>
       <c r="C63" s="17">
         <f>SPF_growth!K63/100</f>
-        <v>2.3872257440832989E-2</v>
+        <v>2.3885496721466115E-2</v>
       </c>
       <c r="D63" s="19">
         <v>2.7749999999999999</v>
@@ -8236,7 +8579,7 @@
       </c>
       <c r="C64" s="17">
         <f>SPF_growth!K64/100</f>
-        <v>2.0423402163198157E-2</v>
+        <v>2.0433700398009735E-2</v>
       </c>
       <c r="D64" s="19">
         <v>2.8748999999999998</v>
@@ -8251,7 +8594,7 @@
       </c>
       <c r="C65" s="17">
         <f>SPF_growth!K65/100</f>
-        <v>2.0347643376059654E-2</v>
+        <v>2.0336431148157974E-2</v>
       </c>
       <c r="D65" s="19">
         <v>3.0024999999999999</v>
@@ -8266,7 +8609,7 @@
       </c>
       <c r="C66" s="17">
         <f>SPF_growth!K66/100</f>
-        <v>2.1998527946560653E-2</v>
+        <v>2.1993542004719702E-2</v>
       </c>
       <c r="D66" s="19">
         <v>3.0249999999999999</v>
@@ -8281,7 +8624,7 @@
       </c>
       <c r="C67" s="17">
         <f>SPF_growth!K67/100</f>
-        <v>2.2173746731410482E-2</v>
+        <v>2.2152781449394698E-2</v>
       </c>
       <c r="D67" s="19">
         <v>3.0625</v>
@@ -8296,7 +8639,7 @@
       </c>
       <c r="C68" s="17">
         <f>SPF_growth!K68/100</f>
-        <v>2.2022358943001974E-2</v>
+        <v>2.2024830711136589E-2</v>
       </c>
       <c r="D68" s="19">
         <v>2.9998999999999998</v>
@@ -8311,7 +8654,7 @@
       </c>
       <c r="C69" s="17">
         <f>SPF_growth!K69/100</f>
-        <v>2.4370787226465129E-2</v>
+        <v>2.4370505588617419E-2</v>
       </c>
       <c r="D69" s="19">
         <v>2.8498999999999999</v>
@@ -8326,7 +8669,7 @@
       </c>
       <c r="C70" s="17">
         <f>SPF_growth!K70/100</f>
-        <v>2.3449221804469289E-2</v>
+        <v>2.3455464270692117E-2</v>
       </c>
       <c r="D70" s="19">
         <v>2.6</v>
@@ -8341,7 +8684,7 @@
       </c>
       <c r="C71" s="17">
         <f>SPF_growth!K71/100</f>
-        <v>2.2470323313886764E-2</v>
+        <v>2.2485596928158991E-2</v>
       </c>
       <c r="D71" s="19">
         <v>2.2624</v>
@@ -8356,7 +8699,7 @@
       </c>
       <c r="C72" s="17">
         <f>SPF_growth!K72/100</f>
-        <v>2.2449781057347407E-2</v>
+        <v>2.244327505750765E-2</v>
       </c>
       <c r="D72" s="19">
         <v>2.4499</v>
@@ -8371,7 +8714,7 @@
       </c>
       <c r="C73" s="17">
         <f>SPF_growth!K73/100</f>
-        <v>2.4743262797058518E-2</v>
+        <v>2.4745708942436107E-2</v>
       </c>
       <c r="D73" s="19">
         <v>2.4750000000000001</v>
@@ -8386,7 +8729,7 @@
       </c>
       <c r="C74" s="17">
         <f>SPF_growth!K74/100</f>
-        <v>1.8723180630888958E-2</v>
+        <v>1.8707675963742121E-2</v>
       </c>
       <c r="D74" s="19">
         <v>2.3123999999999998</v>
@@ -8401,7 +8744,7 @@
       </c>
       <c r="C75" s="17">
         <f>SPF_growth!K75/100</f>
-        <v>2.3496530666561766E-2</v>
+        <v>2.349805285722395E-2</v>
       </c>
       <c r="D75" s="19">
         <v>2.1749000000000001</v>
@@ -8416,7 +8759,7 @@
       </c>
       <c r="C76" s="17">
         <f>SPF_growth!K76/100</f>
-        <v>2.574031161338608E-2</v>
+        <v>2.5731658279987357E-2</v>
       </c>
       <c r="D76" s="19">
         <v>2.2000000000000002</v>
@@ -8431,7 +8774,7 @@
       </c>
       <c r="C77" s="17">
         <f>SPF_growth!K77/100</f>
-        <v>2.5491576060820087E-2</v>
+        <v>2.5502572884403385E-2</v>
       </c>
       <c r="D77" s="19">
         <v>2.3786999999999998</v>
@@ -8446,7 +8789,7 @@
       </c>
       <c r="C78" s="17">
         <f>SPF_growth!K78/100</f>
-        <v>2.9116628268810896E-2</v>
+        <v>2.9114696140109642E-2</v>
       </c>
       <c r="D78" s="19">
         <v>2.5249999999999999</v>
@@ -8461,7 +8804,7 @@
       </c>
       <c r="C79" s="17">
         <f>SPF_growth!K79/100</f>
-        <v>3.0323626163698769E-2</v>
+        <v>3.031110089981226E-2</v>
       </c>
       <c r="D79" s="19">
         <v>2.4624999999999999</v>
@@ -8476,7 +8819,7 @@
       </c>
       <c r="C80" s="17">
         <f>SPF_growth!K80/100</f>
-        <v>2.9616325518800224E-2</v>
+        <v>2.9615242419581245E-2</v>
       </c>
       <c r="D80" s="19">
         <v>2.6061999999999999</v>
@@ -8491,7 +8834,7 @@
       </c>
       <c r="C81" s="17">
         <f>SPF_growth!K81/100</f>
-        <v>3.027281589905817E-2</v>
+        <v>3.0281798690588557E-2</v>
       </c>
       <c r="D81" s="19">
         <v>2.7124999999999999</v>
@@ -8506,7 +8849,7 @@
       </c>
       <c r="C82" s="17">
         <f>SPF_growth!K82/100</f>
-        <v>3.2599823264466421E-2</v>
+        <v>3.2614554904085269E-2</v>
       </c>
       <c r="D82" s="19">
         <v>2.6749999999999998</v>
@@ -8521,7 +8864,7 @@
       </c>
       <c r="C83" s="17">
         <f>SPF_growth!K83/100</f>
-        <v>3.2056426627349532E-2</v>
+        <v>3.2049392757538264E-2</v>
       </c>
       <c r="D83" s="19">
         <v>2.4874999999999998</v>
@@ -8536,7 +8879,7 @@
       </c>
       <c r="C84" s="17">
         <f>SPF_growth!K84/100</f>
-        <v>2.8082671208828014E-2</v>
+        <v>2.8081076436569763E-2</v>
       </c>
       <c r="D84" s="19">
         <v>2.5125000000000002</v>
@@ -8551,7 +8894,7 @@
       </c>
       <c r="C85" s="17">
         <f>SPF_growth!K85/100</f>
-        <v>3.0938769884218287E-2</v>
+        <v>3.095102262597127E-2</v>
       </c>
       <c r="D85" s="19">
         <v>2.6</v>
@@ -8566,7 +8909,7 @@
       </c>
       <c r="C86" s="17">
         <f>SPF_growth!K86/100</f>
-        <v>2.5109502263829908E-2</v>
+        <v>2.5117372129806137E-2</v>
       </c>
       <c r="D86" s="19">
         <v>2.1497999999999999</v>
@@ -8581,7 +8924,7 @@
       </c>
       <c r="C87" s="17">
         <f>SPF_growth!K87/100</f>
-        <v>3.2815309627315603E-2</v>
+        <v>3.2828392517337823E-2</v>
       </c>
       <c r="D87" s="19">
         <v>2.1999</v>
@@ -8596,7 +8939,7 @@
       </c>
       <c r="C88" s="17">
         <f>SPF_growth!K88/100</f>
-        <v>3.4399069185299558E-2</v>
+        <v>3.439254888797838E-2</v>
       </c>
       <c r="D88" s="19">
         <v>2.3498999999999999</v>
@@ -8611,7 +8954,7 @@
       </c>
       <c r="C89" s="17">
         <f>SPF_growth!K89/100</f>
-        <v>3.1942526948009808E-2</v>
+        <v>3.1944871473982728E-2</v>
       </c>
       <c r="D89" s="19">
         <v>2.2873999999999999</v>
@@ -8626,7 +8969,7 @@
       </c>
       <c r="C90" s="17">
         <f>SPF_growth!K90/100</f>
-        <v>3.2633923235135143E-2</v>
+        <v>3.2632259086707194E-2</v>
       </c>
       <c r="D90" s="19">
         <v>2.1875</v>
@@ -8641,7 +8984,7 @@
       </c>
       <c r="C91" s="17">
         <f>SPF_growth!K91/100</f>
-        <v>3.3867273270793641E-2</v>
+        <v>3.3877902277604344E-2</v>
       </c>
       <c r="D91" s="19">
         <v>2.125</v>
@@ -8656,7 +8999,7 @@
       </c>
       <c r="C92" s="17">
         <f>SPF_growth!K92/100</f>
-        <v>3.5371240019959949E-2</v>
+        <v>3.5352286950393941E-2</v>
       </c>
       <c r="D92" s="19">
         <v>2.0922999999999998</v>
@@ -8671,7 +9014,7 @@
       </c>
       <c r="C93" s="17">
         <f>SPF_growth!K93/100</f>
-        <v>3.7899419029671533E-2</v>
+        <v>3.7897907371784667E-2</v>
       </c>
       <c r="D93" s="19">
         <v>1.8247</v>
@@ -8686,7 +9029,7 @@
       </c>
       <c r="C94" s="17">
         <f>SPF_growth!K94/100</f>
-        <v>3.8174476483921582E-2</v>
+        <v>3.8207243289920978E-2</v>
       </c>
       <c r="D94" s="19">
         <v>2.125</v>
@@ -8701,7 +9044,7 @@
       </c>
       <c r="C95" s="17">
         <f>SPF_growth!K95/100</f>
-        <v>3.9872471362852879E-2</v>
+        <v>3.9862988615042783E-2</v>
       </c>
       <c r="D95" s="19">
         <v>1.6274</v>
@@ -8716,7 +9059,7 @@
       </c>
       <c r="C96" s="17">
         <f>SPF_growth!K96/100</f>
-        <v>3.9724320942474689E-2</v>
+        <v>3.9741832006878974E-2</v>
       </c>
       <c r="D96" s="19">
         <v>2.1318000000000001</v>
@@ -8731,7 +9074,7 @@
       </c>
       <c r="C97" s="17">
         <f>SPF_growth!K97/100</f>
-        <v>3.7022158033604091E-2</v>
+        <v>3.7035967049445784E-2</v>
       </c>
       <c r="D97" s="19">
         <v>2.2999999999999998</v>
@@ -8746,7 +9089,7 @@
       </c>
       <c r="C98" s="17">
         <f>SPF_growth!K98/100</f>
-        <v>3.3999956479689786E-2</v>
+        <v>3.3992949772922554E-2</v>
       </c>
       <c r="D98" s="19">
         <v>2.2629999999999999</v>
@@ -8761,7 +9104,7 @@
       </c>
       <c r="C99" s="17">
         <f>SPF_growth!K99/100</f>
-        <v>3.4849104990666735E-2</v>
+        <v>3.4856558103680158E-2</v>
       </c>
       <c r="D99" s="19">
         <v>2.25</v>
@@ -8776,7 +9119,7 @@
       </c>
       <c r="C100" s="17">
         <f>SPF_growth!K100/100</f>
-        <v>3.3849524669374631E-2</v>
+        <v>3.3865779682999753E-2</v>
       </c>
       <c r="D100" s="19">
         <v>2.375</v>
@@ -8791,7 +9134,7 @@
       </c>
       <c r="C101" s="17">
         <f>SPF_growth!K101/100</f>
-        <v>3.3674039682024315E-2</v>
+        <v>3.3664541690669569E-2</v>
       </c>
       <c r="D101" s="19">
         <v>2.4371999999999998</v>
@@ -8806,7 +9149,7 @@
       </c>
       <c r="C102" s="17">
         <f>SPF_growth!K102/100</f>
-        <v>3.3472726278753751E-2</v>
+        <v>3.349270502037327E-2</v>
       </c>
       <c r="D102" s="19">
         <v>2.3929999999999998</v>
@@ -8821,7 +9164,7 @@
       </c>
       <c r="C103" s="17">
         <f>SPF_growth!K103/100</f>
-        <v>3.2174160451558631E-2</v>
+        <v>3.2196153346793599E-2</v>
       </c>
       <c r="D103" s="19">
         <v>2.4295</v>
@@ -8836,7 +9179,7 @@
       </c>
       <c r="C104" s="17">
         <f>SPF_growth!K104/100</f>
-        <v>3.002472721304339E-2</v>
+        <v>3.0026469561982072E-2</v>
       </c>
       <c r="D104" s="19">
         <v>2.3864999999999998</v>
@@ -8851,7 +9194,7 @@
       </c>
       <c r="C105" s="17">
         <f>SPF_growth!K105/100</f>
-        <v>2.8599645080507052E-2</v>
+        <v>2.8603139246330622E-2</v>
       </c>
       <c r="D105" s="19">
         <v>2.6282999999999999</v>
@@ -8866,7 +9209,7 @@
       </c>
       <c r="C106" s="17">
         <f>SPF_growth!K106/100</f>
-        <v>2.8549665653235801E-2</v>
+        <v>2.8540144031585779E-2</v>
       </c>
       <c r="D106" s="19">
         <v>2.6179999999999999</v>
@@ -8881,7 +9224,7 @@
       </c>
       <c r="C107" s="17">
         <f>SPF_growth!K107/100</f>
-        <v>2.9923680151054066E-2</v>
+        <v>2.9931963369201231E-2</v>
       </c>
       <c r="D107" s="19">
         <v>2.4563000000000001</v>
@@ -8896,7 +9239,7 @@
       </c>
       <c r="C108" s="17">
         <f>SPF_growth!K108/100</f>
-        <v>2.8423923836997211E-2</v>
+        <v>2.8444162964823327E-2</v>
       </c>
       <c r="D108" s="19">
         <v>2.4340999999999999</v>
@@ -8911,7 +9254,7 @@
       </c>
       <c r="C109" s="17">
         <f>SPF_growth!K109/100</f>
-        <v>2.7324427672990481E-2</v>
+        <v>2.732717710644339E-2</v>
       </c>
       <c r="D109" s="19">
         <v>2.2284999999999999</v>
@@ -8926,7 +9269,7 @@
       </c>
       <c r="C110" s="17">
         <f>SPF_growth!K110/100</f>
-        <v>2.4921876837449286E-2</v>
+        <v>2.4908367956572253E-2</v>
       </c>
       <c r="D110" s="19">
         <v>2.4424000000000001</v>
@@ -8941,7 +9284,7 @@
       </c>
       <c r="C111" s="17">
         <f>SPF_growth!K111/100</f>
-        <v>2.5051441081405335E-2</v>
+        <v>2.5043030365188512E-2</v>
       </c>
       <c r="D111" s="19">
         <v>2.3818999999999999</v>
@@ -8956,7 +9299,7 @@
       </c>
       <c r="C112" s="17">
         <f>SPF_growth!K112/100</f>
-        <v>2.0819715725480581E-2</v>
+        <v>2.0819416629435539E-2</v>
       </c>
       <c r="D112" s="19">
         <v>2.6650999999999998</v>
@@ -8971,7 +9314,7 @@
       </c>
       <c r="C113" s="17">
         <f>SPF_growth!K113/100</f>
-        <v>1.7302026034275331E-2</v>
+        <v>1.7312110934702085E-2</v>
       </c>
       <c r="D113" s="19">
         <v>2.5230000000000001</v>
@@ -8986,7 +9329,7 @@
       </c>
       <c r="C114" s="17">
         <f>SPF_growth!K114/100</f>
-        <v>7.1034578270543491E-3</v>
+        <v>7.1192239158752724E-3</v>
       </c>
       <c r="D114" s="19">
         <v>1.756</v>
@@ -9001,7 +9344,7 @@
       </c>
       <c r="C115" s="17">
         <f>SPF_growth!K115/100</f>
-        <v>8.4481298171730224E-3</v>
+        <v>8.4620449311798573E-3</v>
       </c>
       <c r="D115" s="19">
         <v>1.5550999999999999</v>
@@ -9016,7 +9359,7 @@
       </c>
       <c r="C116" s="17">
         <f>SPF_growth!K116/100</f>
-        <v>1.8259943942635859E-2</v>
+        <v>1.8268035906320312E-2</v>
       </c>
       <c r="D116" s="19">
         <v>1.7069000000000001</v>
@@ -9031,7 +9374,7 @@
       </c>
       <c r="C117" s="17">
         <f>SPF_growth!K117/100</f>
-        <v>2.5197435627253073E-2</v>
+        <v>2.521970803010376E-2</v>
       </c>
       <c r="D117" s="19">
         <v>1.8022</v>
@@ -9046,7 +9389,7 @@
       </c>
       <c r="C118" s="17">
         <f>SPF_growth!K118/100</f>
-        <v>2.557233489269306E-2</v>
+        <v>2.558155716943955E-2</v>
       </c>
       <c r="D118" s="19">
         <v>1.6329</v>
@@ -9061,7 +9404,7 @@
       </c>
       <c r="C119" s="17">
         <f>SPF_growth!K119/100</f>
-        <v>2.7124991784523322E-2</v>
+        <v>2.7136990955493712E-2</v>
       </c>
       <c r="D119" s="19">
         <v>1.7883</v>
@@ -9076,7 +9419,7 @@
       </c>
       <c r="C120" s="17">
         <f>SPF_growth!K120/100</f>
-        <v>3.0196869157094408E-2</v>
+        <v>3.0188097418183846E-2</v>
       </c>
       <c r="D120" s="19">
         <v>1.8774999999999999</v>
@@ -9091,7 +9434,7 @@
       </c>
       <c r="C121" s="17">
         <f>SPF_growth!K121/100</f>
-        <v>2.7919916781333765E-2</v>
+        <v>2.7925732946030957E-2</v>
       </c>
       <c r="D121" s="19">
         <v>1.7209000000000001</v>
@@ -9106,7 +9449,7 @@
       </c>
       <c r="C122" s="17">
         <f>SPF_growth!K122/100</f>
-        <v>2.8144729016513992E-2</v>
+        <v>2.8103733780463935E-2</v>
       </c>
       <c r="D122" s="19">
         <v>1.609</v>
@@ -9121,7 +9464,7 @@
       </c>
       <c r="C123" s="17">
         <f>SPF_growth!K123/100</f>
-        <v>3.2548294741932882E-2</v>
+        <v>3.2518273474473336E-2</v>
       </c>
       <c r="D123" s="19">
         <v>1.7246999999999999</v>
@@ -9136,7 +9479,7 @@
       </c>
       <c r="C124" s="17">
         <f>SPF_growth!K124/100</f>
-        <v>3.0666873015053664E-2</v>
+        <v>3.0672304181944554E-2</v>
       </c>
       <c r="D124" s="19">
         <v>2.1303999999999998</v>
@@ -9151,7 +9494,7 @@
       </c>
       <c r="C125" s="17">
         <f>SPF_growth!K125/100</f>
-        <v>2.7043798557728316E-2</v>
+        <v>2.7042011804594868E-2</v>
       </c>
       <c r="D125" s="19">
         <v>2.0125000000000002</v>
@@ -9166,7 +9509,7 @@
       </c>
       <c r="C126" s="17">
         <f>SPF_growth!K126/100</f>
-        <v>2.5798401246440728E-2</v>
+        <v>2.5782908887650668E-2</v>
       </c>
       <c r="D126" s="19">
         <v>1.9692000000000001</v>
@@ -9181,7 +9524,7 @@
       </c>
       <c r="C127" s="17">
         <f>SPF_growth!K127/100</f>
-        <v>2.6696423591486607E-2</v>
+        <v>2.6684212507144256E-2</v>
       </c>
       <c r="D127" s="19">
         <v>2.0750000000000002</v>
@@ -9196,7 +9539,7 @@
       </c>
       <c r="C128" s="17">
         <f>SPF_growth!K128/100</f>
-        <v>2.6149667507851193E-2</v>
+        <v>2.6134175093877277E-2</v>
       </c>
       <c r="D128" s="19">
         <v>2.1831</v>
@@ -9211,7 +9554,7 @@
       </c>
       <c r="C129" s="17">
         <f>SPF_growth!K129/100</f>
-        <v>2.2246905346389179E-2</v>
+        <v>2.2220434338059869E-2</v>
       </c>
       <c r="D129" s="19">
         <v>2.1097999999999999</v>
@@ -9226,7 +9569,7 @@
       </c>
       <c r="C130" s="17">
         <f>SPF_growth!K130/100</f>
-        <v>2.3089739005454302E-2</v>
+        <v>2.3114972290247726E-2</v>
       </c>
       <c r="D130" s="19">
         <v>2.1930999999999998</v>
@@ -9241,7 +9584,7 @@
       </c>
       <c r="C131" s="17">
         <f>SPF_growth!K131/100</f>
-        <v>2.5298968673753031E-2</v>
+        <v>2.5291444154712517E-2</v>
       </c>
       <c r="D131" s="19">
         <v>2.1</v>
@@ -9256,7 +9599,7 @@
       </c>
       <c r="C132" s="17">
         <f>SPF_growth!K132/100</f>
-        <v>2.664503782210792E-2</v>
+        <v>2.6679012577968564E-2</v>
       </c>
       <c r="D132" s="19">
         <v>2.0413999999999999</v>
@@ -9271,7 +9614,7 @@
       </c>
       <c r="C133" s="17">
         <f>SPF_growth!K133/100</f>
-        <v>2.6897426719732165E-2</v>
+        <v>2.6924909337786351E-2</v>
       </c>
       <c r="D133" s="19">
         <v>1.8626</v>
@@ -9286,7 +9629,7 @@
       </c>
       <c r="C134" s="17">
         <f>SPF_growth!K134/100</f>
-        <v>2.7973218931677257E-2</v>
+        <v>2.7965989789495715E-2</v>
       </c>
       <c r="D134" s="19">
         <v>1.984</v>
@@ -9301,7 +9644,7 @@
       </c>
       <c r="C135" s="17">
         <f>SPF_growth!K135/100</f>
-        <v>2.9373088629461863E-2</v>
+        <v>2.9389311147188124E-2</v>
       </c>
       <c r="D135" s="19">
         <v>1.8880999999999999</v>
@@ -9316,7 +9659,7 @@
       </c>
       <c r="C136" s="17">
         <f>SPF_growth!K136/100</f>
-        <v>3.0974203259393374E-2</v>
+        <v>3.0963972208281287E-2</v>
       </c>
       <c r="D136" s="19">
         <v>1.9582999999999999</v>
@@ -9331,7 +9674,7 @@
       </c>
       <c r="C137" s="17">
         <f>SPF_growth!K137/100</f>
-        <v>3.0674790416898023E-2</v>
+        <v>3.0656053258075522E-2</v>
       </c>
       <c r="D137" s="19">
         <v>2.0990000000000002</v>
@@ -9346,7 +9689,7 @@
       </c>
       <c r="C138" s="17">
         <f>SPF_growth!K138/100</f>
-        <v>2.9074080930262092E-2</v>
+        <v>2.909957892072712E-2</v>
       </c>
       <c r="D138" s="19">
         <v>1.9161999999999999</v>
@@ -9361,7 +9704,7 @@
       </c>
       <c r="C139" s="17">
         <f>SPF_growth!K139/100</f>
-        <v>2.8874467005739701E-2</v>
+        <v>2.8860459901447921E-2</v>
       </c>
       <c r="D139" s="19">
         <v>1.8937999999999999</v>
@@ -9376,7 +9719,7 @@
       </c>
       <c r="C140" s="17">
         <f>SPF_growth!K140/100</f>
-        <v>2.8696412232316781E-2</v>
+        <v>2.8695684102930663E-2</v>
       </c>
       <c r="D140" s="19">
         <v>1.9731000000000001</v>
@@ -9391,7 +9734,7 @@
       </c>
       <c r="C141" s="17">
         <f>SPF_growth!K141/100</f>
-        <v>2.7799953786201481E-2</v>
+        <v>2.7810200179302358E-2</v>
       </c>
       <c r="D141" s="19">
         <v>2.0421999999999998</v>
@@ -9406,7 +9749,7 @@
       </c>
       <c r="C142" s="17">
         <f>SPF_growth!K142/100</f>
-        <v>2.6173390093989113E-2</v>
+        <v>2.6172665054923216E-2</v>
       </c>
       <c r="D142" s="19">
         <v>2.0434999999999999</v>
@@ -9421,7 +9764,7 @@
       </c>
       <c r="C143" s="17">
         <f>SPF_growth!K143/100</f>
-        <v>2.4124564450076491E-2</v>
+        <v>2.412331385026012E-2</v>
       </c>
       <c r="D143" s="19">
         <v>1.9849000000000001</v>
@@ -9436,7 +9779,7 @@
       </c>
       <c r="C144" s="17">
         <f>SPF_growth!K144/100</f>
-        <v>2.3874940481516616E-2</v>
+        <v>2.386293207045731E-2</v>
       </c>
       <c r="D144" s="19">
         <v>2.0573999999999999</v>
@@ -9451,7 +9794,7 @@
       </c>
       <c r="C145" s="17">
         <f>SPF_growth!K145/100</f>
-        <v>2.2499726069437509E-2</v>
+        <v>2.2477716190819175E-2</v>
       </c>
       <c r="D145" s="19">
         <v>2.2275999999999998</v>
@@ -9466,7 +9809,7 @@
       </c>
       <c r="C146" s="17">
         <f>SPF_growth!K146/100</f>
-        <v>2.2074942821143084E-2</v>
+        <v>2.2084945928397604E-2</v>
       </c>
       <c r="D146" s="19">
         <v>2.2029000000000001</v>
@@ -9481,7 +9824,7 @@
       </c>
       <c r="C147" s="17">
         <f>SPF_growth!K147/100</f>
-        <v>2.3249827706908643E-2</v>
+        <v>2.326758158432396E-2</v>
       </c>
       <c r="D147" s="19">
         <v>2.3595999999999999</v>
@@ -9496,7 +9839,7 @@
       </c>
       <c r="C148" s="17">
         <f>SPF_growth!K148/100</f>
-        <v>2.5224202386088468E-2</v>
+        <v>2.5230981375514494E-2</v>
       </c>
       <c r="D148" s="19">
         <v>2.2749999999999999</v>
@@ -9511,7 +9854,7 @@
       </c>
       <c r="C149" s="17">
         <f>SPF_growth!K149/100</f>
-        <v>2.3499714128947913E-2</v>
+        <v>2.3500450640823178E-2</v>
       </c>
       <c r="D149" s="19">
         <v>2.2052999999999998</v>
@@ -9526,7 +9869,7 @@
       </c>
       <c r="C150" s="17">
         <f>SPF_growth!K150/100</f>
-        <v>2.3174395144807347E-2</v>
+        <v>2.3168651862225609E-2</v>
       </c>
       <c r="D150" s="19">
         <v>2.0907</v>
@@ -9541,7 +9884,7 @@
       </c>
       <c r="C151" s="17">
         <f>SPF_growth!K151/100</f>
-        <v>2.6398209672111594E-2</v>
+        <v>2.6377930741862565E-2</v>
       </c>
       <c r="D151" s="19">
         <v>2.2117</v>
@@ -9556,7 +9899,7 @@
       </c>
       <c r="C152" s="17">
         <f>SPF_growth!K152/100</f>
-        <v>2.6947754267060642E-2</v>
+        <v>2.6944522825063322E-2</v>
       </c>
       <c r="D152" s="19">
         <v>2.2597</v>
@@ -9571,7 +9914,7 @@
       </c>
       <c r="C153" s="17">
         <f>SPF_growth!K153/100</f>
-        <v>2.6524465629334415E-2</v>
+        <v>2.6535952661890683E-2</v>
       </c>
       <c r="D153" s="19">
         <v>2.2589000000000001</v>
@@ -9586,7 +9929,7 @@
       </c>
       <c r="C154" s="17">
         <f>SPF_growth!K154/100</f>
-        <v>2.4073581713849102E-2</v>
+        <v>2.4078096349711586E-2</v>
       </c>
       <c r="D154" s="19">
         <v>2.3658000000000001</v>
@@ -9601,7 +9944,7 @@
       </c>
       <c r="C155" s="17">
         <f>SPF_growth!K155/100</f>
-        <v>2.2224519712605417E-2</v>
+        <v>2.2212009470486738E-2</v>
       </c>
       <c r="D155" s="19">
         <v>2.2650999999999999</v>
@@ -9616,7 +9959,7 @@
       </c>
       <c r="C156" s="17">
         <f>SPF_growth!K156/100</f>
-        <v>2.0023360801152634E-2</v>
+        <v>2.0013641180148811E-2</v>
       </c>
       <c r="D156" s="19">
         <v>2.0855000000000001</v>
@@ -9631,7 +9974,7 @@
       </c>
       <c r="C157" s="17">
         <f>SPF_growth!K157/100</f>
-        <v>1.9724981919775786E-2</v>
+        <v>1.9702730279234526E-2</v>
       </c>
       <c r="D157" s="19">
         <v>2.0369000000000002</v>
@@ -9695,6 +10038,126 @@
       </c>
       <c r="D161" s="19">
         <v>1.7697000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="15">
+        <v>20204</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44196</v>
+      </c>
+      <c r="C162" s="17">
+        <f>SPF_growth!K162/100</f>
+        <v>3.3795076622452624E-2</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2.0670000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="15">
+        <v>202101</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44286</v>
+      </c>
+      <c r="C163" s="17">
+        <f>SPF_growth!K163/100</f>
+        <v>4.5129475018482967E-2</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2.1545999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="15">
+        <v>202102</v>
+      </c>
+      <c r="B164" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C164" s="17">
+        <f>SPF_growth!K164/100</f>
+        <v>4.7597779930165451E-2</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2.3694999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="15">
+        <v>202103</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44469</v>
+      </c>
+      <c r="C165" s="17">
+        <f>SPF_growth!K165/100</f>
+        <v>3.9221508706565933E-2</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.3849999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="15">
+        <v>202104</v>
+      </c>
+      <c r="B166" s="2">
+        <v>44561</v>
+      </c>
+      <c r="C166" s="17">
+        <f>SPF_growth!K166/100</f>
+        <v>3.5167235518314577E-2</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2.6145999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="15">
+        <v>202201</v>
+      </c>
+      <c r="B167" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C167" s="17">
+        <f>SPF_growth!K167/100</f>
+        <v>3.2186182540772323E-2</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2.9512</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="15">
+        <v>202202</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C168" s="17">
+        <f>SPF_growth!K168/100</f>
+        <v>2.298936469108992E-2</v>
+      </c>
+      <c r="D168" s="3">
+        <v>3.6013999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="15">
+        <v>202203</v>
+      </c>
+      <c r="B169" s="2">
+        <v>44834</v>
+      </c>
+      <c r="C169" s="17">
+        <f>SPF_growth!K169/100</f>
+        <v>1.3233301851479418E-2</v>
+      </c>
+      <c r="D169" s="3">
+        <v>3.573</v>
       </c>
     </row>
   </sheetData>
@@ -9705,10 +10168,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="J161" sqref="J161"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B161" sqref="A161:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10048,36 +10511,36 @@
         <v>31137</v>
       </c>
       <c r="C19" s="3">
-        <v>3.87</v>
+        <v>3.8690000000000002</v>
       </c>
       <c r="D19" s="3">
-        <v>3.95</v>
+        <v>3.9533999999999998</v>
       </c>
       <c r="E19" s="3">
-        <v>3.55</v>
+        <v>3.5541999999999998</v>
       </c>
       <c r="F19" s="3">
-        <v>3.4</v>
+        <v>3.4039999999999999</v>
       </c>
       <c r="G19" s="14">
         <f>1+C19/100</f>
-        <v>1.0387</v>
+        <v>1.0386899999999999</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" ref="H19:J19" si="0">1+D19/100</f>
-        <v>1.0395000000000001</v>
+        <v>1.039534</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="0"/>
-        <v>1.0355000000000001</v>
+        <v>1.035542</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="0"/>
-        <v>1.034</v>
+        <v>1.0340400000000001</v>
       </c>
       <c r="K19" s="14">
         <f>100*(PRODUCT(G19:J19)^(1/4)-1)</f>
-        <v>3.6922544312030681</v>
+        <v>3.6949069984729244</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10088,36 +10551,36 @@
         <v>31228</v>
       </c>
       <c r="C20" s="3">
-        <v>4.72</v>
+        <v>4.7229000000000001</v>
       </c>
       <c r="D20" s="3">
-        <v>2.85</v>
+        <v>2.8536000000000001</v>
       </c>
       <c r="E20" s="3">
-        <v>2.48</v>
+        <v>2.4759000000000002</v>
       </c>
       <c r="F20" s="3">
-        <v>2.82</v>
+        <v>2.8159000000000001</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" ref="G20:G83" si="1">1+C20/100</f>
-        <v>1.0471999999999999</v>
+        <v>1.047229</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" ref="H20:H83" si="2">1+D20/100</f>
-        <v>1.0285</v>
+        <v>1.0285359999999999</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" ref="I20:I83" si="3">1+E20/100</f>
-        <v>1.0247999999999999</v>
+        <v>1.024759</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" ref="J20:J83" si="4">1+F20/100</f>
-        <v>1.0282</v>
+        <v>1.028159</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" ref="K20:K83" si="5">100*(PRODUCT(G20:J20)^(1/4)-1)</f>
-        <v>3.2137747581665987</v>
+        <v>3.2133311828965283</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10128,36 +10591,36 @@
         <v>31320</v>
       </c>
       <c r="C21" s="3">
-        <v>3.49</v>
+        <v>3.4889000000000001</v>
       </c>
       <c r="D21" s="3">
-        <v>2.38</v>
+        <v>2.3759000000000001</v>
       </c>
       <c r="E21" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.2427999999999999</v>
       </c>
       <c r="F21" s="3">
-        <v>2.82</v>
+        <v>2.8233999999999999</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="1"/>
-        <v>1.0348999999999999</v>
+        <v>1.0348889999999999</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="2"/>
-        <v>1.0238</v>
+        <v>1.0237590000000001</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="3"/>
-        <v>1.0224</v>
+        <v>1.0224279999999999</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="4"/>
-        <v>1.0282</v>
+        <v>1.0282340000000001</v>
       </c>
       <c r="K21" s="14">
         <f t="shared" si="5"/>
-        <v>2.7313483157874074</v>
+        <v>2.7315993999210919</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10168,36 +10631,36 @@
         <v>31412</v>
       </c>
       <c r="C22" s="3">
-        <v>2.86</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>2.6</v>
+        <v>2.5979999999999999</v>
       </c>
       <c r="E22" s="3">
-        <v>3.29</v>
+        <v>3.2938000000000001</v>
       </c>
       <c r="F22" s="3">
-        <v>3.03</v>
+        <v>3.0310000000000001</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" si="1"/>
-        <v>1.0286</v>
+        <v>1.02857</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="2"/>
-        <v>1.026</v>
+        <v>1.0259799999999999</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="3"/>
-        <v>1.0328999999999999</v>
+        <v>1.0329379999999999</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="4"/>
-        <v>1.0303</v>
+        <v>1.0303100000000001</v>
       </c>
       <c r="K22" s="14">
         <f t="shared" si="5"/>
-        <v>2.9446934030723515</v>
+        <v>2.9446376883722092</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10208,36 +10671,36 @@
         <v>31502</v>
       </c>
       <c r="C23" s="3">
-        <v>3.01</v>
+        <v>3.0085999999999999</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>3.9962</v>
       </c>
       <c r="E23" s="3">
-        <v>2.74</v>
+        <v>2.7353999999999998</v>
       </c>
       <c r="F23" s="3">
-        <v>1.41</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="1"/>
-        <v>1.0301</v>
+        <v>1.0300860000000001</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="2"/>
-        <v>1.04</v>
+        <v>1.0399620000000001</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="3"/>
-        <v>1.0274000000000001</v>
+        <v>1.0273540000000001</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="4"/>
-        <v>1.0141</v>
+        <v>1.01406</v>
       </c>
       <c r="K23" s="14">
         <f t="shared" si="5"/>
-        <v>2.7858348434464553</v>
+        <v>2.7823826086363468</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -10248,36 +10711,36 @@
         <v>31593</v>
       </c>
       <c r="C24" s="3">
-        <v>3.67</v>
+        <v>3.6739000000000002</v>
       </c>
       <c r="D24" s="3">
-        <v>3.92</v>
+        <v>3.9203000000000001</v>
       </c>
       <c r="E24" s="3">
-        <v>3.55</v>
+        <v>3.5499000000000001</v>
       </c>
       <c r="F24" s="3">
-        <v>3.46</v>
+        <v>3.4638</v>
       </c>
       <c r="G24" s="14">
         <f t="shared" si="1"/>
-        <v>1.0367</v>
+        <v>1.0367390000000001</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="2"/>
-        <v>1.0391999999999999</v>
+        <v>1.0392030000000001</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="3"/>
-        <v>1.0355000000000001</v>
+        <v>1.0354989999999999</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="4"/>
-        <v>1.0346</v>
+        <v>1.0346379999999999</v>
       </c>
       <c r="K24" s="14">
         <f t="shared" si="5"/>
-        <v>3.6498560972900052</v>
+        <v>3.6518324149883652</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -10288,36 +10751,36 @@
         <v>31685</v>
       </c>
       <c r="C25" s="3">
-        <v>3.07</v>
+        <v>3.0724999999999998</v>
       </c>
       <c r="D25" s="3">
-        <v>2.61</v>
+        <v>2.6093000000000002</v>
       </c>
       <c r="E25" s="3">
-        <v>3.03</v>
+        <v>3.0293000000000001</v>
       </c>
       <c r="F25" s="3">
-        <v>3.01</v>
+        <v>3.0065</v>
       </c>
       <c r="G25" s="14">
         <f t="shared" si="1"/>
-        <v>1.0306999999999999</v>
+        <v>1.0307249999999999</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="2"/>
-        <v>1.0261</v>
+        <v>1.0260929999999999</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="3"/>
-        <v>1.0303</v>
+        <v>1.0302929999999999</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>1.0301</v>
+        <v>1.030065</v>
       </c>
       <c r="K25" s="14">
         <f t="shared" si="5"/>
-        <v>2.9298316998485063</v>
+        <v>2.9292311336723387</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -10328,36 +10791,36 @@
         <v>31777</v>
       </c>
       <c r="C26" s="3">
-        <v>2.2799999999999998</v>
+        <v>2.2841</v>
       </c>
       <c r="D26" s="3">
-        <v>2.76</v>
+        <v>2.7627999999999999</v>
       </c>
       <c r="E26" s="3">
-        <v>2.85</v>
+        <v>2.8525</v>
       </c>
       <c r="F26" s="3">
-        <v>3.7</v>
+        <v>3.6991000000000001</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="1"/>
-        <v>1.0227999999999999</v>
+        <v>1.0228410000000001</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="2"/>
-        <v>1.0276000000000001</v>
+        <v>1.027628</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="3"/>
-        <v>1.0285</v>
+        <v>1.0285249999999999</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="4"/>
-        <v>1.0369999999999999</v>
+        <v>1.036991</v>
       </c>
       <c r="K26" s="14">
         <f t="shared" si="5"/>
-        <v>2.8962309099209271</v>
+        <v>2.8983650217252244</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -10368,36 +10831,36 @@
         <v>31867</v>
       </c>
       <c r="C27" s="3">
-        <v>2.88</v>
+        <v>2.8761000000000001</v>
       </c>
       <c r="D27" s="3">
-        <v>2.91</v>
+        <v>2.9100999999999999</v>
       </c>
       <c r="E27" s="3">
-        <v>3.16</v>
+        <v>3.1597</v>
       </c>
       <c r="F27" s="3">
-        <v>2.76</v>
+        <v>2.7591999999999999</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="1"/>
-        <v>1.0287999999999999</v>
+        <v>1.028761</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="2"/>
-        <v>1.0290999999999999</v>
+        <v>1.029101</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="3"/>
-        <v>1.0316000000000001</v>
+        <v>1.0315970000000001</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="4"/>
-        <v>1.0276000000000001</v>
+        <v>1.0275920000000001</v>
       </c>
       <c r="K27" s="14">
         <f t="shared" si="5"/>
-        <v>2.9273972275436044</v>
+        <v>2.9261716137965799</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -10408,36 +10871,36 @@
         <v>31958</v>
       </c>
       <c r="C28" s="3">
-        <v>2.63</v>
+        <v>2.6347999999999998</v>
       </c>
       <c r="D28" s="3">
-        <v>3.21</v>
+        <v>3.2122000000000002</v>
       </c>
       <c r="E28" s="3">
-        <v>2.65</v>
+        <v>2.6503000000000001</v>
       </c>
       <c r="F28" s="3">
-        <v>2.79</v>
+        <v>2.7924000000000002</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="1"/>
-        <v>1.0263</v>
+        <v>1.026348</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="2"/>
-        <v>1.0321</v>
+        <v>1.032122</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="3"/>
-        <v>1.0265</v>
+        <v>1.0265029999999999</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="4"/>
-        <v>1.0279</v>
+        <v>1.0279240000000001</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" si="5"/>
-        <v>2.8197353472078301</v>
+        <v>2.8221607711108154</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -10448,36 +10911,36 @@
         <v>32050</v>
       </c>
       <c r="C29" s="3">
-        <v>2.91</v>
+        <v>2.9108000000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>3.53</v>
+        <v>3.5285000000000002</v>
       </c>
       <c r="E29" s="3">
-        <v>1.92</v>
+        <v>1.9204000000000001</v>
       </c>
       <c r="F29" s="3">
-        <v>2.96</v>
+        <v>2.9557000000000002</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" si="1"/>
-        <v>1.0290999999999999</v>
+        <v>1.0291079999999999</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="2"/>
-        <v>1.0352999999999999</v>
+        <v>1.035285</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="3"/>
-        <v>1.0192000000000001</v>
+        <v>1.019204</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="4"/>
-        <v>1.0296000000000001</v>
+        <v>1.0295570000000001</v>
       </c>
       <c r="K29" s="14">
         <f t="shared" si="5"/>
-        <v>2.8283661412836558</v>
+        <v>2.8272207699701069</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -10488,36 +10951,36 @@
         <v>32142</v>
       </c>
       <c r="C30" s="3">
-        <v>2.09</v>
+        <v>2.0924999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>0.83</v>
+        <v>0.82879999999999998</v>
       </c>
       <c r="E30" s="3">
-        <v>3.44</v>
+        <v>3.4447999999999999</v>
       </c>
       <c r="F30" s="3">
-        <v>2.37</v>
+        <v>2.3713000000000002</v>
       </c>
       <c r="G30" s="14">
         <f t="shared" si="1"/>
-        <v>1.0208999999999999</v>
+        <v>1.0209250000000001</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="2"/>
-        <v>1.0083</v>
+        <v>1.0082880000000001</v>
       </c>
       <c r="I30" s="14">
         <f t="shared" si="3"/>
-        <v>1.0344</v>
+        <v>1.034448</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="4"/>
-        <v>1.0237000000000001</v>
+        <v>1.0237130000000001</v>
       </c>
       <c r="K30" s="14">
         <f t="shared" si="5"/>
-        <v>2.1782702955254862</v>
+        <v>2.1801015558545744</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -10528,36 +10991,36 @@
         <v>32233</v>
       </c>
       <c r="C31" s="3">
-        <v>0.62</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="D31" s="3">
-        <v>1.76</v>
+        <v>1.7605</v>
       </c>
       <c r="E31" s="3">
-        <v>3</v>
+        <v>3.0038</v>
       </c>
       <c r="F31" s="3">
-        <v>3.19</v>
+        <v>3.1894999999999998</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" si="1"/>
-        <v>1.0062</v>
+        <v>1.006197</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="2"/>
-        <v>1.0176000000000001</v>
+        <v>1.0176050000000001</v>
       </c>
       <c r="I31" s="14">
         <f t="shared" si="3"/>
-        <v>1.03</v>
+        <v>1.030038</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="4"/>
-        <v>1.0319</v>
+        <v>1.031895</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" si="5"/>
-        <v>2.1372268634696212</v>
+        <v>2.1380944991943984</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -10568,36 +11031,36 @@
         <v>32324</v>
       </c>
       <c r="C32" s="3">
-        <v>2.57</v>
+        <v>2.5695999999999999</v>
       </c>
       <c r="D32" s="3">
-        <v>3.38</v>
+        <v>3.3803999999999998</v>
       </c>
       <c r="E32" s="3">
-        <v>2.74</v>
+        <v>2.7364000000000002</v>
       </c>
       <c r="F32" s="3">
-        <v>1.91</v>
+        <v>1.9069</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="1"/>
-        <v>1.0257000000000001</v>
+        <v>1.0256959999999999</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="2"/>
-        <v>1.0338000000000001</v>
+        <v>1.0338039999999999</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" si="3"/>
-        <v>1.0274000000000001</v>
+        <v>1.0273639999999999</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="4"/>
-        <v>1.0190999999999999</v>
+        <v>1.019069</v>
       </c>
       <c r="K32" s="14">
         <f t="shared" si="5"/>
-        <v>2.6486664339376853</v>
+        <v>2.646985818270009</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -10608,36 +11071,36 @@
         <v>32416</v>
       </c>
       <c r="C33" s="3">
-        <v>2.92</v>
+        <v>2.9220999999999999</v>
       </c>
       <c r="D33" s="3">
-        <v>2.4500000000000002</v>
+        <v>2.4466999999999999</v>
       </c>
       <c r="E33" s="3">
-        <v>3.13</v>
+        <v>3.1347</v>
       </c>
       <c r="F33" s="3">
-        <v>1.92</v>
+        <v>1.917</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="1"/>
-        <v>1.0291999999999999</v>
+        <v>1.0292209999999999</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="2"/>
-        <v>1.0245</v>
+        <v>1.024467</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="3"/>
-        <v>1.0313000000000001</v>
+        <v>1.031347</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="4"/>
-        <v>1.0192000000000001</v>
+        <v>1.0191699999999999</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="5"/>
-        <v>2.6039412316339439</v>
+        <v>2.6040522969043911</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -10648,36 +11111,36 @@
         <v>32508</v>
       </c>
       <c r="C34" s="3">
-        <v>3.62</v>
+        <v>3.6185999999999998</v>
       </c>
       <c r="D34" s="3">
-        <v>2.93</v>
+        <v>2.9317000000000002</v>
       </c>
       <c r="E34" s="3">
-        <v>2.46</v>
+        <v>2.4622999999999999</v>
       </c>
       <c r="F34" s="3">
-        <v>1.07</v>
+        <v>1.0712999999999999</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="1"/>
-        <v>1.0362</v>
+        <v>1.0361860000000001</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="2"/>
-        <v>1.0293000000000001</v>
+        <v>1.029317</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="3"/>
-        <v>1.0246</v>
+        <v>1.0246230000000001</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="4"/>
-        <v>1.0106999999999999</v>
+        <v>1.010713</v>
       </c>
       <c r="K34" s="14">
         <f t="shared" si="5"/>
-        <v>2.5157384741446132</v>
+        <v>2.5167204455429637</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -10688,36 +11151,36 @@
         <v>32598</v>
       </c>
       <c r="C35" s="3">
-        <v>2.08</v>
+        <v>2.0779000000000001</v>
       </c>
       <c r="D35" s="3">
-        <v>1.97</v>
+        <v>1.968</v>
       </c>
       <c r="E35" s="3">
-        <v>1.07</v>
+        <v>1.0736000000000001</v>
       </c>
       <c r="F35" s="3">
-        <v>1.36</v>
+        <v>1.3642000000000001</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="1"/>
-        <v>1.0207999999999999</v>
+        <v>1.0207790000000001</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="2"/>
-        <v>1.0197000000000001</v>
+        <v>1.0196799999999999</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="3"/>
-        <v>1.0106999999999999</v>
+        <v>1.0107360000000001</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="4"/>
-        <v>1.0136000000000001</v>
+        <v>1.0136419999999999</v>
       </c>
       <c r="K35" s="14">
         <f t="shared" si="5"/>
-        <v>1.6191334241490107</v>
+        <v>1.6200700452394523</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -10728,36 +11191,36 @@
         <v>32689</v>
       </c>
       <c r="C36" s="3">
-        <v>1.57</v>
+        <v>1.569</v>
       </c>
       <c r="D36" s="3">
-        <v>1.17</v>
+        <v>1.1704000000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>2.15</v>
+        <v>2.1473</v>
       </c>
       <c r="F36" s="3">
-        <v>1.21</v>
+        <v>1.2094</v>
       </c>
       <c r="G36" s="14">
         <f t="shared" si="1"/>
-        <v>1.0157</v>
+        <v>1.01569</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="2"/>
-        <v>1.0117</v>
+        <v>1.0117039999999999</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="3"/>
-        <v>1.0215000000000001</v>
+        <v>1.0214730000000001</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="4"/>
-        <v>1.0121</v>
+        <v>1.012094</v>
       </c>
       <c r="K36" s="14">
         <f t="shared" si="5"/>
-        <v>1.5242405791953795</v>
+        <v>1.5232697051196009</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -10768,36 +11231,36 @@
         <v>32781</v>
       </c>
       <c r="C37" s="3">
-        <v>1.95</v>
+        <v>1.9463999999999999</v>
       </c>
       <c r="D37" s="3">
-        <v>0.97</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="E37" s="3">
-        <v>1.54</v>
+        <v>1.5436000000000001</v>
       </c>
       <c r="F37" s="3">
-        <v>3.97</v>
+        <v>3.9659</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" si="1"/>
-        <v>1.0195000000000001</v>
+        <v>1.0194639999999999</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="2"/>
-        <v>1.0097</v>
+        <v>1.0096499999999999</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="3"/>
-        <v>1.0154000000000001</v>
+        <v>1.015436</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="4"/>
-        <v>1.0397000000000001</v>
+        <v>1.0396589999999999</v>
       </c>
       <c r="K37" s="14">
         <f t="shared" si="5"/>
-        <v>2.1012825081917041</v>
+        <v>2.0990155074684047</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -10808,36 +11271,36 @@
         <v>32873</v>
       </c>
       <c r="C38" s="3">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="D38" s="3">
-        <v>1.59</v>
+        <v>1.5854999999999999</v>
       </c>
       <c r="E38" s="3">
-        <v>2.35</v>
+        <v>2.3515999999999999</v>
       </c>
       <c r="F38" s="3">
-        <v>2.34</v>
+        <v>2.3378000000000001</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="1"/>
-        <v>1.0174000000000001</v>
+        <v>1.01738</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="2"/>
-        <v>1.0159</v>
+        <v>1.015855</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="3"/>
-        <v>1.0235000000000001</v>
+        <v>1.0235160000000001</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="4"/>
-        <v>1.0234000000000001</v>
+        <v>1.0233779999999999</v>
       </c>
       <c r="K38" s="14">
         <f t="shared" si="5"/>
-        <v>2.0044194202922139</v>
+        <v>2.0026389610491968</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -10848,36 +11311,36 @@
         <v>32963</v>
       </c>
       <c r="C39" s="3">
-        <v>1.93</v>
+        <v>1.927</v>
       </c>
       <c r="D39" s="3">
-        <v>2.4</v>
+        <v>2.4014000000000002</v>
       </c>
       <c r="E39" s="3">
-        <v>2.68</v>
+        <v>2.6764000000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>2.23</v>
+        <v>2.2277999999999998</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="1"/>
-        <v>1.0193000000000001</v>
+        <v>1.0192699999999999</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="2"/>
-        <v>1.024</v>
+        <v>1.024014</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="3"/>
-        <v>1.0267999999999999</v>
+        <v>1.026764</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="4"/>
-        <v>1.0223</v>
+        <v>1.022278</v>
       </c>
       <c r="K39" s="14">
         <f t="shared" si="5"/>
-        <v>2.3096385648375017</v>
+        <v>2.3077882620234469</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -10888,36 +11351,36 @@
         <v>33054</v>
       </c>
       <c r="C40" s="3">
-        <v>2.4900000000000002</v>
+        <v>2.4914999999999998</v>
       </c>
       <c r="D40" s="3">
-        <v>1.9</v>
+        <v>1.9006000000000001</v>
       </c>
       <c r="E40" s="3">
-        <v>2.94</v>
+        <v>2.9434</v>
       </c>
       <c r="F40" s="3">
-        <v>2.64</v>
+        <v>2.6364000000000001</v>
       </c>
       <c r="G40" s="14">
         <f t="shared" si="1"/>
-        <v>1.0248999999999999</v>
+        <v>1.024915</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="2"/>
-        <v>1.0189999999999999</v>
+        <v>1.0190060000000001</v>
       </c>
       <c r="I40" s="14">
         <f t="shared" si="3"/>
-        <v>1.0294000000000001</v>
+        <v>1.029434</v>
       </c>
       <c r="J40" s="14">
         <f t="shared" si="4"/>
-        <v>1.0264</v>
+        <v>1.0263640000000001</v>
       </c>
       <c r="K40" s="14">
         <f t="shared" si="5"/>
-        <v>2.4918001560686465</v>
+        <v>2.4922736005715818</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -10928,36 +11391,36 @@
         <v>33146</v>
       </c>
       <c r="C41" s="3">
-        <v>0.77</v>
+        <v>0.7681</v>
       </c>
       <c r="D41" s="3">
-        <v>0.79</v>
+        <v>0.78590000000000004</v>
       </c>
       <c r="E41" s="3">
-        <v>0.79</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="F41" s="3">
-        <v>2.44</v>
+        <v>2.4445000000000001</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="1"/>
-        <v>1.0077</v>
+        <v>1.007681</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="2"/>
-        <v>1.0079</v>
+        <v>1.0078590000000001</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="3"/>
-        <v>1.0079</v>
+        <v>1.0079389999999999</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>1.0244</v>
+        <v>1.0244450000000001</v>
       </c>
       <c r="K41" s="14">
         <f t="shared" si="5"/>
-        <v>1.1949708630425215</v>
+        <v>1.1955549189085257</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -10968,36 +11431,36 @@
         <v>33238</v>
       </c>
       <c r="C42" s="3">
-        <v>-0.92</v>
+        <v>-0.91520000000000001</v>
       </c>
       <c r="D42" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.1447</v>
       </c>
       <c r="E42" s="3">
-        <v>1.31</v>
+        <v>1.3070999999999999</v>
       </c>
       <c r="F42" s="3">
-        <v>2.4700000000000002</v>
+        <v>2.4716</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" si="1"/>
-        <v>0.99080000000000001</v>
+        <v>0.99084799999999995</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="2"/>
-        <v>1.0014000000000001</v>
+        <v>1.001447</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" si="3"/>
-        <v>1.0131000000000001</v>
+        <v>1.0130710000000001</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" si="4"/>
-        <v>1.0246999999999999</v>
+        <v>1.024716</v>
       </c>
       <c r="K42" s="14">
         <f t="shared" si="5"/>
-        <v>0.74202101906017948</v>
+        <v>0.74409548233194123</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -11008,36 +11471,36 @@
         <v>33328</v>
       </c>
       <c r="C43" s="3">
-        <v>0.19</v>
+        <v>0.19389999999999999</v>
       </c>
       <c r="D43" s="3">
-        <v>1.66</v>
+        <v>1.6567000000000001</v>
       </c>
       <c r="E43" s="3">
-        <v>2.93</v>
+        <v>2.9251999999999998</v>
       </c>
       <c r="F43" s="3">
-        <v>3.21</v>
+        <v>3.2124999999999999</v>
       </c>
       <c r="G43" s="14">
         <f t="shared" si="1"/>
-        <v>1.0019</v>
+        <v>1.0019389999999999</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" si="2"/>
-        <v>1.0165999999999999</v>
+        <v>1.016567</v>
       </c>
       <c r="I43" s="14">
         <f t="shared" si="3"/>
-        <v>1.0293000000000001</v>
+        <v>1.0292520000000001</v>
       </c>
       <c r="J43" s="14">
         <f t="shared" si="4"/>
-        <v>1.0321</v>
+        <v>1.032125</v>
       </c>
       <c r="K43" s="14">
         <f t="shared" si="5"/>
-        <v>1.9904617953586223</v>
+        <v>1.9900551360996221</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -11048,36 +11511,36 @@
         <v>33419</v>
       </c>
       <c r="C44" s="3">
-        <v>1.86</v>
+        <v>1.8566</v>
       </c>
       <c r="D44" s="3">
-        <v>2.82</v>
+        <v>2.8159999999999998</v>
       </c>
       <c r="E44" s="3">
-        <v>3.02</v>
+        <v>3.0217999999999998</v>
       </c>
       <c r="F44" s="3">
-        <v>3.12</v>
+        <v>3.1208999999999998</v>
       </c>
       <c r="G44" s="14">
         <f t="shared" si="1"/>
-        <v>1.0185999999999999</v>
+        <v>1.0185660000000001</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="2"/>
-        <v>1.0282</v>
+        <v>1.02816</v>
       </c>
       <c r="I44" s="14">
         <f t="shared" si="3"/>
-        <v>1.0302</v>
+        <v>1.0302180000000001</v>
       </c>
       <c r="J44" s="14">
         <f t="shared" si="4"/>
-        <v>1.0311999999999999</v>
+        <v>1.031209</v>
       </c>
       <c r="K44" s="14">
         <f t="shared" si="5"/>
-        <v>2.7037805365373035</v>
+        <v>2.7025973044406904</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -11088,36 +11551,36 @@
         <v>33511</v>
       </c>
       <c r="C45" s="3">
-        <v>2.4900000000000002</v>
+        <v>2.4868000000000001</v>
       </c>
       <c r="D45" s="3">
-        <v>2.84</v>
+        <v>2.8420999999999998</v>
       </c>
       <c r="E45" s="3">
-        <v>3.17</v>
+        <v>3.1717</v>
       </c>
       <c r="F45" s="3">
-        <v>2.76</v>
+        <v>2.7614000000000001</v>
       </c>
       <c r="G45" s="14">
         <f t="shared" si="1"/>
-        <v>1.0248999999999999</v>
+        <v>1.0248680000000001</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="2"/>
-        <v>1.0284</v>
+        <v>1.028421</v>
       </c>
       <c r="I45" s="14">
         <f t="shared" si="3"/>
-        <v>1.0317000000000001</v>
+        <v>1.031717</v>
       </c>
       <c r="J45" s="14">
         <f t="shared" si="4"/>
-        <v>1.0276000000000001</v>
+        <v>1.027614</v>
       </c>
       <c r="K45" s="14">
         <f t="shared" si="5"/>
-        <v>2.8147140076542509</v>
+        <v>2.8152100441876327</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -11128,36 +11591,36 @@
         <v>33603</v>
       </c>
       <c r="C46" s="3">
-        <v>2.17</v>
+        <v>2.1720000000000002</v>
       </c>
       <c r="D46" s="3">
-        <v>3</v>
+        <v>2.9988999999999999</v>
       </c>
       <c r="E46" s="3">
-        <v>3.42</v>
+        <v>3.4239000000000002</v>
       </c>
       <c r="F46" s="3">
-        <v>2.67</v>
+        <v>2.6726000000000001</v>
       </c>
       <c r="G46" s="14">
         <f t="shared" si="1"/>
-        <v>1.0217000000000001</v>
+        <v>1.02172</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="2"/>
-        <v>1.03</v>
+        <v>1.029989</v>
       </c>
       <c r="I46" s="14">
         <f t="shared" si="3"/>
-        <v>1.0342</v>
+        <v>1.0342389999999999</v>
       </c>
       <c r="J46" s="14">
         <f t="shared" si="4"/>
-        <v>1.0266999999999999</v>
+        <v>1.026726</v>
       </c>
       <c r="K46" s="14">
         <f t="shared" si="5"/>
-        <v>2.8139816743379287</v>
+        <v>2.8158305044827747</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -11168,36 +11631,36 @@
         <v>33694</v>
       </c>
       <c r="C47" s="3">
-        <v>2.31</v>
+        <v>2.3096000000000001</v>
       </c>
       <c r="D47" s="3">
-        <v>3.06</v>
+        <v>3.0589</v>
       </c>
       <c r="E47" s="3">
-        <v>3.22</v>
+        <v>3.2244999999999999</v>
       </c>
       <c r="F47" s="3">
-        <v>2.76</v>
+        <v>2.7601</v>
       </c>
       <c r="G47" s="14">
         <f t="shared" si="1"/>
-        <v>1.0230999999999999</v>
+        <v>1.023096</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" si="2"/>
-        <v>1.0306</v>
+        <v>1.030589</v>
       </c>
       <c r="I47" s="14">
         <f t="shared" si="3"/>
-        <v>1.0322</v>
+        <v>1.0322450000000001</v>
       </c>
       <c r="J47" s="14">
         <f t="shared" si="4"/>
-        <v>1.0276000000000001</v>
+        <v>1.027601</v>
       </c>
       <c r="K47" s="14">
         <f t="shared" si="5"/>
-        <v>2.8369158274043293</v>
+        <v>2.8376867278957052</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -11208,36 +11671,36 @@
         <v>33785</v>
       </c>
       <c r="C48" s="3">
-        <v>3.37</v>
+        <v>3.3704000000000001</v>
       </c>
       <c r="D48" s="3">
-        <v>3.09</v>
+        <v>3.0949</v>
       </c>
       <c r="E48" s="3">
-        <v>3.03</v>
+        <v>3.0301999999999998</v>
       </c>
       <c r="F48" s="3">
-        <v>3.13</v>
+        <v>3.1292</v>
       </c>
       <c r="G48" s="14">
         <f t="shared" si="1"/>
-        <v>1.0337000000000001</v>
+        <v>1.033704</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="2"/>
-        <v>1.0308999999999999</v>
+        <v>1.0309489999999999</v>
       </c>
       <c r="I48" s="14">
         <f t="shared" si="3"/>
-        <v>1.0303</v>
+        <v>1.0303020000000001</v>
       </c>
       <c r="J48" s="14">
         <f t="shared" si="4"/>
-        <v>1.0313000000000001</v>
+        <v>1.0312920000000001</v>
       </c>
       <c r="K48" s="14">
         <f t="shared" si="5"/>
-        <v>3.1549192351855382</v>
+        <v>3.1560947873875422</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -11248,36 +11711,36 @@
         <v>33877</v>
       </c>
       <c r="C49" s="3">
-        <v>2.41</v>
+        <v>2.4104999999999999</v>
       </c>
       <c r="D49" s="3">
-        <v>3.17</v>
+        <v>3.1711999999999998</v>
       </c>
       <c r="E49" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.3151000000000002</v>
       </c>
       <c r="F49" s="3">
-        <v>2.85</v>
+        <v>2.8466999999999998</v>
       </c>
       <c r="G49" s="14">
         <f t="shared" si="1"/>
-        <v>1.0241</v>
+        <v>1.024105</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="2"/>
-        <v>1.0317000000000001</v>
+        <v>1.031712</v>
       </c>
       <c r="I49" s="14">
         <f t="shared" si="3"/>
-        <v>1.0232000000000001</v>
+        <v>1.0231509999999999</v>
       </c>
       <c r="J49" s="14">
         <f t="shared" si="4"/>
-        <v>1.0285</v>
+        <v>1.028467</v>
       </c>
       <c r="K49" s="14">
         <f t="shared" si="5"/>
-        <v>2.68692668135182</v>
+        <v>2.6852974980407174</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -11288,36 +11751,36 @@
         <v>33969</v>
       </c>
       <c r="C50" s="3">
-        <v>2.41</v>
+        <v>2.4146999999999998</v>
       </c>
       <c r="D50" s="3">
-        <v>2.84</v>
+        <v>2.8386</v>
       </c>
       <c r="E50" s="3">
-        <v>3.26</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="F50" s="3">
-        <v>3.33</v>
+        <v>3.331</v>
       </c>
       <c r="G50" s="14">
         <f t="shared" si="1"/>
-        <v>1.0241</v>
+        <v>1.0241469999999999</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="2"/>
-        <v>1.0284</v>
+        <v>1.028386</v>
       </c>
       <c r="I50" s="14">
         <f t="shared" si="3"/>
-        <v>1.0326</v>
+        <v>1.0326299999999999</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="4"/>
-        <v>1.0333000000000001</v>
+        <v>1.03331</v>
       </c>
       <c r="K50" s="14">
         <f t="shared" si="5"/>
-        <v>2.9593390764326211</v>
+        <v>2.9611668672248737</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -11328,36 +11791,36 @@
         <v>34059</v>
       </c>
       <c r="C51" s="3">
-        <v>2.94</v>
+        <v>2.9422999999999999</v>
       </c>
       <c r="D51" s="3">
-        <v>3.31</v>
+        <v>3.3130999999999999</v>
       </c>
       <c r="E51" s="3">
-        <v>3.4</v>
+        <v>3.3986999999999998</v>
       </c>
       <c r="F51" s="3">
-        <v>2.86</v>
+        <v>2.855</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="1"/>
-        <v>1.0294000000000001</v>
+        <v>1.029423</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="2"/>
-        <v>1.0330999999999999</v>
+        <v>1.033131</v>
       </c>
       <c r="I51" s="14">
         <f t="shared" si="3"/>
-        <v>1.034</v>
+        <v>1.033987</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" si="4"/>
-        <v>1.0286</v>
+        <v>1.0285500000000001</v>
       </c>
       <c r="K51" s="14">
         <f t="shared" si="5"/>
-        <v>3.1272402831565849</v>
+        <v>3.1270125174412078</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -11368,36 +11831,36 @@
         <v>34150</v>
       </c>
       <c r="C52" s="3">
-        <v>3.29</v>
+        <v>3.2938000000000001</v>
       </c>
       <c r="D52" s="3">
-        <v>3.34</v>
+        <v>3.3433999999999999</v>
       </c>
       <c r="E52" s="3">
-        <v>3.06</v>
+        <v>3.0642</v>
       </c>
       <c r="F52" s="3">
-        <v>2.64</v>
+        <v>2.6417999999999999</v>
       </c>
       <c r="G52" s="14">
         <f t="shared" si="1"/>
-        <v>1.0328999999999999</v>
+        <v>1.0329379999999999</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="2"/>
-        <v>1.0334000000000001</v>
+        <v>1.033434</v>
       </c>
       <c r="I52" s="14">
         <f t="shared" si="3"/>
-        <v>1.0306</v>
+        <v>1.0306420000000001</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="4"/>
-        <v>1.0264</v>
+        <v>1.0264180000000001</v>
       </c>
       <c r="K52" s="14">
         <f t="shared" si="5"/>
-        <v>3.0821288545825443</v>
+        <v>3.0854269815176139</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -11408,36 +11871,36 @@
         <v>34242</v>
       </c>
       <c r="C53" s="3">
-        <v>3.2</v>
+        <v>3.2010999999999998</v>
       </c>
       <c r="D53" s="3">
-        <v>2.69</v>
+        <v>2.6903000000000001</v>
       </c>
       <c r="E53" s="3">
-        <v>2.9</v>
+        <v>2.9009999999999998</v>
       </c>
       <c r="F53" s="3">
-        <v>2.99</v>
+        <v>2.9874000000000001</v>
       </c>
       <c r="G53" s="14">
         <f t="shared" si="1"/>
-        <v>1.032</v>
+        <v>1.032011</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="2"/>
-        <v>1.0268999999999999</v>
+        <v>1.0269029999999999</v>
       </c>
       <c r="I53" s="14">
         <f t="shared" si="3"/>
-        <v>1.0289999999999999</v>
+        <v>1.02901</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="4"/>
-        <v>1.0299</v>
+        <v>1.029874</v>
       </c>
       <c r="K53" s="14">
         <f t="shared" si="5"/>
-        <v>2.9448371699775322</v>
+        <v>2.944787059152576</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -11448,36 +11911,36 @@
         <v>34334</v>
       </c>
       <c r="C54" s="3">
-        <v>2.88</v>
+        <v>2.8778000000000001</v>
       </c>
       <c r="D54" s="3">
-        <v>2.4900000000000002</v>
+        <v>2.4870999999999999</v>
       </c>
       <c r="E54" s="3">
-        <v>2.98</v>
+        <v>2.9819</v>
       </c>
       <c r="F54" s="3">
-        <v>2.75</v>
+        <v>2.7461000000000002</v>
       </c>
       <c r="G54" s="14">
         <f t="shared" si="1"/>
-        <v>1.0287999999999999</v>
+        <v>1.028778</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="2"/>
-        <v>1.0248999999999999</v>
+        <v>1.0248710000000001</v>
       </c>
       <c r="I54" s="14">
         <f t="shared" si="3"/>
-        <v>1.0298</v>
+        <v>1.029819</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="4"/>
-        <v>1.0275000000000001</v>
+        <v>1.027461</v>
       </c>
       <c r="K54" s="14">
         <f t="shared" si="5"/>
-        <v>2.7748358219851665</v>
+        <v>2.773058163641573</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -11488,36 +11951,36 @@
         <v>34424</v>
       </c>
       <c r="C55" s="3">
-        <v>3.26</v>
+        <v>3.2557</v>
       </c>
       <c r="D55" s="3">
-        <v>2.65</v>
+        <v>2.6507000000000001</v>
       </c>
       <c r="E55" s="3">
-        <v>3.06</v>
+        <v>3.0623999999999998</v>
       </c>
       <c r="F55" s="3">
-        <v>2.41</v>
+        <v>2.4089</v>
       </c>
       <c r="G55" s="14">
         <f t="shared" si="1"/>
-        <v>1.0326</v>
+        <v>1.0325569999999999</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="2"/>
-        <v>1.0265</v>
+        <v>1.0265070000000001</v>
       </c>
       <c r="I55" s="14">
         <f t="shared" si="3"/>
-        <v>1.0306</v>
+        <v>1.030624</v>
       </c>
       <c r="J55" s="14">
         <f t="shared" si="4"/>
-        <v>1.0241</v>
+        <v>1.024089</v>
       </c>
       <c r="K55" s="14">
         <f t="shared" si="5"/>
-        <v>2.8444582186815559</v>
+        <v>2.8438854249963619</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -11528,36 +11991,36 @@
         <v>34515</v>
       </c>
       <c r="C56" s="3">
-        <v>3.09</v>
+        <v>3.0876999999999999</v>
       </c>
       <c r="D56" s="3">
-        <v>2.83</v>
+        <v>2.8271000000000002</v>
       </c>
       <c r="E56" s="3">
-        <v>2.5099999999999998</v>
+        <v>2.508</v>
       </c>
       <c r="F56" s="3">
-        <v>2.33</v>
+        <v>2.3344999999999998</v>
       </c>
       <c r="G56" s="14">
         <f t="shared" si="1"/>
-        <v>1.0308999999999999</v>
+        <v>1.030877</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="2"/>
-        <v>1.0283</v>
+        <v>1.0282709999999999</v>
       </c>
       <c r="I56" s="14">
         <f t="shared" si="3"/>
-        <v>1.0250999999999999</v>
+        <v>1.02508</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="4"/>
-        <v>1.0233000000000001</v>
+        <v>1.0233449999999999</v>
       </c>
       <c r="K56" s="14">
         <f t="shared" si="5"/>
-        <v>2.6895842963834404</v>
+        <v>2.6889155529073339</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -11568,36 +12031,36 @@
         <v>34607</v>
       </c>
       <c r="C57" s="3">
-        <v>2.59</v>
+        <v>2.5889000000000002</v>
       </c>
       <c r="D57" s="3">
-        <v>2.41</v>
+        <v>2.4087999999999998</v>
       </c>
       <c r="E57" s="3">
-        <v>2.35</v>
+        <v>2.3513000000000002</v>
       </c>
       <c r="F57" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.5491999999999999</v>
       </c>
       <c r="G57" s="14">
         <f t="shared" si="1"/>
-        <v>1.0259</v>
+        <v>1.0258890000000001</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="2"/>
-        <v>1.0241</v>
+        <v>1.0240879999999999</v>
       </c>
       <c r="I57" s="14">
         <f t="shared" si="3"/>
-        <v>1.0235000000000001</v>
+        <v>1.0235129999999999</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="4"/>
-        <v>1.0255000000000001</v>
+        <v>1.0254920000000001</v>
       </c>
       <c r="K57" s="14">
         <f t="shared" si="5"/>
-        <v>2.4749527910862268</v>
+        <v>2.4745034472481775</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -11608,36 +12071,36 @@
         <v>34699</v>
       </c>
       <c r="C58" s="3">
-        <v>2.8</v>
+        <v>2.8003999999999998</v>
       </c>
       <c r="D58" s="3">
-        <v>2.38</v>
+        <v>2.3822000000000001</v>
       </c>
       <c r="E58" s="3">
-        <v>2.4900000000000002</v>
+        <v>2.4942000000000002</v>
       </c>
       <c r="F58" s="3">
-        <v>2.42</v>
+        <v>2.4195000000000002</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="1"/>
-        <v>1.028</v>
+        <v>1.0280039999999999</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="2"/>
-        <v>1.0238</v>
+        <v>1.023822</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="3"/>
-        <v>1.0248999999999999</v>
+        <v>1.024942</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="4"/>
-        <v>1.0242</v>
+        <v>1.024195</v>
       </c>
       <c r="K58" s="14">
         <f t="shared" si="5"/>
-        <v>2.5223673921311862</v>
+        <v>2.5239430777144412</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -11648,36 +12111,36 @@
         <v>34789</v>
       </c>
       <c r="C59" s="3">
-        <v>2.67</v>
+        <v>2.6711999999999998</v>
       </c>
       <c r="D59" s="3">
-        <v>2.23</v>
+        <v>2.2273000000000001</v>
       </c>
       <c r="E59" s="3">
-        <v>2.12</v>
+        <v>2.1208999999999998</v>
       </c>
       <c r="F59" s="3">
-        <v>2.68</v>
+        <v>2.6777000000000002</v>
       </c>
       <c r="G59" s="14">
         <f t="shared" si="1"/>
-        <v>1.0266999999999999</v>
+        <v>1.0267120000000001</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="2"/>
-        <v>1.0223</v>
+        <v>1.022273</v>
       </c>
       <c r="I59" s="14">
         <f t="shared" si="3"/>
-        <v>1.0212000000000001</v>
+        <v>1.021209</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="4"/>
-        <v>1.0267999999999999</v>
+        <v>1.0267770000000001</v>
       </c>
       <c r="K59" s="14">
         <f t="shared" si="5"/>
-        <v>2.4246874179230549</v>
+        <v>2.4239625011623023</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -11688,36 +12151,36 @@
         <v>34880</v>
       </c>
       <c r="C60" s="3">
-        <v>2.2799999999999998</v>
+        <v>2.2791999999999999</v>
       </c>
       <c r="D60" s="3">
-        <v>2.79</v>
+        <v>2.7898999999999998</v>
       </c>
       <c r="E60" s="3">
-        <v>2.74</v>
+        <v>2.7412000000000001</v>
       </c>
       <c r="F60" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.3151999999999999</v>
       </c>
       <c r="G60" s="14">
         <f t="shared" si="1"/>
-        <v>1.0227999999999999</v>
+        <v>1.0227919999999999</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="2"/>
-        <v>1.0279</v>
+        <v>1.0278989999999999</v>
       </c>
       <c r="I60" s="14">
         <f t="shared" si="3"/>
-        <v>1.0274000000000001</v>
+        <v>1.027412</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="4"/>
-        <v>1.0232000000000001</v>
+        <v>1.0231520000000001</v>
       </c>
       <c r="K60" s="14">
         <f t="shared" si="5"/>
-        <v>2.5322338974672842</v>
+        <v>2.5311053466613664</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -11728,36 +12191,36 @@
         <v>34972</v>
       </c>
       <c r="C61" s="3">
-        <v>2.76</v>
+        <v>2.7624</v>
       </c>
       <c r="D61" s="3">
-        <v>2.78</v>
+        <v>2.7814999999999999</v>
       </c>
       <c r="E61" s="3">
-        <v>2.66</v>
+        <v>2.6621999999999999</v>
       </c>
       <c r="F61" s="3">
-        <v>2.58</v>
+        <v>2.5783</v>
       </c>
       <c r="G61" s="14">
         <f t="shared" si="1"/>
-        <v>1.0276000000000001</v>
+        <v>1.0276240000000001</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="2"/>
-        <v>1.0278</v>
+        <v>1.0278149999999999</v>
       </c>
       <c r="I61" s="14">
         <f t="shared" si="3"/>
-        <v>1.0266</v>
+        <v>1.0266219999999999</v>
       </c>
       <c r="J61" s="14">
         <f t="shared" si="4"/>
-        <v>1.0258</v>
+        <v>1.0257830000000001</v>
       </c>
       <c r="K61" s="14">
         <f t="shared" si="5"/>
-        <v>2.6949684692662457</v>
+        <v>2.6960674770536208</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -11768,36 +12231,36 @@
         <v>35064</v>
       </c>
       <c r="C62" s="3">
-        <v>2.63</v>
+        <v>2.6286999999999998</v>
       </c>
       <c r="D62" s="3">
-        <v>2.4500000000000002</v>
+        <v>2.4525000000000001</v>
       </c>
       <c r="E62" s="3">
-        <v>2.58</v>
+        <v>2.5819000000000001</v>
       </c>
       <c r="F62" s="3">
-        <v>2.33</v>
+        <v>2.3329</v>
       </c>
       <c r="G62" s="14">
         <f t="shared" si="1"/>
-        <v>1.0263</v>
+        <v>1.0262869999999999</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="2"/>
-        <v>1.0245</v>
+        <v>1.0245249999999999</v>
       </c>
       <c r="I62" s="14">
         <f t="shared" si="3"/>
-        <v>1.0258</v>
+        <v>1.025819</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="4"/>
-        <v>1.0233000000000001</v>
+        <v>1.0233289999999999</v>
       </c>
       <c r="K62" s="14">
         <f t="shared" si="5"/>
-        <v>2.4974333062786735</v>
+        <v>2.4989348060001193</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -11808,36 +12271,36 @@
         <v>35155</v>
       </c>
       <c r="C63" s="3">
-        <v>2.06</v>
+        <v>2.0629</v>
       </c>
       <c r="D63" s="3">
-        <v>2.38</v>
+        <v>2.3773</v>
       </c>
       <c r="E63" s="3">
-        <v>2.38</v>
+        <v>2.3811</v>
       </c>
       <c r="F63" s="3">
-        <v>2.73</v>
+        <v>2.734</v>
       </c>
       <c r="G63" s="14">
         <f t="shared" si="1"/>
-        <v>1.0206</v>
+        <v>1.020629</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="2"/>
-        <v>1.0238</v>
+        <v>1.023773</v>
       </c>
       <c r="I63" s="14">
         <f t="shared" si="3"/>
-        <v>1.0238</v>
+        <v>1.023811</v>
       </c>
       <c r="J63" s="14">
         <f t="shared" si="4"/>
-        <v>1.0273000000000001</v>
+        <v>1.0273399999999999</v>
       </c>
       <c r="K63" s="14">
         <f t="shared" si="5"/>
-        <v>2.3872257440832989</v>
+        <v>2.3885496721466115</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -11848,36 +12311,36 @@
         <v>35246</v>
       </c>
       <c r="C64" s="3">
-        <v>2.29</v>
+        <v>2.2890999999999999</v>
       </c>
       <c r="D64" s="3">
-        <v>1.86</v>
+        <v>1.8648</v>
       </c>
       <c r="E64" s="3">
-        <v>2.14</v>
+        <v>2.1366999999999998</v>
       </c>
       <c r="F64" s="3">
-        <v>1.88</v>
+        <v>1.8835</v>
       </c>
       <c r="G64" s="14">
         <f t="shared" si="1"/>
-        <v>1.0228999999999999</v>
+        <v>1.022891</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="2"/>
-        <v>1.0185999999999999</v>
+        <v>1.018648</v>
       </c>
       <c r="I64" s="14">
         <f t="shared" si="3"/>
-        <v>1.0214000000000001</v>
+        <v>1.0213669999999999</v>
       </c>
       <c r="J64" s="14">
         <f t="shared" si="4"/>
-        <v>1.0187999999999999</v>
+        <v>1.0188349999999999</v>
       </c>
       <c r="K64" s="14">
         <f t="shared" si="5"/>
-        <v>2.0423402163198157</v>
+        <v>2.0433700398009735</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -11888,36 +12351,36 @@
         <v>35338</v>
       </c>
       <c r="C65" s="3">
-        <v>2.37</v>
+        <v>2.3675999999999999</v>
       </c>
       <c r="D65" s="3">
-        <v>2.08</v>
+        <v>2.0764999999999998</v>
       </c>
       <c r="E65" s="3">
-        <v>1.9</v>
+        <v>1.8976999999999999</v>
       </c>
       <c r="F65" s="3">
-        <v>1.79</v>
+        <v>1.7937000000000001</v>
       </c>
       <c r="G65" s="14">
         <f t="shared" si="1"/>
-        <v>1.0237000000000001</v>
+        <v>1.023676</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="2"/>
-        <v>1.0207999999999999</v>
+        <v>1.0207649999999999</v>
       </c>
       <c r="I65" s="14">
         <f t="shared" si="3"/>
-        <v>1.0189999999999999</v>
+        <v>1.018977</v>
       </c>
       <c r="J65" s="14">
         <f t="shared" si="4"/>
-        <v>1.0179</v>
+        <v>1.0179370000000001</v>
       </c>
       <c r="K65" s="14">
         <f t="shared" si="5"/>
-        <v>2.0347643376059654</v>
+        <v>2.0336431148157974</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -11928,36 +12391,36 @@
         <v>35430</v>
       </c>
       <c r="C66" s="3">
-        <v>2.4500000000000002</v>
+        <v>2.4455</v>
       </c>
       <c r="D66" s="3">
-        <v>2.0699999999999998</v>
+        <v>2.0707</v>
       </c>
       <c r="E66" s="3">
-        <v>2.0099999999999998</v>
+        <v>2.0081000000000002</v>
       </c>
       <c r="F66" s="3">
-        <v>2.27</v>
+        <v>2.2736999999999998</v>
       </c>
       <c r="G66" s="14">
         <f t="shared" si="1"/>
-        <v>1.0245</v>
+        <v>1.0244549999999999</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="2"/>
-        <v>1.0206999999999999</v>
+        <v>1.020707</v>
       </c>
       <c r="I66" s="14">
         <f t="shared" si="3"/>
-        <v>1.0201</v>
+        <v>1.020081</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="4"/>
-        <v>1.0226999999999999</v>
+        <v>1.022737</v>
       </c>
       <c r="K66" s="14">
         <f t="shared" si="5"/>
-        <v>2.1998527946560653</v>
+        <v>2.1993542004719702</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -11968,36 +12431,36 @@
         <v>35520</v>
       </c>
       <c r="C67" s="3">
-        <v>2.37</v>
+        <v>2.3658999999999999</v>
       </c>
       <c r="D67" s="3">
-        <v>2.02</v>
+        <v>2.0228000000000002</v>
       </c>
       <c r="E67" s="3">
-        <v>2.38</v>
+        <v>2.3761000000000001</v>
       </c>
       <c r="F67" s="3">
-        <v>2.1</v>
+        <v>2.0968</v>
       </c>
       <c r="G67" s="14">
         <f t="shared" si="1"/>
-        <v>1.0237000000000001</v>
+        <v>1.0236590000000001</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="2"/>
-        <v>1.0202</v>
+        <v>1.0202279999999999</v>
       </c>
       <c r="I67" s="14">
         <f t="shared" si="3"/>
-        <v>1.0238</v>
+        <v>1.0237609999999999</v>
       </c>
       <c r="J67" s="14">
         <f t="shared" si="4"/>
-        <v>1.0209999999999999</v>
+        <v>1.0209680000000001</v>
       </c>
       <c r="K67" s="14">
         <f t="shared" si="5"/>
-        <v>2.2173746731410482</v>
+        <v>2.2152781449394698</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -12008,36 +12471,36 @@
         <v>35611</v>
       </c>
       <c r="C68" s="3">
-        <v>2.5</v>
+        <v>2.5026000000000002</v>
       </c>
       <c r="D68" s="3">
-        <v>2.31</v>
+        <v>2.3123999999999998</v>
       </c>
       <c r="E68" s="3">
-        <v>2.13</v>
+        <v>2.1253000000000002</v>
       </c>
       <c r="F68" s="3">
-        <v>1.87</v>
+        <v>1.8707</v>
       </c>
       <c r="G68" s="14">
         <f t="shared" si="1"/>
-        <v>1.0249999999999999</v>
+        <v>1.025026</v>
       </c>
       <c r="H68" s="14">
         <f t="shared" si="2"/>
-        <v>1.0230999999999999</v>
+        <v>1.0231239999999999</v>
       </c>
       <c r="I68" s="14">
         <f t="shared" si="3"/>
-        <v>1.0213000000000001</v>
+        <v>1.021253</v>
       </c>
       <c r="J68" s="14">
         <f t="shared" si="4"/>
-        <v>1.0186999999999999</v>
+        <v>1.018707</v>
       </c>
       <c r="K68" s="14">
         <f t="shared" si="5"/>
-        <v>2.2022358943001974</v>
+        <v>2.2024830711136589</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -12048,36 +12511,36 @@
         <v>35703</v>
       </c>
       <c r="C69" s="3">
-        <v>2.81</v>
+        <v>2.8128000000000002</v>
       </c>
       <c r="D69" s="3">
-        <v>2.57</v>
+        <v>2.5676000000000001</v>
       </c>
       <c r="E69" s="3">
-        <v>2.36</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="F69" s="3">
-        <v>2.0099999999999998</v>
+        <v>2.0085000000000002</v>
       </c>
       <c r="G69" s="14">
         <f t="shared" si="1"/>
-        <v>1.0281</v>
+        <v>1.0281279999999999</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="2"/>
-        <v>1.0257000000000001</v>
+        <v>1.025676</v>
       </c>
       <c r="I69" s="14">
         <f t="shared" si="3"/>
-        <v>1.0236000000000001</v>
+        <v>1.0236099999999999</v>
       </c>
       <c r="J69" s="14">
         <f t="shared" si="4"/>
-        <v>1.0201</v>
+        <v>1.0200849999999999</v>
       </c>
       <c r="K69" s="14">
         <f t="shared" si="5"/>
-        <v>2.4370787226465129</v>
+        <v>2.4370505588617419</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -12088,36 +12551,36 @@
         <v>35795</v>
       </c>
       <c r="C70" s="3">
-        <v>2.5</v>
+        <v>2.4992999999999999</v>
       </c>
       <c r="D70" s="3">
-        <v>2.41</v>
+        <v>2.4114</v>
       </c>
       <c r="E70" s="3">
-        <v>2.31</v>
+        <v>2.3142999999999998</v>
       </c>
       <c r="F70" s="3">
-        <v>2.16</v>
+        <v>2.1575000000000002</v>
       </c>
       <c r="G70" s="14">
         <f t="shared" si="1"/>
-        <v>1.0249999999999999</v>
+        <v>1.024993</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="2"/>
-        <v>1.0241</v>
+        <v>1.024114</v>
       </c>
       <c r="I70" s="14">
         <f t="shared" si="3"/>
-        <v>1.0230999999999999</v>
+        <v>1.0231429999999999</v>
       </c>
       <c r="J70" s="14">
         <f t="shared" si="4"/>
-        <v>1.0216000000000001</v>
+        <v>1.0215749999999999</v>
       </c>
       <c r="K70" s="14">
         <f t="shared" si="5"/>
-        <v>2.3449221804469289</v>
+        <v>2.3455464270692117</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -12128,36 +12591,36 @@
         <v>35885</v>
       </c>
       <c r="C71" s="3">
-        <v>1.85</v>
+        <v>1.853</v>
       </c>
       <c r="D71" s="3">
-        <v>2.0499999999999998</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="E71" s="3">
-        <v>2.48</v>
+        <v>2.4826000000000001</v>
       </c>
       <c r="F71" s="3">
-        <v>2.61</v>
+        <v>2.6095000000000002</v>
       </c>
       <c r="G71" s="14">
         <f t="shared" si="1"/>
-        <v>1.0185</v>
+        <v>1.0185299999999999</v>
       </c>
       <c r="H71" s="14">
         <f t="shared" si="2"/>
-        <v>1.0205</v>
+        <v>1.02051</v>
       </c>
       <c r="I71" s="14">
         <f t="shared" si="3"/>
-        <v>1.0247999999999999</v>
+        <v>1.024826</v>
       </c>
       <c r="J71" s="14">
         <f t="shared" si="4"/>
-        <v>1.0261</v>
+        <v>1.026095</v>
       </c>
       <c r="K71" s="14">
         <f t="shared" si="5"/>
-        <v>2.2470323313886764</v>
+        <v>2.2485596928158991</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -12168,24 +12631,24 @@
         <v>35976</v>
       </c>
       <c r="C72" s="3">
-        <v>2.13</v>
+        <v>2.1276999999999999</v>
       </c>
       <c r="D72" s="3">
-        <v>2.29</v>
+        <v>2.2892999999999999</v>
       </c>
       <c r="E72" s="3">
         <v>2.29</v>
       </c>
       <c r="F72" s="3">
-        <v>2.27</v>
+        <v>2.2704</v>
       </c>
       <c r="G72" s="14">
         <f t="shared" si="1"/>
-        <v>1.0213000000000001</v>
+        <v>1.021277</v>
       </c>
       <c r="H72" s="14">
         <f t="shared" si="2"/>
-        <v>1.0228999999999999</v>
+        <v>1.0228930000000001</v>
       </c>
       <c r="I72" s="14">
         <f t="shared" si="3"/>
@@ -12193,11 +12656,11 @@
       </c>
       <c r="J72" s="14">
         <f t="shared" si="4"/>
-        <v>1.0226999999999999</v>
+        <v>1.0227040000000001</v>
       </c>
       <c r="K72" s="14">
         <f t="shared" si="5"/>
-        <v>2.2449781057347407</v>
+        <v>2.244327505750765</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -12208,28 +12671,28 @@
         <v>36068</v>
       </c>
       <c r="C73" s="3">
-        <v>3.06</v>
+        <v>3.0623999999999998</v>
       </c>
       <c r="D73" s="3">
-        <v>2.2799999999999998</v>
+        <v>2.2810000000000001</v>
       </c>
       <c r="E73" s="3">
-        <v>2.06</v>
+        <v>2.0575999999999999</v>
       </c>
       <c r="F73" s="3">
         <v>2.5</v>
       </c>
       <c r="G73" s="14">
         <f t="shared" si="1"/>
-        <v>1.0306</v>
+        <v>1.030624</v>
       </c>
       <c r="H73" s="14">
         <f t="shared" si="2"/>
-        <v>1.0227999999999999</v>
+        <v>1.02281</v>
       </c>
       <c r="I73" s="14">
         <f t="shared" si="3"/>
-        <v>1.0206</v>
+        <v>1.0205759999999999</v>
       </c>
       <c r="J73" s="14">
         <f t="shared" si="4"/>
@@ -12237,7 +12700,7 @@
       </c>
       <c r="K73" s="14">
         <f t="shared" si="5"/>
-        <v>2.4743262797058518</v>
+        <v>2.4745708942436107</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -12248,36 +12711,36 @@
         <v>36160</v>
       </c>
       <c r="C74" s="3">
-        <v>1.68</v>
+        <v>1.6777</v>
       </c>
       <c r="D74" s="3">
-        <v>1.68</v>
+        <v>1.6787000000000001</v>
       </c>
       <c r="E74" s="3">
-        <v>2.0699999999999998</v>
+        <v>2.0682999999999998</v>
       </c>
       <c r="F74" s="3">
-        <v>2.06</v>
+        <v>2.0590999999999999</v>
       </c>
       <c r="G74" s="14">
         <f t="shared" si="1"/>
-        <v>1.0167999999999999</v>
+        <v>1.016777</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="2"/>
-        <v>1.0167999999999999</v>
+        <v>1.0167870000000001</v>
       </c>
       <c r="I74" s="14">
         <f t="shared" si="3"/>
-        <v>1.0206999999999999</v>
+        <v>1.020683</v>
       </c>
       <c r="J74" s="14">
         <f t="shared" si="4"/>
-        <v>1.0206</v>
+        <v>1.020591</v>
       </c>
       <c r="K74" s="14">
         <f t="shared" si="5"/>
-        <v>1.8723180630888958</v>
+        <v>1.8707675963742121</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -12288,28 +12751,28 @@
         <v>36250</v>
       </c>
       <c r="C75" s="3">
-        <v>2.67</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="D75" s="3">
-        <v>1.93</v>
+        <v>1.9302999999999999</v>
       </c>
       <c r="E75" s="3">
-        <v>2.4</v>
+        <v>2.4033000000000002</v>
       </c>
       <c r="F75" s="3">
         <v>2.4</v>
       </c>
       <c r="G75" s="14">
         <f t="shared" si="1"/>
-        <v>1.0266999999999999</v>
+        <v>1.02667</v>
       </c>
       <c r="H75" s="14">
         <f t="shared" si="2"/>
-        <v>1.0193000000000001</v>
+        <v>1.0193030000000001</v>
       </c>
       <c r="I75" s="14">
         <f t="shared" si="3"/>
-        <v>1.024</v>
+        <v>1.024033</v>
       </c>
       <c r="J75" s="14">
         <f t="shared" si="4"/>
@@ -12317,7 +12780,7 @@
       </c>
       <c r="K75" s="14">
         <f t="shared" si="5"/>
-        <v>2.3496530666561766</v>
+        <v>2.349805285722395</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -12328,28 +12791,28 @@
         <v>36341</v>
       </c>
       <c r="C76" s="3">
-        <v>2.79</v>
+        <v>2.7858999999999998</v>
       </c>
       <c r="D76" s="3">
-        <v>2.68</v>
+        <v>2.6768999999999998</v>
       </c>
       <c r="E76" s="3">
-        <v>1.83</v>
+        <v>1.8337000000000001</v>
       </c>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="14">
         <f t="shared" si="1"/>
-        <v>1.0279</v>
+        <v>1.0278590000000001</v>
       </c>
       <c r="H76" s="14">
         <f t="shared" si="2"/>
-        <v>1.0267999999999999</v>
+        <v>1.026769</v>
       </c>
       <c r="I76" s="14">
         <f t="shared" si="3"/>
-        <v>1.0183</v>
+        <v>1.018337</v>
       </c>
       <c r="J76" s="14">
         <f t="shared" si="4"/>
@@ -12357,7 +12820,7 @@
       </c>
       <c r="K76" s="14">
         <f t="shared" si="5"/>
-        <v>2.574031161338608</v>
+        <v>2.5731658279987357</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -12368,28 +12831,28 @@
         <v>36433</v>
       </c>
       <c r="C77" s="3">
-        <v>3</v>
+        <v>3.0001000000000002</v>
       </c>
       <c r="D77" s="3">
-        <v>1.9</v>
+        <v>1.9011</v>
       </c>
       <c r="E77" s="3">
-        <v>2.8</v>
+        <v>2.8031999999999999</v>
       </c>
       <c r="F77" s="3">
         <v>2.5</v>
       </c>
       <c r="G77" s="14">
         <f t="shared" si="1"/>
-        <v>1.03</v>
+        <v>1.0300009999999999</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>1.0189999999999999</v>
+        <v>1.0190109999999999</v>
       </c>
       <c r="I77" s="14">
         <f t="shared" si="3"/>
-        <v>1.028</v>
+        <v>1.0280320000000001</v>
       </c>
       <c r="J77" s="14">
         <f t="shared" si="4"/>
@@ -12397,7 +12860,7 @@
       </c>
       <c r="K77" s="14">
         <f t="shared" si="5"/>
-        <v>2.5491576060820087</v>
+        <v>2.5502572884403385</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -12408,36 +12871,36 @@
         <v>36525</v>
       </c>
       <c r="C78" s="3">
-        <v>2.25</v>
+        <v>2.2543000000000002</v>
       </c>
       <c r="D78" s="3">
-        <v>3.05</v>
+        <v>3.0470999999999999</v>
       </c>
       <c r="E78" s="3">
-        <v>2.96</v>
+        <v>2.9565000000000001</v>
       </c>
       <c r="F78" s="3">
-        <v>3.39</v>
+        <v>3.3913000000000002</v>
       </c>
       <c r="G78" s="14">
         <f t="shared" si="1"/>
-        <v>1.0225</v>
+        <v>1.022543</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>1.0305</v>
+        <v>1.0304709999999999</v>
       </c>
       <c r="I78" s="14">
         <f t="shared" si="3"/>
-        <v>1.0296000000000001</v>
+        <v>1.0295650000000001</v>
       </c>
       <c r="J78" s="14">
         <f t="shared" si="4"/>
-        <v>1.0339</v>
+        <v>1.0339130000000001</v>
       </c>
       <c r="K78" s="14">
         <f t="shared" si="5"/>
-        <v>2.9116628268810896</v>
+        <v>2.9114696140109642</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -12448,36 +12911,36 @@
         <v>36616</v>
       </c>
       <c r="C79" s="3">
-        <v>3.11</v>
+        <v>3.1067999999999998</v>
       </c>
       <c r="D79" s="3">
-        <v>3.27</v>
+        <v>3.2726999999999999</v>
       </c>
       <c r="E79" s="3">
-        <v>2.9</v>
+        <v>2.8963000000000001</v>
       </c>
       <c r="F79" s="3">
-        <v>2.85</v>
+        <v>2.8492000000000002</v>
       </c>
       <c r="G79" s="14">
         <f t="shared" si="1"/>
-        <v>1.0310999999999999</v>
+        <v>1.0310680000000001</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>1.0327</v>
+        <v>1.032727</v>
       </c>
       <c r="I79" s="14">
         <f t="shared" si="3"/>
-        <v>1.0289999999999999</v>
+        <v>1.0289630000000001</v>
       </c>
       <c r="J79" s="14">
         <f t="shared" si="4"/>
-        <v>1.0285</v>
+        <v>1.028492</v>
       </c>
       <c r="K79" s="14">
         <f t="shared" si="5"/>
-        <v>3.0323626163698769</v>
+        <v>3.031110089981226</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -12488,36 +12951,36 @@
         <v>36707</v>
       </c>
       <c r="C80" s="3">
-        <v>3.6</v>
+        <v>3.6025</v>
       </c>
       <c r="D80" s="3">
-        <v>3.09</v>
+        <v>3.0914000000000001</v>
       </c>
       <c r="E80" s="3">
-        <v>2.59</v>
+        <v>2.5878999999999999</v>
       </c>
       <c r="F80" s="3">
-        <v>2.57</v>
+        <v>2.5678000000000001</v>
       </c>
       <c r="G80" s="14">
         <f t="shared" si="1"/>
-        <v>1.036</v>
+        <v>1.036025</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>1.0308999999999999</v>
+        <v>1.0309140000000001</v>
       </c>
       <c r="I80" s="14">
         <f t="shared" si="3"/>
-        <v>1.0259</v>
+        <v>1.025879</v>
       </c>
       <c r="J80" s="14">
         <f t="shared" si="4"/>
-        <v>1.0257000000000001</v>
+        <v>1.0256780000000001</v>
       </c>
       <c r="K80" s="14">
         <f t="shared" si="5"/>
-        <v>2.9616325518800224</v>
+        <v>2.9615242419581245</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -12528,36 +12991,36 @@
         <v>36799</v>
       </c>
       <c r="C81" s="3">
-        <v>3.22</v>
+        <v>3.2214</v>
       </c>
       <c r="D81" s="3">
-        <v>2.98</v>
+        <v>2.9794</v>
       </c>
       <c r="E81" s="3">
-        <v>2.7</v>
+        <v>2.7002000000000002</v>
       </c>
       <c r="F81" s="3">
-        <v>3.21</v>
+        <v>3.2126000000000001</v>
       </c>
       <c r="G81" s="14">
         <f t="shared" si="1"/>
-        <v>1.0322</v>
+        <v>1.032214</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>1.0298</v>
+        <v>1.0297940000000001</v>
       </c>
       <c r="I81" s="14">
         <f t="shared" si="3"/>
-        <v>1.0269999999999999</v>
+        <v>1.027002</v>
       </c>
       <c r="J81" s="14">
         <f t="shared" si="4"/>
-        <v>1.0321</v>
+        <v>1.0321260000000001</v>
       </c>
       <c r="K81" s="14">
         <f t="shared" si="5"/>
-        <v>3.027281589905817</v>
+        <v>3.0281798690588557</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -12568,28 +13031,28 @@
         <v>36891</v>
       </c>
       <c r="C82" s="3">
-        <v>3.31</v>
+        <v>3.3146</v>
       </c>
       <c r="D82" s="3">
-        <v>3.2</v>
+        <v>3.1968000000000001</v>
       </c>
       <c r="E82" s="3">
-        <v>3.33</v>
+        <v>3.3344999999999998</v>
       </c>
       <c r="F82" s="3">
         <v>3.2</v>
       </c>
       <c r="G82" s="14">
         <f t="shared" si="1"/>
-        <v>1.0330999999999999</v>
+        <v>1.0331459999999999</v>
       </c>
       <c r="H82" s="14">
         <f t="shared" si="2"/>
-        <v>1.032</v>
+        <v>1.031968</v>
       </c>
       <c r="I82" s="14">
         <f t="shared" si="3"/>
-        <v>1.0333000000000001</v>
+        <v>1.033345</v>
       </c>
       <c r="J82" s="14">
         <f t="shared" si="4"/>
@@ -12597,7 +13060,7 @@
       </c>
       <c r="K82" s="14">
         <f t="shared" si="5"/>
-        <v>3.2599823264466421</v>
+        <v>3.2614554904085269</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -12608,36 +13071,36 @@
         <v>36981</v>
       </c>
       <c r="C83" s="3">
-        <v>2.16</v>
+        <v>2.1591</v>
       </c>
       <c r="D83" s="3">
-        <v>3.35</v>
+        <v>3.3458000000000001</v>
       </c>
       <c r="E83" s="3">
-        <v>3.65</v>
+        <v>3.6509999999999998</v>
       </c>
       <c r="F83" s="3">
-        <v>3.67</v>
+        <v>3.6713</v>
       </c>
       <c r="G83" s="14">
         <f t="shared" si="1"/>
-        <v>1.0216000000000001</v>
+        <v>1.0215909999999999</v>
       </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>1.0335000000000001</v>
+        <v>1.033458</v>
       </c>
       <c r="I83" s="14">
         <f t="shared" si="3"/>
-        <v>1.0365</v>
+        <v>1.03651</v>
       </c>
       <c r="J83" s="14">
         <f t="shared" si="4"/>
-        <v>1.0367</v>
+        <v>1.036713</v>
       </c>
       <c r="K83" s="14">
         <f t="shared" si="5"/>
-        <v>3.2056426627349532</v>
+        <v>3.2049392757538264</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -12648,36 +13111,36 @@
         <v>37072</v>
       </c>
       <c r="C84" s="3">
-        <v>1.96</v>
+        <v>1.9617</v>
       </c>
       <c r="D84" s="3">
-        <v>2.61</v>
+        <v>2.6147999999999998</v>
       </c>
       <c r="E84" s="3">
-        <v>3.1</v>
+        <v>3.0969000000000002</v>
       </c>
       <c r="F84" s="3">
-        <v>3.57</v>
+        <v>3.5659000000000001</v>
       </c>
       <c r="G84" s="14">
         <f t="shared" ref="G84:G147" si="6">1+C84/100</f>
-        <v>1.0196000000000001</v>
+        <v>1.019617</v>
       </c>
       <c r="H84" s="14">
         <f t="shared" ref="H84:H147" si="7">1+D84/100</f>
-        <v>1.0261</v>
+        <v>1.0261480000000001</v>
       </c>
       <c r="I84" s="14">
         <f t="shared" ref="I84:I147" si="8">1+E84/100</f>
-        <v>1.0309999999999999</v>
+        <v>1.030969</v>
       </c>
       <c r="J84" s="14">
         <f t="shared" ref="J84:J147" si="9">1+F84/100</f>
-        <v>1.0357000000000001</v>
+        <v>1.0356590000000001</v>
       </c>
       <c r="K84" s="14">
         <f t="shared" ref="K84:K147" si="10">100*(PRODUCT(G84:J84)^(1/4)-1)</f>
-        <v>2.8082671208828014</v>
+        <v>2.8081076436569763</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -12688,36 +13151,36 @@
         <v>37164</v>
       </c>
       <c r="C85" s="3">
-        <v>2.77</v>
+        <v>2.7703000000000002</v>
       </c>
       <c r="D85" s="3">
-        <v>2.71</v>
+        <v>2.7139000000000002</v>
       </c>
       <c r="E85" s="3">
-        <v>2.99</v>
+        <v>2.9889999999999999</v>
       </c>
       <c r="F85" s="3">
-        <v>3.91</v>
+        <v>3.9117000000000002</v>
       </c>
       <c r="G85" s="14">
         <f t="shared" si="6"/>
-        <v>1.0277000000000001</v>
+        <v>1.027703</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="7"/>
-        <v>1.0270999999999999</v>
+        <v>1.027139</v>
       </c>
       <c r="I85" s="14">
         <f t="shared" si="8"/>
-        <v>1.0299</v>
+        <v>1.02989</v>
       </c>
       <c r="J85" s="14">
         <f t="shared" si="9"/>
-        <v>1.0390999999999999</v>
+        <v>1.0391170000000001</v>
       </c>
       <c r="K85" s="14">
         <f t="shared" si="10"/>
-        <v>3.0938769884218287</v>
+        <v>3.095102262597127</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -12728,36 +13191,36 @@
         <v>37256</v>
       </c>
       <c r="C86" s="3">
-        <v>0.09</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="D86" s="3">
-        <v>2.35</v>
+        <v>2.3542000000000001</v>
       </c>
       <c r="E86" s="3">
-        <v>3.64</v>
+        <v>3.6417999999999999</v>
       </c>
       <c r="F86" s="3">
-        <v>4.01</v>
+        <v>4.0065999999999997</v>
       </c>
       <c r="G86" s="14">
         <f t="shared" si="6"/>
-        <v>1.0008999999999999</v>
+        <v>1.0009049999999999</v>
       </c>
       <c r="H86" s="14">
         <f t="shared" si="7"/>
-        <v>1.0235000000000001</v>
+        <v>1.023542</v>
       </c>
       <c r="I86" s="14">
         <f t="shared" si="8"/>
-        <v>1.0364</v>
+        <v>1.0364180000000001</v>
       </c>
       <c r="J86" s="14">
         <f t="shared" si="9"/>
-        <v>1.0401</v>
+        <v>1.0400659999999999</v>
       </c>
       <c r="K86" s="14">
         <f t="shared" si="10"/>
-        <v>2.5109502263829908</v>
+        <v>2.5117372129806137</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -12768,36 +13231,36 @@
         <v>37346</v>
       </c>
       <c r="C87" s="3">
-        <v>2.64</v>
+        <v>2.6444000000000001</v>
       </c>
       <c r="D87" s="3">
-        <v>3.9</v>
+        <v>3.8984999999999999</v>
       </c>
       <c r="E87" s="3">
-        <v>3.24</v>
+        <v>3.2385000000000002</v>
       </c>
       <c r="F87" s="3">
-        <v>3.35</v>
+        <v>3.3538000000000001</v>
       </c>
       <c r="G87" s="14">
         <f t="shared" si="6"/>
-        <v>1.0264</v>
+        <v>1.0264439999999999</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="7"/>
-        <v>1.0389999999999999</v>
+        <v>1.038985</v>
       </c>
       <c r="I87" s="14">
         <f t="shared" si="8"/>
-        <v>1.0324</v>
+        <v>1.0323850000000001</v>
       </c>
       <c r="J87" s="14">
         <f t="shared" si="9"/>
-        <v>1.0335000000000001</v>
+        <v>1.0335380000000001</v>
       </c>
       <c r="K87" s="14">
         <f t="shared" si="10"/>
-        <v>3.2815309627315603</v>
+        <v>3.2828392517337823</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -12808,36 +13271,36 @@
         <v>37437</v>
       </c>
       <c r="C88" s="3">
-        <v>3.23</v>
+        <v>3.2282000000000002</v>
       </c>
       <c r="D88" s="3">
-        <v>3.42</v>
+        <v>3.4161000000000001</v>
       </c>
       <c r="E88" s="3">
-        <v>3.5</v>
+        <v>3.5013999999999998</v>
       </c>
       <c r="F88" s="3">
-        <v>3.61</v>
+        <v>3.6116999999999999</v>
       </c>
       <c r="G88" s="14">
         <f t="shared" si="6"/>
-        <v>1.0323</v>
+        <v>1.0322819999999999</v>
       </c>
       <c r="H88" s="14">
         <f t="shared" si="7"/>
-        <v>1.0342</v>
+        <v>1.0341610000000001</v>
       </c>
       <c r="I88" s="14">
         <f t="shared" si="8"/>
-        <v>1.0349999999999999</v>
+        <v>1.0350140000000001</v>
       </c>
       <c r="J88" s="14">
         <f t="shared" si="9"/>
-        <v>1.0361</v>
+        <v>1.036117</v>
       </c>
       <c r="K88" s="14">
         <f t="shared" si="10"/>
-        <v>3.4399069185299558</v>
+        <v>3.439254888797838</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -12848,36 +13311,36 @@
         <v>37529</v>
       </c>
       <c r="C89" s="3">
-        <v>2.63</v>
+        <v>2.6335999999999999</v>
       </c>
       <c r="D89" s="3">
-        <v>3.44</v>
+        <v>3.4394999999999998</v>
       </c>
       <c r="E89" s="3">
-        <v>3.05</v>
+        <v>3.0512000000000001</v>
       </c>
       <c r="F89" s="3">
-        <v>3.66</v>
+        <v>3.6566000000000001</v>
       </c>
       <c r="G89" s="14">
         <f t="shared" si="6"/>
-        <v>1.0263</v>
+        <v>1.0263359999999999</v>
       </c>
       <c r="H89" s="14">
         <f t="shared" si="7"/>
-        <v>1.0344</v>
+        <v>1.034395</v>
       </c>
       <c r="I89" s="14">
         <f t="shared" si="8"/>
-        <v>1.0305</v>
+        <v>1.0305120000000001</v>
       </c>
       <c r="J89" s="14">
         <f t="shared" si="9"/>
-        <v>1.0366</v>
+        <v>1.0365660000000001</v>
       </c>
       <c r="K89" s="14">
         <f t="shared" si="10"/>
-        <v>3.1942526948009808</v>
+        <v>3.1944871473982728</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -12888,36 +13351,36 @@
         <v>37621</v>
       </c>
       <c r="C90" s="3">
-        <v>2.57</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="D90" s="3">
-        <v>3.05</v>
+        <v>3.0516000000000001</v>
       </c>
       <c r="E90" s="3">
-        <v>3.28</v>
+        <v>3.2768999999999999</v>
       </c>
       <c r="F90" s="3">
-        <v>4.16</v>
+        <v>4.1649000000000003</v>
       </c>
       <c r="G90" s="14">
         <f t="shared" si="6"/>
-        <v>1.0257000000000001</v>
+        <v>1.02566</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="7"/>
-        <v>1.0305</v>
+        <v>1.030516</v>
       </c>
       <c r="I90" s="14">
         <f t="shared" si="8"/>
-        <v>1.0327999999999999</v>
+        <v>1.032769</v>
       </c>
       <c r="J90" s="14">
         <f t="shared" si="9"/>
-        <v>1.0416000000000001</v>
+        <v>1.041649</v>
       </c>
       <c r="K90" s="14">
         <f t="shared" si="10"/>
-        <v>3.2633923235135143</v>
+        <v>3.2632259086707194</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -12928,36 +13391,36 @@
         <v>37711</v>
       </c>
       <c r="C91" s="3">
-        <v>2.74</v>
+        <v>2.7355</v>
       </c>
       <c r="D91" s="3">
-        <v>3.43</v>
+        <v>3.4340999999999999</v>
       </c>
       <c r="E91" s="3">
-        <v>3.56</v>
+        <v>3.5606</v>
       </c>
       <c r="F91" s="3">
-        <v>3.82</v>
+        <v>3.8241000000000001</v>
       </c>
       <c r="G91" s="14">
         <f t="shared" si="6"/>
-        <v>1.0274000000000001</v>
+        <v>1.027355</v>
       </c>
       <c r="H91" s="14">
         <f t="shared" si="7"/>
-        <v>1.0343</v>
+        <v>1.034341</v>
       </c>
       <c r="I91" s="14">
         <f t="shared" si="8"/>
-        <v>1.0356000000000001</v>
+        <v>1.035606</v>
       </c>
       <c r="J91" s="14">
         <f t="shared" si="9"/>
-        <v>1.0382</v>
+        <v>1.038241</v>
       </c>
       <c r="K91" s="14">
         <f t="shared" si="10"/>
-        <v>3.3867273270793641</v>
+        <v>3.3877902277604344</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -12968,36 +13431,36 @@
         <v>37802</v>
       </c>
       <c r="C92" s="3">
-        <v>3.36</v>
+        <v>3.3643999999999998</v>
       </c>
       <c r="D92" s="3">
-        <v>3.36</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="E92" s="3">
-        <v>4.0199999999999996</v>
+        <v>4.0152000000000001</v>
       </c>
       <c r="F92" s="3">
-        <v>3.41</v>
+        <v>3.4068000000000001</v>
       </c>
       <c r="G92" s="14">
         <f t="shared" si="6"/>
-        <v>1.0336000000000001</v>
+        <v>1.033644</v>
       </c>
       <c r="H92" s="14">
         <f t="shared" si="7"/>
-        <v>1.0336000000000001</v>
+        <v>1.03356</v>
       </c>
       <c r="I92" s="14">
         <f t="shared" si="8"/>
-        <v>1.0402</v>
+        <v>1.040152</v>
       </c>
       <c r="J92" s="14">
         <f t="shared" si="9"/>
-        <v>1.0341</v>
+        <v>1.034068</v>
       </c>
       <c r="K92" s="14">
         <f t="shared" si="10"/>
-        <v>3.5371240019959949</v>
+        <v>3.5352286950393941</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -13008,36 +13471,36 @@
         <v>37894</v>
       </c>
       <c r="C93" s="3">
-        <v>3.86</v>
+        <v>3.8635000000000002</v>
       </c>
       <c r="D93" s="3">
-        <v>3.85</v>
+        <v>3.8494999999999999</v>
       </c>
       <c r="E93" s="3">
-        <v>3.85</v>
+        <v>3.8483000000000001</v>
       </c>
       <c r="F93" s="3">
-        <v>3.6</v>
+        <v>3.5981000000000001</v>
       </c>
       <c r="G93" s="14">
         <f t="shared" si="6"/>
-        <v>1.0386</v>
+        <v>1.038635</v>
       </c>
       <c r="H93" s="14">
         <f t="shared" si="7"/>
-        <v>1.0385</v>
+        <v>1.0384949999999999</v>
       </c>
       <c r="I93" s="14">
         <f t="shared" si="8"/>
-        <v>1.0385</v>
+        <v>1.038483</v>
       </c>
       <c r="J93" s="14">
         <f t="shared" si="9"/>
-        <v>1.036</v>
+        <v>1.035981</v>
       </c>
       <c r="K93" s="14">
         <f t="shared" si="10"/>
-        <v>3.7899419029671533</v>
+        <v>3.7897907371784667</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -13048,36 +13511,36 @@
         <v>37986</v>
       </c>
       <c r="C94" s="3">
-        <v>3.95</v>
+        <v>3.9491000000000001</v>
       </c>
       <c r="D94" s="3">
-        <v>3.87</v>
+        <v>3.8748999999999998</v>
       </c>
       <c r="E94" s="3">
-        <v>3.67</v>
+        <v>3.6745999999999999</v>
       </c>
       <c r="F94" s="3">
-        <v>3.78</v>
+        <v>3.7845</v>
       </c>
       <c r="G94" s="14">
         <f t="shared" si="6"/>
-        <v>1.0395000000000001</v>
+        <v>1.0394909999999999</v>
       </c>
       <c r="H94" s="14">
         <f t="shared" si="7"/>
-        <v>1.0387</v>
+        <v>1.0387489999999999</v>
       </c>
       <c r="I94" s="14">
         <f t="shared" si="8"/>
-        <v>1.0367</v>
+        <v>1.0367459999999999</v>
       </c>
       <c r="J94" s="14">
         <f t="shared" si="9"/>
-        <v>1.0378000000000001</v>
+        <v>1.0378449999999999</v>
       </c>
       <c r="K94" s="14">
         <f t="shared" si="10"/>
-        <v>3.8174476483921582</v>
+        <v>3.8207243289920978</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -13088,36 +13551,36 @@
         <v>38077</v>
       </c>
       <c r="C95" s="3">
-        <v>4.28</v>
+        <v>4.2759</v>
       </c>
       <c r="D95" s="3">
-        <v>3.94</v>
+        <v>3.9392999999999998</v>
       </c>
       <c r="E95" s="3">
-        <v>4.08</v>
+        <v>4.0818000000000003</v>
       </c>
       <c r="F95" s="3">
-        <v>3.65</v>
+        <v>3.6492</v>
       </c>
       <c r="G95" s="14">
         <f t="shared" si="6"/>
-        <v>1.0427999999999999</v>
+        <v>1.042759</v>
       </c>
       <c r="H95" s="14">
         <f t="shared" si="7"/>
-        <v>1.0394000000000001</v>
+        <v>1.039393</v>
       </c>
       <c r="I95" s="14">
         <f t="shared" si="8"/>
-        <v>1.0407999999999999</v>
+        <v>1.040818</v>
       </c>
       <c r="J95" s="14">
         <f t="shared" si="9"/>
-        <v>1.0365</v>
+        <v>1.036492</v>
       </c>
       <c r="K95" s="14">
         <f t="shared" si="10"/>
-        <v>3.9872471362852879</v>
+        <v>3.9862988615042783</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -13128,36 +13591,36 @@
         <v>38168</v>
       </c>
       <c r="C96" s="3">
-        <v>4.13</v>
+        <v>4.1281999999999996</v>
       </c>
       <c r="D96" s="3">
-        <v>4.01</v>
+        <v>4.0129000000000001</v>
       </c>
       <c r="E96" s="3">
-        <v>3.8</v>
+        <v>3.8010999999999999</v>
       </c>
       <c r="F96" s="3">
-        <v>3.95</v>
+        <v>3.9548000000000001</v>
       </c>
       <c r="G96" s="14">
         <f t="shared" si="6"/>
-        <v>1.0412999999999999</v>
+        <v>1.041282</v>
       </c>
       <c r="H96" s="14">
         <f t="shared" si="7"/>
-        <v>1.0401</v>
+        <v>1.0401290000000001</v>
       </c>
       <c r="I96" s="14">
         <f t="shared" si="8"/>
-        <v>1.038</v>
+        <v>1.038011</v>
       </c>
       <c r="J96" s="14">
         <f t="shared" si="9"/>
-        <v>1.0395000000000001</v>
+        <v>1.0395479999999999</v>
       </c>
       <c r="K96" s="14">
         <f t="shared" si="10"/>
-        <v>3.9724320942474689</v>
+        <v>3.9741832006878974</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -13168,36 +13631,36 @@
         <v>38260</v>
       </c>
       <c r="C97" s="3">
-        <v>4.0199999999999996</v>
+        <v>4.0151000000000003</v>
       </c>
       <c r="D97" s="3">
-        <v>3.76</v>
+        <v>3.7637</v>
       </c>
       <c r="E97" s="3">
-        <v>3.69</v>
+        <v>3.6937000000000002</v>
       </c>
       <c r="F97" s="3">
-        <v>3.34</v>
+        <v>3.343</v>
       </c>
       <c r="G97" s="14">
         <f t="shared" si="6"/>
-        <v>1.0402</v>
+        <v>1.040151</v>
       </c>
       <c r="H97" s="14">
         <f t="shared" si="7"/>
-        <v>1.0376000000000001</v>
+        <v>1.0376369999999999</v>
       </c>
       <c r="I97" s="14">
         <f t="shared" si="8"/>
-        <v>1.0368999999999999</v>
+        <v>1.036937</v>
       </c>
       <c r="J97" s="14">
         <f t="shared" si="9"/>
-        <v>1.0334000000000001</v>
+        <v>1.0334300000000001</v>
       </c>
       <c r="K97" s="14">
         <f t="shared" si="10"/>
-        <v>3.7022158033604091</v>
+        <v>3.7035967049445784</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -13208,36 +13671,36 @@
         <v>38352</v>
       </c>
       <c r="C98" s="3">
-        <v>3.37</v>
+        <v>3.3668</v>
       </c>
       <c r="D98" s="3">
-        <v>3.43</v>
+        <v>3.4333999999999998</v>
       </c>
       <c r="E98" s="3">
-        <v>3.43</v>
+        <v>3.4296000000000002</v>
       </c>
       <c r="F98" s="3">
-        <v>3.37</v>
+        <v>3.3673999999999999</v>
       </c>
       <c r="G98" s="14">
         <f t="shared" si="6"/>
-        <v>1.0337000000000001</v>
+        <v>1.033668</v>
       </c>
       <c r="H98" s="14">
         <f t="shared" si="7"/>
-        <v>1.0343</v>
+        <v>1.0343340000000001</v>
       </c>
       <c r="I98" s="14">
         <f t="shared" si="8"/>
-        <v>1.0343</v>
+        <v>1.0342960000000001</v>
       </c>
       <c r="J98" s="14">
         <f t="shared" si="9"/>
-        <v>1.0337000000000001</v>
+        <v>1.033674</v>
       </c>
       <c r="K98" s="14">
         <f t="shared" si="10"/>
-        <v>3.3999956479689786</v>
+        <v>3.3992949772922554</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -13248,36 +13711,36 @@
         <v>38442</v>
       </c>
       <c r="C99" s="3">
-        <v>3.66</v>
+        <v>3.6646999999999998</v>
       </c>
       <c r="D99" s="3">
-        <v>3.32</v>
+        <v>3.3151999999999999</v>
       </c>
       <c r="E99" s="3">
-        <v>3.39</v>
+        <v>3.3898000000000001</v>
       </c>
       <c r="F99" s="3">
-        <v>3.57</v>
+        <v>3.5733000000000001</v>
       </c>
       <c r="G99" s="14">
         <f t="shared" si="6"/>
-        <v>1.0366</v>
+        <v>1.0366470000000001</v>
       </c>
       <c r="H99" s="14">
         <f t="shared" si="7"/>
-        <v>1.0331999999999999</v>
+        <v>1.0331520000000001</v>
       </c>
       <c r="I99" s="14">
         <f t="shared" si="8"/>
-        <v>1.0339</v>
+        <v>1.033898</v>
       </c>
       <c r="J99" s="14">
         <f t="shared" si="9"/>
-        <v>1.0357000000000001</v>
+        <v>1.035733</v>
       </c>
       <c r="K99" s="14">
         <f t="shared" si="10"/>
-        <v>3.4849104990666735</v>
+        <v>3.4856558103680158</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -13288,36 +13751,36 @@
         <v>38533</v>
       </c>
       <c r="C100" s="3">
-        <v>3.5</v>
+        <v>3.5007000000000001</v>
       </c>
       <c r="D100" s="3">
-        <v>3.43</v>
+        <v>3.4337</v>
       </c>
       <c r="E100" s="3">
-        <v>3.23</v>
+        <v>3.2330000000000001</v>
       </c>
       <c r="F100" s="3">
-        <v>3.38</v>
+        <v>3.3791000000000002</v>
       </c>
       <c r="G100" s="14">
         <f t="shared" si="6"/>
-        <v>1.0349999999999999</v>
+        <v>1.035007</v>
       </c>
       <c r="H100" s="14">
         <f t="shared" si="7"/>
-        <v>1.0343</v>
+        <v>1.0343370000000001</v>
       </c>
       <c r="I100" s="14">
         <f t="shared" si="8"/>
-        <v>1.0323</v>
+        <v>1.03233</v>
       </c>
       <c r="J100" s="14">
         <f t="shared" si="9"/>
-        <v>1.0338000000000001</v>
+        <v>1.0337909999999999</v>
       </c>
       <c r="K100" s="14">
         <f t="shared" si="10"/>
-        <v>3.3849524669374631</v>
+        <v>3.3865779682999753</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -13331,13 +13794,13 @@
         <v>3.6</v>
       </c>
       <c r="D101" s="3">
-        <v>3.26</v>
+        <v>3.2585000000000002</v>
       </c>
       <c r="E101" s="3">
-        <v>3.36</v>
+        <v>3.3552</v>
       </c>
       <c r="F101" s="3">
-        <v>3.25</v>
+        <v>3.2524999999999999</v>
       </c>
       <c r="G101" s="14">
         <f t="shared" si="6"/>
@@ -13345,19 +13808,19 @@
       </c>
       <c r="H101" s="14">
         <f t="shared" si="7"/>
-        <v>1.0326</v>
+        <v>1.0325850000000001</v>
       </c>
       <c r="I101" s="14">
         <f t="shared" si="8"/>
-        <v>1.0336000000000001</v>
+        <v>1.033552</v>
       </c>
       <c r="J101" s="14">
         <f t="shared" si="9"/>
-        <v>1.0325</v>
+        <v>1.0325249999999999</v>
       </c>
       <c r="K101" s="14">
         <f t="shared" si="10"/>
-        <v>3.3674039682024315</v>
+        <v>3.3664541690669569</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -13368,36 +13831,36 @@
         <v>38717</v>
       </c>
       <c r="C102" s="3">
-        <v>3.72</v>
+        <v>3.7238000000000002</v>
       </c>
       <c r="D102" s="3">
-        <v>3.27</v>
+        <v>3.2711000000000001</v>
       </c>
       <c r="E102" s="3">
-        <v>3.2</v>
+        <v>3.2042999999999999</v>
       </c>
       <c r="F102" s="3">
-        <v>3.2</v>
+        <v>3.1987999999999999</v>
       </c>
       <c r="G102" s="14">
         <f t="shared" si="6"/>
-        <v>1.0371999999999999</v>
+        <v>1.0372380000000001</v>
       </c>
       <c r="H102" s="14">
         <f t="shared" si="7"/>
-        <v>1.0327</v>
+        <v>1.0327109999999999</v>
       </c>
       <c r="I102" s="14">
         <f t="shared" si="8"/>
-        <v>1.032</v>
+        <v>1.032043</v>
       </c>
       <c r="J102" s="14">
         <f t="shared" si="9"/>
-        <v>1.032</v>
+        <v>1.0319879999999999</v>
       </c>
       <c r="K102" s="14">
         <f t="shared" si="10"/>
-        <v>3.3472726278753751</v>
+        <v>3.349270502037327</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -13408,36 +13871,36 @@
         <v>38807</v>
       </c>
       <c r="C103" s="3">
-        <v>3.35</v>
+        <v>3.3525</v>
       </c>
       <c r="D103" s="3">
-        <v>3</v>
+        <v>3.0011999999999999</v>
       </c>
       <c r="E103" s="3">
-        <v>3.24</v>
+        <v>3.2423999999999999</v>
       </c>
       <c r="F103" s="3">
-        <v>3.28</v>
+        <v>3.2827000000000002</v>
       </c>
       <c r="G103" s="14">
         <f t="shared" si="6"/>
-        <v>1.0335000000000001</v>
+        <v>1.033525</v>
       </c>
       <c r="H103" s="14">
         <f t="shared" si="7"/>
-        <v>1.03</v>
+        <v>1.0300119999999999</v>
       </c>
       <c r="I103" s="14">
         <f t="shared" si="8"/>
-        <v>1.0324</v>
+        <v>1.032424</v>
       </c>
       <c r="J103" s="14">
         <f t="shared" si="9"/>
-        <v>1.0327999999999999</v>
+        <v>1.0328269999999999</v>
       </c>
       <c r="K103" s="14">
         <f t="shared" si="10"/>
-        <v>3.2174160451558631</v>
+        <v>3.2196153346793599</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -13448,20 +13911,20 @@
         <v>38898</v>
       </c>
       <c r="C104" s="3">
-        <v>3.1</v>
+        <v>3.0996000000000001</v>
       </c>
       <c r="D104" s="3">
         <v>3</v>
       </c>
       <c r="E104" s="3">
-        <v>2.89</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="F104" s="3">
-        <v>3.02</v>
+        <v>3.0236000000000001</v>
       </c>
       <c r="G104" s="14">
         <f t="shared" si="6"/>
-        <v>1.0309999999999999</v>
+        <v>1.030996</v>
       </c>
       <c r="H104" s="14">
         <f t="shared" si="7"/>
@@ -13469,15 +13932,15 @@
       </c>
       <c r="I104" s="14">
         <f t="shared" si="8"/>
-        <v>1.0288999999999999</v>
+        <v>1.028875</v>
       </c>
       <c r="J104" s="14">
         <f t="shared" si="9"/>
-        <v>1.0302</v>
+        <v>1.0302359999999999</v>
       </c>
       <c r="K104" s="14">
         <f t="shared" si="10"/>
-        <v>3.002472721304339</v>
+        <v>3.0026469561982072</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -13488,36 +13951,36 @@
         <v>38990</v>
       </c>
       <c r="C105" s="3">
-        <v>2.87</v>
+        <v>2.8725000000000001</v>
       </c>
       <c r="D105" s="3">
-        <v>2.87</v>
+        <v>2.8698000000000001</v>
       </c>
       <c r="E105" s="3">
-        <v>2.73</v>
+        <v>2.7286999999999999</v>
       </c>
       <c r="F105" s="3">
-        <v>2.97</v>
+        <v>2.9704000000000002</v>
       </c>
       <c r="G105" s="14">
         <f t="shared" si="6"/>
-        <v>1.0286999999999999</v>
+        <v>1.0287250000000001</v>
       </c>
       <c r="H105" s="14">
         <f t="shared" si="7"/>
-        <v>1.0286999999999999</v>
+        <v>1.0286979999999999</v>
       </c>
       <c r="I105" s="14">
         <f t="shared" si="8"/>
-        <v>1.0273000000000001</v>
+        <v>1.0272870000000001</v>
       </c>
       <c r="J105" s="14">
         <f t="shared" si="9"/>
-        <v>1.0297000000000001</v>
+        <v>1.029704</v>
       </c>
       <c r="K105" s="14">
         <f t="shared" si="10"/>
-        <v>2.8599645080507052</v>
+        <v>2.8603139246330622</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -13528,36 +13991,36 @@
         <v>39082</v>
       </c>
       <c r="C106" s="3">
-        <v>2.72</v>
+        <v>2.7162999999999999</v>
       </c>
       <c r="D106" s="3">
-        <v>2.86</v>
+        <v>2.8555999999999999</v>
       </c>
       <c r="E106" s="3">
-        <v>2.94</v>
+        <v>2.9447999999999999</v>
       </c>
       <c r="F106" s="3">
-        <v>2.9</v>
+        <v>2.8995000000000002</v>
       </c>
       <c r="G106" s="14">
         <f t="shared" si="6"/>
-        <v>1.0272000000000001</v>
+        <v>1.027163</v>
       </c>
       <c r="H106" s="14">
         <f t="shared" si="7"/>
-        <v>1.0286</v>
+        <v>1.028556</v>
       </c>
       <c r="I106" s="14">
         <f t="shared" si="8"/>
-        <v>1.0294000000000001</v>
+        <v>1.0294479999999999</v>
       </c>
       <c r="J106" s="14">
         <f t="shared" si="9"/>
-        <v>1.0289999999999999</v>
+        <v>1.0289950000000001</v>
       </c>
       <c r="K106" s="14">
         <f t="shared" si="10"/>
-        <v>2.8549665653235801</v>
+        <v>2.8540144031585779</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -13568,36 +14031,36 @@
         <v>39172</v>
       </c>
       <c r="C107" s="3">
-        <v>2.73</v>
+        <v>2.7338</v>
       </c>
       <c r="D107" s="3">
-        <v>3</v>
+        <v>3.0002</v>
       </c>
       <c r="E107" s="3">
-        <v>3.18</v>
+        <v>3.1772</v>
       </c>
       <c r="F107" s="3">
-        <v>3.06</v>
+        <v>3.0621</v>
       </c>
       <c r="G107" s="14">
         <f t="shared" si="6"/>
-        <v>1.0273000000000001</v>
+        <v>1.0273380000000001</v>
       </c>
       <c r="H107" s="14">
         <f t="shared" si="7"/>
-        <v>1.03</v>
+        <v>1.0300020000000001</v>
       </c>
       <c r="I107" s="14">
         <f t="shared" si="8"/>
-        <v>1.0318000000000001</v>
+        <v>1.0317719999999999</v>
       </c>
       <c r="J107" s="14">
         <f t="shared" si="9"/>
-        <v>1.0306</v>
+        <v>1.030621</v>
       </c>
       <c r="K107" s="14">
         <f t="shared" si="10"/>
-        <v>2.9923680151054066</v>
+        <v>2.9931963369201231</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -13611,13 +14074,13 @@
         <v>2.6</v>
       </c>
       <c r="D108" s="3">
-        <v>2.86</v>
+        <v>2.8639000000000001</v>
       </c>
       <c r="E108" s="3">
-        <v>2.91</v>
+        <v>2.9131999999999998</v>
       </c>
       <c r="F108" s="3">
-        <v>3</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="G108" s="14">
         <f t="shared" si="6"/>
@@ -13625,19 +14088,19 @@
       </c>
       <c r="H108" s="14">
         <f t="shared" si="7"/>
-        <v>1.0286</v>
+        <v>1.0286390000000001</v>
       </c>
       <c r="I108" s="14">
         <f t="shared" si="8"/>
-        <v>1.0290999999999999</v>
+        <v>1.0291319999999999</v>
       </c>
       <c r="J108" s="14">
         <f t="shared" si="9"/>
-        <v>1.03</v>
+        <v>1.0300100000000001</v>
       </c>
       <c r="K108" s="14">
         <f t="shared" si="10"/>
-        <v>2.8423923836997211</v>
+        <v>2.8444162964823327</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -13648,36 +14111,36 @@
         <v>39355</v>
       </c>
       <c r="C109" s="3">
-        <v>2.66</v>
+        <v>2.6634000000000002</v>
       </c>
       <c r="D109" s="3">
-        <v>2.68</v>
+        <v>2.6793</v>
       </c>
       <c r="E109" s="3">
-        <v>2.92</v>
+        <v>2.9205000000000001</v>
       </c>
       <c r="F109" s="3">
-        <v>2.67</v>
+        <v>2.6678999999999999</v>
       </c>
       <c r="G109" s="14">
         <f t="shared" si="6"/>
-        <v>1.0266</v>
+        <v>1.026634</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="7"/>
-        <v>1.0267999999999999</v>
+        <v>1.0267930000000001</v>
       </c>
       <c r="I109" s="14">
         <f t="shared" si="8"/>
-        <v>1.0291999999999999</v>
+        <v>1.0292049999999999</v>
       </c>
       <c r="J109" s="14">
         <f t="shared" si="9"/>
-        <v>1.0266999999999999</v>
+        <v>1.0266789999999999</v>
       </c>
       <c r="K109" s="14">
         <f t="shared" si="10"/>
-        <v>2.7324427672990481</v>
+        <v>2.732717710644339</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -13688,36 +14151,36 @@
         <v>39447</v>
       </c>
       <c r="C110" s="3">
-        <v>2.19</v>
+        <v>2.1850000000000001</v>
       </c>
       <c r="D110" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.3022999999999998</v>
       </c>
       <c r="E110" s="3">
-        <v>2.69</v>
+        <v>2.6892</v>
       </c>
       <c r="F110" s="3">
-        <v>2.79</v>
+        <v>2.7881</v>
       </c>
       <c r="G110" s="14">
         <f t="shared" si="6"/>
-        <v>1.0219</v>
+        <v>1.0218499999999999</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="7"/>
-        <v>1.0229999999999999</v>
+        <v>1.023023</v>
       </c>
       <c r="I110" s="14">
         <f t="shared" si="8"/>
-        <v>1.0268999999999999</v>
+        <v>1.0268919999999999</v>
       </c>
       <c r="J110" s="14">
         <f t="shared" si="9"/>
-        <v>1.0279</v>
+        <v>1.027881</v>
       </c>
       <c r="K110" s="14">
         <f t="shared" si="10"/>
-        <v>2.4921876837449286</v>
+        <v>2.4908367956572253</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -13728,36 +14191,36 @@
         <v>39538</v>
       </c>
       <c r="C111" s="3">
-        <v>1.33</v>
+        <v>1.3254999999999999</v>
       </c>
       <c r="D111" s="3">
-        <v>2.76</v>
+        <v>2.7591999999999999</v>
       </c>
       <c r="E111" s="3">
-        <v>2.82</v>
+        <v>2.8193000000000001</v>
       </c>
       <c r="F111" s="3">
-        <v>3.12</v>
+        <v>3.1227</v>
       </c>
       <c r="G111" s="14">
         <f t="shared" si="6"/>
-        <v>1.0133000000000001</v>
+        <v>1.013255</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="7"/>
-        <v>1.0276000000000001</v>
+        <v>1.0275920000000001</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="8"/>
-        <v>1.0282</v>
+        <v>1.0281929999999999</v>
       </c>
       <c r="J111" s="14">
         <f t="shared" si="9"/>
-        <v>1.0311999999999999</v>
+        <v>1.0312269999999999</v>
       </c>
       <c r="K111" s="14">
         <f t="shared" si="10"/>
-        <v>2.5051441081405335</v>
+        <v>2.5043030365188512</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -13768,36 +14231,36 @@
         <v>39629</v>
       </c>
       <c r="C112" s="3">
-        <v>1.7</v>
+        <v>1.6996</v>
       </c>
       <c r="D112" s="3">
-        <v>1.84</v>
+        <v>1.837</v>
       </c>
       <c r="E112" s="3">
-        <v>2.27</v>
+        <v>2.2713000000000001</v>
       </c>
       <c r="F112" s="3">
-        <v>2.52</v>
+        <v>2.5219999999999998</v>
       </c>
       <c r="G112" s="14">
         <f t="shared" si="6"/>
-        <v>1.0169999999999999</v>
+        <v>1.016996</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="7"/>
-        <v>1.0184</v>
+        <v>1.01837</v>
       </c>
       <c r="I112" s="14">
         <f t="shared" si="8"/>
-        <v>1.0226999999999999</v>
+        <v>1.022713</v>
       </c>
       <c r="J112" s="14">
         <f t="shared" si="9"/>
-        <v>1.0251999999999999</v>
+        <v>1.02522</v>
       </c>
       <c r="K112" s="14">
         <f t="shared" si="10"/>
-        <v>2.0819715725480581</v>
+        <v>2.0819416629435539</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -13808,36 +14271,36 @@
         <v>39721</v>
       </c>
       <c r="C113" s="3">
-        <v>0.71</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="D113" s="3">
-        <v>1.57</v>
+        <v>1.5745</v>
       </c>
       <c r="E113" s="3">
-        <v>2.11</v>
+        <v>2.1112000000000002</v>
       </c>
       <c r="F113" s="3">
-        <v>2.54</v>
+        <v>2.5373000000000001</v>
       </c>
       <c r="G113" s="14">
         <f t="shared" si="6"/>
-        <v>1.0071000000000001</v>
+        <v>1.0071099999999999</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="7"/>
-        <v>1.0157</v>
+        <v>1.0157449999999999</v>
       </c>
       <c r="I113" s="14">
         <f t="shared" si="8"/>
-        <v>1.0210999999999999</v>
+        <v>1.021112</v>
       </c>
       <c r="J113" s="14">
         <f t="shared" si="9"/>
-        <v>1.0254000000000001</v>
+        <v>1.0253730000000001</v>
       </c>
       <c r="K113" s="14">
         <f t="shared" si="10"/>
-        <v>1.7302026034275331</v>
+        <v>1.7312110934702085</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -13848,36 +14311,36 @@
         <v>39813</v>
       </c>
       <c r="C114" s="3">
-        <v>-1.1000000000000001</v>
+        <v>-1.0968</v>
       </c>
       <c r="D114" s="3">
-        <v>0.84</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="E114" s="3">
-        <v>0.86</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="F114" s="3">
-        <v>2.27</v>
+        <v>2.2734000000000001</v>
       </c>
       <c r="G114" s="14">
         <f t="shared" si="6"/>
-        <v>0.98899999999999999</v>
+        <v>0.98903200000000002</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="7"/>
-        <v>1.0084</v>
+        <v>1.00837</v>
       </c>
       <c r="I114" s="14">
         <f t="shared" si="8"/>
-        <v>1.0085999999999999</v>
+        <v>1.0086269999999999</v>
       </c>
       <c r="J114" s="14">
         <f t="shared" si="9"/>
-        <v>1.0226999999999999</v>
+        <v>1.022734</v>
       </c>
       <c r="K114" s="14">
         <f t="shared" si="10"/>
-        <v>0.71034578270543491</v>
+        <v>0.71192239158752724</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -13888,36 +14351,36 @@
         <v>39903</v>
       </c>
       <c r="C115" s="3">
-        <v>-1.75</v>
+        <v>-1.7504</v>
       </c>
       <c r="D115" s="3">
-        <v>0.97</v>
+        <v>0.97340000000000004</v>
       </c>
       <c r="E115" s="3">
-        <v>1.77</v>
+        <v>1.7733000000000001</v>
       </c>
       <c r="F115" s="3">
-        <v>2.44</v>
+        <v>2.4392999999999998</v>
       </c>
       <c r="G115" s="14">
         <f t="shared" si="6"/>
-        <v>0.98250000000000004</v>
+        <v>0.98249600000000004</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="7"/>
-        <v>1.0097</v>
+        <v>1.0097339999999999</v>
       </c>
       <c r="I115" s="14">
         <f t="shared" si="8"/>
-        <v>1.0177</v>
+        <v>1.017733</v>
       </c>
       <c r="J115" s="14">
         <f t="shared" si="9"/>
-        <v>1.0244</v>
+        <v>1.0243929999999999</v>
       </c>
       <c r="K115" s="14">
         <f t="shared" si="10"/>
-        <v>0.84481298171730224</v>
+        <v>0.84620449311798573</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -13928,36 +14391,36 @@
         <v>39994</v>
       </c>
       <c r="C116" s="3">
-        <v>0.45</v>
+        <v>0.44919999999999999</v>
       </c>
       <c r="D116" s="3">
-        <v>1.73</v>
+        <v>1.7263999999999999</v>
       </c>
       <c r="E116" s="3">
-        <v>2.2200000000000002</v>
+        <v>2.2248999999999999</v>
       </c>
       <c r="F116" s="3">
-        <v>2.92</v>
+        <v>2.9228000000000001</v>
       </c>
       <c r="G116" s="14">
         <f t="shared" si="6"/>
-        <v>1.0044999999999999</v>
+        <v>1.0044919999999999</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="7"/>
-        <v>1.0173000000000001</v>
+        <v>1.0172639999999999</v>
       </c>
       <c r="I116" s="14">
         <f t="shared" si="8"/>
-        <v>1.0222</v>
+        <v>1.022249</v>
       </c>
       <c r="J116" s="14">
         <f t="shared" si="9"/>
-        <v>1.0291999999999999</v>
+        <v>1.029228</v>
       </c>
       <c r="K116" s="14">
         <f t="shared" si="10"/>
-        <v>1.8259943942635859</v>
+        <v>1.8268035906320312</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -13968,36 +14431,36 @@
         <v>40086</v>
       </c>
       <c r="C117" s="3">
-        <v>2.17</v>
+        <v>2.1738</v>
       </c>
       <c r="D117" s="3">
-        <v>2.52</v>
+        <v>2.5249000000000001</v>
       </c>
       <c r="E117" s="3">
-        <v>2.81</v>
+        <v>2.8117000000000001</v>
       </c>
       <c r="F117" s="3">
-        <v>2.58</v>
+        <v>2.5785</v>
       </c>
       <c r="G117" s="14">
         <f t="shared" si="6"/>
-        <v>1.0217000000000001</v>
+        <v>1.021738</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="7"/>
-        <v>1.0251999999999999</v>
+        <v>1.0252490000000001</v>
       </c>
       <c r="I117" s="14">
         <f t="shared" si="8"/>
-        <v>1.0281</v>
+        <v>1.0281169999999999</v>
       </c>
       <c r="J117" s="14">
         <f t="shared" si="9"/>
-        <v>1.0258</v>
+        <v>1.0257849999999999</v>
       </c>
       <c r="K117" s="14">
         <f t="shared" si="10"/>
-        <v>2.5197435627253073</v>
+        <v>2.521970803010376</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -14008,36 +14471,36 @@
         <v>40178</v>
       </c>
       <c r="C118" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2989000000000002</v>
       </c>
       <c r="D118" s="3">
-        <v>2.44</v>
+        <v>2.4428999999999998</v>
       </c>
       <c r="E118" s="3">
-        <v>2.56</v>
+        <v>2.5587</v>
       </c>
       <c r="F118" s="3">
-        <v>2.93</v>
+        <v>2.9331999999999998</v>
       </c>
       <c r="G118" s="14">
         <f t="shared" si="6"/>
-        <v>1.0229999999999999</v>
+        <v>1.0229889999999999</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="7"/>
-        <v>1.0244</v>
+        <v>1.024429</v>
       </c>
       <c r="I118" s="14">
         <f t="shared" si="8"/>
-        <v>1.0256000000000001</v>
+        <v>1.025587</v>
       </c>
       <c r="J118" s="14">
         <f t="shared" si="9"/>
-        <v>1.0293000000000001</v>
+        <v>1.0293319999999999</v>
       </c>
       <c r="K118" s="14">
         <f t="shared" si="10"/>
-        <v>2.557233489269306</v>
+        <v>2.558155716943955</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -14048,36 +14511,36 @@
         <v>40268</v>
       </c>
       <c r="C119" s="3">
-        <v>2.72</v>
+        <v>2.7221000000000002</v>
       </c>
       <c r="D119" s="3">
-        <v>2.72</v>
+        <v>2.7210999999999999</v>
       </c>
       <c r="E119" s="3">
-        <v>2.72</v>
+        <v>2.7214999999999998</v>
       </c>
       <c r="F119" s="3">
-        <v>2.69</v>
+        <v>2.6901000000000002</v>
       </c>
       <c r="G119" s="14">
         <f t="shared" si="6"/>
-        <v>1.0272000000000001</v>
+        <v>1.0272209999999999</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="7"/>
-        <v>1.0272000000000001</v>
+        <v>1.0272110000000001</v>
       </c>
       <c r="I119" s="14">
         <f t="shared" si="8"/>
-        <v>1.0272000000000001</v>
+        <v>1.027215</v>
       </c>
       <c r="J119" s="14">
         <f t="shared" si="9"/>
-        <v>1.0268999999999999</v>
+        <v>1.0269010000000001</v>
       </c>
       <c r="K119" s="14">
         <f t="shared" si="10"/>
-        <v>2.7124991784523322</v>
+        <v>2.7136990955493712</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -14088,36 +14551,36 @@
         <v>40359</v>
       </c>
       <c r="C120" s="3">
-        <v>3.29</v>
+        <v>3.2900999999999998</v>
       </c>
       <c r="D120" s="3">
-        <v>2.83</v>
+        <v>2.8323</v>
       </c>
       <c r="E120" s="3">
-        <v>2.71</v>
+        <v>2.7050999999999998</v>
       </c>
       <c r="F120" s="3">
-        <v>3.25</v>
+        <v>3.2490000000000001</v>
       </c>
       <c r="G120" s="14">
         <f t="shared" si="6"/>
-        <v>1.0328999999999999</v>
+        <v>1.0329010000000001</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="7"/>
-        <v>1.0283</v>
+        <v>1.0283230000000001</v>
       </c>
       <c r="I120" s="14">
         <f t="shared" si="8"/>
-        <v>1.0270999999999999</v>
+        <v>1.0270509999999999</v>
       </c>
       <c r="J120" s="14">
         <f t="shared" si="9"/>
-        <v>1.0325</v>
+        <v>1.0324899999999999</v>
       </c>
       <c r="K120" s="14">
         <f t="shared" si="10"/>
-        <v>3.0196869157094408</v>
+        <v>3.0188097418183846</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -14128,36 +14591,36 @@
         <v>40451</v>
       </c>
       <c r="C121" s="3">
-        <v>2.83</v>
+        <v>2.8302999999999998</v>
       </c>
       <c r="D121" s="3">
-        <v>2.2599999999999998</v>
+        <v>2.2635000000000001</v>
       </c>
       <c r="E121" s="3">
-        <v>3.11</v>
+        <v>3.1055999999999999</v>
       </c>
       <c r="F121" s="3">
-        <v>2.97</v>
+        <v>2.9729000000000001</v>
       </c>
       <c r="G121" s="14">
         <f t="shared" si="6"/>
-        <v>1.0283</v>
+        <v>1.028303</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="7"/>
-        <v>1.0226</v>
+        <v>1.022635</v>
       </c>
       <c r="I121" s="14">
         <f t="shared" si="8"/>
-        <v>1.0310999999999999</v>
+        <v>1.031056</v>
       </c>
       <c r="J121" s="14">
         <f t="shared" si="9"/>
-        <v>1.0297000000000001</v>
+        <v>1.0297289999999999</v>
       </c>
       <c r="K121" s="14">
         <f t="shared" si="10"/>
-        <v>2.7919916781333765</v>
+        <v>2.7925732946030957</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -14168,36 +14631,36 @@
         <v>40543</v>
       </c>
       <c r="C122" s="3">
-        <v>2.38</v>
+        <v>2.3763000000000001</v>
       </c>
       <c r="D122" s="3">
-        <v>2.7</v>
+        <v>2.6959</v>
       </c>
       <c r="E122" s="3">
-        <v>3.29</v>
+        <v>3.2858999999999998</v>
       </c>
       <c r="F122" s="3">
-        <v>2.89</v>
+        <v>2.8855</v>
       </c>
       <c r="G122" s="14">
         <f t="shared" si="6"/>
-        <v>1.0238</v>
+        <v>1.023763</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="7"/>
-        <v>1.0269999999999999</v>
+        <v>1.026959</v>
       </c>
       <c r="I122" s="14">
         <f t="shared" si="8"/>
-        <v>1.0328999999999999</v>
+        <v>1.032859</v>
       </c>
       <c r="J122" s="14">
         <f t="shared" si="9"/>
-        <v>1.0288999999999999</v>
+        <v>1.0288550000000001</v>
       </c>
       <c r="K122" s="14">
         <f t="shared" si="10"/>
-        <v>2.8144729016513992</v>
+        <v>2.8103733780463935</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -14208,36 +14671,36 @@
         <v>40633</v>
       </c>
       <c r="C123" s="3">
-        <v>3.51</v>
+        <v>3.5076999999999998</v>
       </c>
       <c r="D123" s="3">
-        <v>3.07</v>
+        <v>3.0659000000000001</v>
       </c>
       <c r="E123" s="3">
-        <v>3.36</v>
+        <v>3.359</v>
       </c>
       <c r="F123" s="3">
-        <v>3.08</v>
+        <v>3.0754000000000001</v>
       </c>
       <c r="G123" s="14">
         <f t="shared" si="6"/>
-        <v>1.0350999999999999</v>
+        <v>1.035077</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="7"/>
-        <v>1.0306999999999999</v>
+        <v>1.030659</v>
       </c>
       <c r="I123" s="14">
         <f t="shared" si="8"/>
-        <v>1.0336000000000001</v>
+        <v>1.03359</v>
       </c>
       <c r="J123" s="14">
         <f t="shared" si="9"/>
-        <v>1.0307999999999999</v>
+        <v>1.0307539999999999</v>
       </c>
       <c r="K123" s="14">
         <f t="shared" si="10"/>
-        <v>3.2548294741932882</v>
+        <v>3.2518273474473336</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -14248,36 +14711,36 @@
         <v>40724</v>
       </c>
       <c r="C124" s="3">
-        <v>3.44</v>
+        <v>3.4430999999999998</v>
       </c>
       <c r="D124" s="3">
-        <v>3.46</v>
+        <v>3.4622999999999999</v>
       </c>
       <c r="E124" s="3">
-        <v>2.89</v>
+        <v>2.8873000000000002</v>
       </c>
       <c r="F124" s="3">
-        <v>2.48</v>
+        <v>2.4794999999999998</v>
       </c>
       <c r="G124" s="14">
         <f t="shared" si="6"/>
-        <v>1.0344</v>
+        <v>1.0344310000000001</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="7"/>
-        <v>1.0346</v>
+        <v>1.0346230000000001</v>
       </c>
       <c r="I124" s="14">
         <f t="shared" si="8"/>
-        <v>1.0288999999999999</v>
+        <v>1.0288729999999999</v>
       </c>
       <c r="J124" s="14">
         <f t="shared" si="9"/>
-        <v>1.0247999999999999</v>
+        <v>1.0247949999999999</v>
       </c>
       <c r="K124" s="14">
         <f t="shared" si="10"/>
-        <v>3.0666873015053664</v>
+        <v>3.0672304181944554</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -14288,36 +14751,36 @@
         <v>40816</v>
       </c>
       <c r="C125" s="3">
-        <v>2.57</v>
+        <v>2.5676999999999999</v>
       </c>
       <c r="D125" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1997</v>
       </c>
       <c r="E125" s="3">
-        <v>2.9</v>
+        <v>2.8992</v>
       </c>
       <c r="F125" s="3">
-        <v>3.15</v>
+        <v>3.1526999999999998</v>
       </c>
       <c r="G125" s="14">
         <f t="shared" si="6"/>
-        <v>1.0257000000000001</v>
+        <v>1.0256769999999999</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="7"/>
-        <v>1.022</v>
+        <v>1.021997</v>
       </c>
       <c r="I125" s="14">
         <f t="shared" si="8"/>
-        <v>1.0289999999999999</v>
+        <v>1.0289919999999999</v>
       </c>
       <c r="J125" s="14">
         <f t="shared" si="9"/>
-        <v>1.0315000000000001</v>
+        <v>1.0315270000000001</v>
       </c>
       <c r="K125" s="14">
         <f t="shared" si="10"/>
-        <v>2.7043798557728316</v>
+        <v>2.7042011804594868</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -14328,36 +14791,36 @@
         <v>40908</v>
       </c>
       <c r="C126" s="3">
-        <v>2.42</v>
+        <v>2.4182000000000001</v>
       </c>
       <c r="D126" s="3">
-        <v>2.38</v>
+        <v>2.3795999999999999</v>
       </c>
       <c r="E126" s="3">
-        <v>2.78</v>
+        <v>2.7789000000000001</v>
       </c>
       <c r="F126" s="3">
-        <v>2.74</v>
+        <v>2.7370999999999999</v>
       </c>
       <c r="G126" s="14">
         <f t="shared" si="6"/>
-        <v>1.0242</v>
+        <v>1.0241819999999999</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="7"/>
-        <v>1.0238</v>
+        <v>1.0237959999999999</v>
       </c>
       <c r="I126" s="14">
         <f t="shared" si="8"/>
-        <v>1.0278</v>
+        <v>1.0277890000000001</v>
       </c>
       <c r="J126" s="14">
         <f t="shared" si="9"/>
-        <v>1.0274000000000001</v>
+        <v>1.027371</v>
       </c>
       <c r="K126" s="14">
         <f t="shared" si="10"/>
-        <v>2.5798401246440728</v>
+        <v>2.5782908887650668</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -14368,36 +14831,36 @@
         <v>40999</v>
       </c>
       <c r="C127" s="3">
-        <v>2.27</v>
+        <v>2.2728000000000002</v>
       </c>
       <c r="D127" s="3">
-        <v>2.61</v>
+        <v>2.6055000000000001</v>
       </c>
       <c r="E127" s="3">
-        <v>3.01</v>
+        <v>3.0083000000000002</v>
       </c>
       <c r="F127" s="3">
-        <v>2.79</v>
+        <v>2.7885</v>
       </c>
       <c r="G127" s="14">
         <f t="shared" si="6"/>
-        <v>1.0226999999999999</v>
+        <v>1.0227280000000001</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="7"/>
-        <v>1.0261</v>
+        <v>1.0260549999999999</v>
       </c>
       <c r="I127" s="14">
         <f t="shared" si="8"/>
-        <v>1.0301</v>
+        <v>1.0300830000000001</v>
       </c>
       <c r="J127" s="14">
         <f t="shared" si="9"/>
-        <v>1.0279</v>
+        <v>1.0278849999999999</v>
       </c>
       <c r="K127" s="14">
         <f t="shared" si="10"/>
-        <v>2.6696423591486607</v>
+        <v>2.6684212507144256</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -14408,36 +14871,36 @@
         <v>41090</v>
       </c>
       <c r="C128" s="3">
-        <v>2.5099999999999998</v>
+        <v>2.5072999999999999</v>
       </c>
       <c r="D128" s="3">
-        <v>2.62</v>
+        <v>2.6158999999999999</v>
       </c>
       <c r="E128" s="3">
-        <v>2.59</v>
+        <v>2.5945</v>
       </c>
       <c r="F128" s="3">
-        <v>2.74</v>
+        <v>2.7361</v>
       </c>
       <c r="G128" s="14">
         <f t="shared" si="6"/>
-        <v>1.0250999999999999</v>
+        <v>1.0250729999999999</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="7"/>
-        <v>1.0262</v>
+        <v>1.026159</v>
       </c>
       <c r="I128" s="14">
         <f t="shared" si="8"/>
-        <v>1.0259</v>
+        <v>1.0259450000000001</v>
       </c>
       <c r="J128" s="14">
         <f t="shared" si="9"/>
-        <v>1.0274000000000001</v>
+        <v>1.027361</v>
       </c>
       <c r="K128" s="14">
         <f t="shared" si="10"/>
-        <v>2.6149667507851193</v>
+        <v>2.6134175093877277</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -14448,36 +14911,36 @@
         <v>41182</v>
       </c>
       <c r="C129" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1960000000000002</v>
       </c>
       <c r="D129" s="3">
-        <v>1.84</v>
+        <v>1.8402000000000001</v>
       </c>
       <c r="E129" s="3">
-        <v>2.33</v>
+        <v>2.3256999999999999</v>
       </c>
       <c r="F129" s="3">
-        <v>2.5299999999999998</v>
+        <v>2.5274999999999999</v>
       </c>
       <c r="G129" s="14">
         <f t="shared" si="6"/>
-        <v>1.022</v>
+        <v>1.02196</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="7"/>
-        <v>1.0184</v>
+        <v>1.018402</v>
       </c>
       <c r="I129" s="14">
         <f t="shared" si="8"/>
-        <v>1.0233000000000001</v>
+        <v>1.0232570000000001</v>
       </c>
       <c r="J129" s="14">
         <f t="shared" si="9"/>
-        <v>1.0253000000000001</v>
+        <v>1.0252749999999999</v>
       </c>
       <c r="K129" s="14">
         <f t="shared" si="10"/>
-        <v>2.2246905346389179</v>
+        <v>2.2220434338059869</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -14488,36 +14951,36 @@
         <v>41274</v>
       </c>
       <c r="C130" s="3">
-        <v>1.7</v>
+        <v>1.7004999999999999</v>
       </c>
       <c r="D130" s="3">
-        <v>2.04</v>
+        <v>2.0447000000000002</v>
       </c>
       <c r="E130" s="3">
-        <v>2.69</v>
+        <v>2.6916000000000002</v>
       </c>
       <c r="F130" s="3">
-        <v>2.81</v>
+        <v>2.8132999999999999</v>
       </c>
       <c r="G130" s="14">
         <f t="shared" si="6"/>
-        <v>1.0169999999999999</v>
+        <v>1.0170049999999999</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="7"/>
-        <v>1.0204</v>
+        <v>1.0204470000000001</v>
       </c>
       <c r="I130" s="14">
         <f t="shared" si="8"/>
-        <v>1.0268999999999999</v>
+        <v>1.0269159999999999</v>
       </c>
       <c r="J130" s="14">
         <f t="shared" si="9"/>
-        <v>1.0281</v>
+        <v>1.028133</v>
       </c>
       <c r="K130" s="14">
         <f t="shared" si="10"/>
-        <v>2.3089739005454302</v>
+        <v>2.3114972290247726</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -14528,28 +14991,28 @@
         <v>41364</v>
       </c>
       <c r="C131" s="3">
-        <v>2.34</v>
+        <v>2.3372999999999999</v>
       </c>
       <c r="D131" s="3">
-        <v>2.59</v>
+        <v>2.5935000000000001</v>
       </c>
       <c r="E131" s="3">
-        <v>2.46</v>
+        <v>2.4561999999999999</v>
       </c>
       <c r="F131" s="3">
         <v>2.73</v>
       </c>
       <c r="G131" s="14">
         <f t="shared" si="6"/>
-        <v>1.0234000000000001</v>
+        <v>1.0233730000000001</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="7"/>
-        <v>1.0259</v>
+        <v>1.025935</v>
       </c>
       <c r="I131" s="14">
         <f t="shared" si="8"/>
-        <v>1.0246</v>
+        <v>1.024562</v>
       </c>
       <c r="J131" s="14">
         <f t="shared" si="9"/>
@@ -14557,7 +15020,7 @@
       </c>
       <c r="K131" s="14">
         <f t="shared" si="10"/>
-        <v>2.5298968673753031</v>
+        <v>2.5291444154712517</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -14568,36 +15031,36 @@
         <v>41455</v>
       </c>
       <c r="C132" s="3">
-        <v>2.34</v>
+        <v>2.3431000000000002</v>
       </c>
       <c r="D132" s="3">
-        <v>2.7</v>
+        <v>2.7037</v>
       </c>
       <c r="E132" s="3">
-        <v>2.4500000000000002</v>
+        <v>2.4521000000000002</v>
       </c>
       <c r="F132" s="3">
-        <v>3.17</v>
+        <v>3.1747000000000001</v>
       </c>
       <c r="G132" s="14">
         <f t="shared" si="6"/>
-        <v>1.0234000000000001</v>
+        <v>1.023431</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="7"/>
-        <v>1.0269999999999999</v>
+        <v>1.027037</v>
       </c>
       <c r="I132" s="14">
         <f t="shared" si="8"/>
-        <v>1.0245</v>
+        <v>1.024521</v>
       </c>
       <c r="J132" s="14">
         <f t="shared" si="9"/>
-        <v>1.0317000000000001</v>
+        <v>1.031747</v>
       </c>
       <c r="K132" s="14">
         <f t="shared" si="10"/>
-        <v>2.664503782210792</v>
+        <v>2.6679012577968564</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -14608,36 +15071,36 @@
         <v>41547</v>
       </c>
       <c r="C133" s="3">
-        <v>2.33</v>
+        <v>2.3309000000000002</v>
       </c>
       <c r="D133" s="3">
-        <v>2.65</v>
+        <v>2.6541000000000001</v>
       </c>
       <c r="E133" s="3">
-        <v>2.89</v>
+        <v>2.8931</v>
       </c>
       <c r="F133" s="3">
-        <v>2.89</v>
+        <v>2.8929</v>
       </c>
       <c r="G133" s="14">
         <f t="shared" si="6"/>
-        <v>1.0233000000000001</v>
+        <v>1.023309</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="7"/>
-        <v>1.0265</v>
+        <v>1.0265409999999999</v>
       </c>
       <c r="I133" s="14">
         <f t="shared" si="8"/>
-        <v>1.0288999999999999</v>
+        <v>1.028931</v>
       </c>
       <c r="J133" s="14">
         <f t="shared" si="9"/>
-        <v>1.0288999999999999</v>
+        <v>1.028929</v>
       </c>
       <c r="K133" s="14">
         <f t="shared" si="10"/>
-        <v>2.6897426719732165</v>
+        <v>2.6924909337786351</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -14648,36 +15111,36 @@
         <v>41639</v>
       </c>
       <c r="C134" s="3">
-        <v>2.4700000000000002</v>
+        <v>2.4716999999999998</v>
       </c>
       <c r="D134" s="3">
-        <v>2.86</v>
+        <v>2.8559000000000001</v>
       </c>
       <c r="E134" s="3">
-        <v>2.93</v>
+        <v>2.9336000000000002</v>
       </c>
       <c r="F134" s="3">
-        <v>2.93</v>
+        <v>2.9258999999999999</v>
       </c>
       <c r="G134" s="14">
         <f t="shared" si="6"/>
-        <v>1.0246999999999999</v>
+        <v>1.0247170000000001</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="7"/>
-        <v>1.0286</v>
+        <v>1.028559</v>
       </c>
       <c r="I134" s="14">
         <f t="shared" si="8"/>
-        <v>1.0293000000000001</v>
+        <v>1.029336</v>
       </c>
       <c r="J134" s="14">
         <f t="shared" si="9"/>
-        <v>1.0293000000000001</v>
+        <v>1.0292589999999999</v>
       </c>
       <c r="K134" s="14">
         <f t="shared" si="10"/>
-        <v>2.7973218931677257</v>
+        <v>2.7965989789495715</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -14688,36 +15151,36 @@
         <v>41729</v>
       </c>
       <c r="C135" s="3">
-        <v>3</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="D135" s="3">
-        <v>2.81</v>
+        <v>2.8102999999999998</v>
       </c>
       <c r="E135" s="3">
-        <v>2.71</v>
+        <v>2.7107999999999999</v>
       </c>
       <c r="F135" s="3">
-        <v>3.23</v>
+        <v>3.2343999999999999</v>
       </c>
       <c r="G135" s="14">
         <f t="shared" si="6"/>
-        <v>1.03</v>
+        <v>1.0300100000000001</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="7"/>
-        <v>1.0281</v>
+        <v>1.028103</v>
       </c>
       <c r="I135" s="14">
         <f t="shared" si="8"/>
-        <v>1.0270999999999999</v>
+        <v>1.0271079999999999</v>
       </c>
       <c r="J135" s="14">
         <f t="shared" si="9"/>
-        <v>1.0323</v>
+        <v>1.0323439999999999</v>
       </c>
       <c r="K135" s="14">
         <f t="shared" si="10"/>
-        <v>2.9373088629461863</v>
+        <v>2.9389311147188124</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -14728,36 +15191,36 @@
         <v>41820</v>
       </c>
       <c r="C136" s="3">
-        <v>2.89</v>
+        <v>2.8921999999999999</v>
       </c>
       <c r="D136" s="3">
-        <v>3.24</v>
+        <v>3.2389000000000001</v>
       </c>
       <c r="E136" s="3">
-        <v>3.12</v>
+        <v>3.1177000000000001</v>
       </c>
       <c r="F136" s="3">
-        <v>3.14</v>
+        <v>3.1371000000000002</v>
       </c>
       <c r="G136" s="14">
         <f t="shared" si="6"/>
-        <v>1.0288999999999999</v>
+        <v>1.0289219999999999</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="7"/>
-        <v>1.0324</v>
+        <v>1.032389</v>
       </c>
       <c r="I136" s="14">
         <f t="shared" si="8"/>
-        <v>1.0311999999999999</v>
+        <v>1.031177</v>
       </c>
       <c r="J136" s="14">
         <f t="shared" si="9"/>
-        <v>1.0314000000000001</v>
+        <v>1.031371</v>
       </c>
       <c r="K136" s="14">
         <f t="shared" si="10"/>
-        <v>3.0974203259393374</v>
+        <v>3.0963972208281287</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -14768,36 +15231,36 @@
         <v>41912</v>
       </c>
       <c r="C137" s="3">
-        <v>3.07</v>
+        <v>3.0653000000000001</v>
       </c>
       <c r="D137" s="3">
-        <v>3.13</v>
+        <v>3.1257999999999999</v>
       </c>
       <c r="E137" s="3">
-        <v>3.11</v>
+        <v>3.1092</v>
       </c>
       <c r="F137" s="3">
-        <v>2.96</v>
+        <v>2.9622000000000002</v>
       </c>
       <c r="G137" s="14">
         <f t="shared" si="6"/>
-        <v>1.0306999999999999</v>
+        <v>1.030653</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="7"/>
-        <v>1.0313000000000001</v>
+        <v>1.031258</v>
       </c>
       <c r="I137" s="14">
         <f t="shared" si="8"/>
-        <v>1.0310999999999999</v>
+        <v>1.0310919999999999</v>
       </c>
       <c r="J137" s="14">
         <f t="shared" si="9"/>
-        <v>1.0296000000000001</v>
+        <v>1.029622</v>
       </c>
       <c r="K137" s="14">
         <f t="shared" si="10"/>
-        <v>3.0674790416898023</v>
+        <v>3.0656053258075522</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -14808,36 +15271,36 @@
         <v>42004</v>
       </c>
       <c r="C138" s="3">
-        <v>2.76</v>
+        <v>2.7644000000000002</v>
       </c>
       <c r="D138" s="3">
-        <v>3.09</v>
+        <v>3.0931000000000002</v>
       </c>
       <c r="E138" s="3">
-        <v>2.79</v>
+        <v>2.7902999999999998</v>
       </c>
       <c r="F138" s="3">
-        <v>2.99</v>
+        <v>2.9923999999999999</v>
       </c>
       <c r="G138" s="14">
         <f t="shared" si="6"/>
-        <v>1.0276000000000001</v>
+        <v>1.027644</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="7"/>
-        <v>1.0308999999999999</v>
+        <v>1.030931</v>
       </c>
       <c r="I138" s="14">
         <f t="shared" si="8"/>
-        <v>1.0279</v>
+        <v>1.027903</v>
       </c>
       <c r="J138" s="14">
         <f t="shared" si="9"/>
-        <v>1.0299</v>
+        <v>1.0299240000000001</v>
       </c>
       <c r="K138" s="14">
         <f t="shared" si="10"/>
-        <v>2.9074080930262092</v>
+        <v>2.909957892072712</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -14848,36 +15311,36 @@
         <v>42094</v>
       </c>
       <c r="C139" s="3">
-        <v>3.03</v>
+        <v>3.0299</v>
       </c>
       <c r="D139" s="3">
-        <v>2.82</v>
+        <v>2.8178999999999998</v>
       </c>
       <c r="E139" s="3">
-        <v>2.76</v>
+        <v>2.7581000000000002</v>
       </c>
       <c r="F139" s="3">
-        <v>2.94</v>
+        <v>2.9384999999999999</v>
       </c>
       <c r="G139" s="14">
         <f t="shared" si="6"/>
-        <v>1.0303</v>
+        <v>1.0302990000000001</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="7"/>
-        <v>1.0282</v>
+        <v>1.028179</v>
       </c>
       <c r="I139" s="14">
         <f t="shared" si="8"/>
-        <v>1.0276000000000001</v>
+        <v>1.0275810000000001</v>
       </c>
       <c r="J139" s="14">
         <f t="shared" si="9"/>
-        <v>1.0294000000000001</v>
+        <v>1.029385</v>
       </c>
       <c r="K139" s="14">
         <f t="shared" si="10"/>
-        <v>2.8874467005739701</v>
+        <v>2.8860459901447921</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -14888,36 +15351,36 @@
         <v>42185</v>
       </c>
       <c r="C140" s="3">
-        <v>3.12</v>
+        <v>3.1225000000000001</v>
       </c>
       <c r="D140" s="3">
-        <v>2.9</v>
+        <v>2.9005000000000001</v>
       </c>
       <c r="E140" s="3">
-        <v>2.42</v>
+        <v>2.4216000000000002</v>
       </c>
       <c r="F140" s="3">
-        <v>3.04</v>
+        <v>3.0350999999999999</v>
       </c>
       <c r="G140" s="14">
         <f t="shared" si="6"/>
-        <v>1.0311999999999999</v>
+        <v>1.0312250000000001</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="7"/>
-        <v>1.0289999999999999</v>
+        <v>1.0290049999999999</v>
       </c>
       <c r="I140" s="14">
         <f t="shared" si="8"/>
-        <v>1.0242</v>
+        <v>1.024216</v>
       </c>
       <c r="J140" s="14">
         <f t="shared" si="9"/>
-        <v>1.0304</v>
+        <v>1.030351</v>
       </c>
       <c r="K140" s="14">
         <f t="shared" si="10"/>
-        <v>2.8696412232316781</v>
+        <v>2.8695684102930663</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -14928,36 +15391,36 @@
         <v>42277</v>
       </c>
       <c r="C141" s="3">
-        <v>2.82</v>
+        <v>2.8212000000000002</v>
       </c>
       <c r="D141" s="3">
-        <v>2.8</v>
+        <v>2.8031999999999999</v>
       </c>
       <c r="E141" s="3">
-        <v>2.75</v>
+        <v>2.7547000000000001</v>
       </c>
       <c r="F141" s="3">
-        <v>2.75</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="G141" s="14">
         <f t="shared" si="6"/>
-        <v>1.0282</v>
+        <v>1.0282119999999999</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="7"/>
-        <v>1.028</v>
+        <v>1.0280320000000001</v>
       </c>
       <c r="I141" s="14">
         <f t="shared" si="8"/>
-        <v>1.0275000000000001</v>
+        <v>1.027547</v>
       </c>
       <c r="J141" s="14">
         <f t="shared" si="9"/>
-        <v>1.0275000000000001</v>
+        <v>1.02745</v>
       </c>
       <c r="K141" s="14">
         <f t="shared" si="10"/>
-        <v>2.7799953786201481</v>
+        <v>2.7810200179302358</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -14968,36 +15431,36 @@
         <v>42369</v>
       </c>
       <c r="C142" s="3">
-        <v>2.5099999999999998</v>
+        <v>2.5135999999999998</v>
       </c>
       <c r="D142" s="3">
-        <v>2.62</v>
+        <v>2.6202999999999999</v>
       </c>
       <c r="E142" s="3">
-        <v>2.91</v>
+        <v>2.907</v>
       </c>
       <c r="F142" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.4287999999999998</v>
       </c>
       <c r="G142" s="14">
         <f t="shared" si="6"/>
-        <v>1.0250999999999999</v>
+        <v>1.025136</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="7"/>
-        <v>1.0262</v>
+        <v>1.026203</v>
       </c>
       <c r="I142" s="14">
         <f t="shared" si="8"/>
-        <v>1.0290999999999999</v>
+        <v>1.0290699999999999</v>
       </c>
       <c r="J142" s="14">
         <f t="shared" si="9"/>
-        <v>1.0243</v>
+        <v>1.0242880000000001</v>
       </c>
       <c r="K142" s="14">
         <f t="shared" si="10"/>
-        <v>2.6173390093989113</v>
+        <v>2.6172665054923216</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -15008,36 +15471,36 @@
         <v>42460</v>
       </c>
       <c r="C143" s="3">
-        <v>2.4700000000000002</v>
+        <v>2.4706000000000001</v>
       </c>
       <c r="D143" s="3">
-        <v>2.27</v>
+        <v>2.2688000000000001</v>
       </c>
       <c r="E143" s="3">
-        <v>2.52</v>
+        <v>2.5186000000000002</v>
       </c>
       <c r="F143" s="3">
-        <v>2.39</v>
+        <v>2.3915000000000002</v>
       </c>
       <c r="G143" s="14">
         <f t="shared" si="6"/>
-        <v>1.0246999999999999</v>
+        <v>1.0247059999999999</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="7"/>
-        <v>1.0226999999999999</v>
+        <v>1.022688</v>
       </c>
       <c r="I143" s="14">
         <f t="shared" si="8"/>
-        <v>1.0251999999999999</v>
+        <v>1.0251859999999999</v>
       </c>
       <c r="J143" s="14">
         <f t="shared" si="9"/>
-        <v>1.0239</v>
+        <v>1.0239149999999999</v>
       </c>
       <c r="K143" s="14">
         <f t="shared" si="10"/>
-        <v>2.4124564450076491</v>
+        <v>2.412331385026012</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -15048,36 +15511,36 @@
         <v>42551</v>
       </c>
       <c r="C144" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.4339</v>
       </c>
       <c r="D144" s="3">
-        <v>2.34</v>
+        <v>2.3351999999999999</v>
       </c>
       <c r="E144" s="3">
-        <v>2.37</v>
+        <v>2.3696000000000002</v>
       </c>
       <c r="F144" s="3">
-        <v>2.41</v>
+        <v>2.4064999999999999</v>
       </c>
       <c r="G144" s="14">
         <f t="shared" si="6"/>
-        <v>1.0243</v>
+        <v>1.0243389999999999</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="7"/>
-        <v>1.0234000000000001</v>
+        <v>1.023352</v>
       </c>
       <c r="I144" s="14">
         <f t="shared" si="8"/>
-        <v>1.0237000000000001</v>
+        <v>1.0236959999999999</v>
       </c>
       <c r="J144" s="14">
         <f t="shared" si="9"/>
-        <v>1.0241</v>
+        <v>1.024065</v>
       </c>
       <c r="K144" s="14">
         <f t="shared" si="10"/>
-        <v>2.3874940481516616</v>
+        <v>2.386293207045731</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -15088,36 +15551,36 @@
         <v>42643</v>
       </c>
       <c r="C145" s="3">
-        <v>2.33</v>
+        <v>2.3300999999999998</v>
       </c>
       <c r="D145" s="3">
-        <v>2.29</v>
+        <v>2.2854999999999999</v>
       </c>
       <c r="E145" s="3">
-        <v>2.25</v>
+        <v>2.2503000000000002</v>
       </c>
       <c r="F145" s="3">
-        <v>2.13</v>
+        <v>2.1253000000000002</v>
       </c>
       <c r="G145" s="14">
         <f t="shared" si="6"/>
-        <v>1.0233000000000001</v>
+        <v>1.023301</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="7"/>
-        <v>1.0228999999999999</v>
+        <v>1.0228550000000001</v>
       </c>
       <c r="I145" s="14">
         <f t="shared" si="8"/>
-        <v>1.0225</v>
+        <v>1.0225029999999999</v>
       </c>
       <c r="J145" s="14">
         <f t="shared" si="9"/>
-        <v>1.0213000000000001</v>
+        <v>1.021253</v>
       </c>
       <c r="K145" s="14">
         <f t="shared" si="10"/>
-        <v>2.2499726069437509</v>
+        <v>2.2477716190819175</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -15128,36 +15591,36 @@
         <v>42735</v>
       </c>
       <c r="C146" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.2385000000000002</v>
       </c>
       <c r="D146" s="3">
-        <v>2.16</v>
+        <v>2.1637</v>
       </c>
       <c r="E146" s="3">
-        <v>2.19</v>
+        <v>2.1894</v>
       </c>
       <c r="F146" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.2423999999999999</v>
       </c>
       <c r="G146" s="14">
         <f t="shared" si="6"/>
-        <v>1.0224</v>
+        <v>1.0223850000000001</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="7"/>
-        <v>1.0216000000000001</v>
+        <v>1.0216369999999999</v>
       </c>
       <c r="I146" s="14">
         <f t="shared" si="8"/>
-        <v>1.0219</v>
+        <v>1.0218940000000001</v>
       </c>
       <c r="J146" s="14">
         <f t="shared" si="9"/>
-        <v>1.0224</v>
+        <v>1.022424</v>
       </c>
       <c r="K146" s="14">
         <f t="shared" si="10"/>
-        <v>2.2074942821143084</v>
+        <v>2.2084945928397604</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -15168,36 +15631,36 @@
         <v>42825</v>
       </c>
       <c r="C147" s="3">
-        <v>2.3199999999999998</v>
+        <v>2.3205</v>
       </c>
       <c r="D147" s="3">
-        <v>2.37</v>
+        <v>2.3698999999999999</v>
       </c>
       <c r="E147" s="3">
-        <v>2.38</v>
+        <v>2.3832</v>
       </c>
       <c r="F147" s="3">
-        <v>2.23</v>
+        <v>2.2334999999999998</v>
       </c>
       <c r="G147" s="14">
         <f t="shared" si="6"/>
-        <v>1.0232000000000001</v>
+        <v>1.0232049999999999</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="7"/>
-        <v>1.0237000000000001</v>
+        <v>1.0236989999999999</v>
       </c>
       <c r="I147" s="14">
         <f t="shared" si="8"/>
-        <v>1.0238</v>
+        <v>1.0238320000000001</v>
       </c>
       <c r="J147" s="14">
         <f t="shared" si="9"/>
-        <v>1.0223</v>
+        <v>1.022335</v>
       </c>
       <c r="K147" s="14">
         <f t="shared" si="10"/>
-        <v>2.3249827706908643</v>
+        <v>2.326758158432396</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -15208,36 +15671,36 @@
         <v>42916</v>
       </c>
       <c r="C148" s="3">
-        <v>2.4900000000000002</v>
+        <v>2.4941</v>
       </c>
       <c r="D148" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.4336000000000002</v>
       </c>
       <c r="E148" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.4289000000000001</v>
       </c>
       <c r="F148" s="3">
-        <v>2.74</v>
+        <v>2.7361</v>
       </c>
       <c r="G148" s="14">
         <f t="shared" ref="G148:G161" si="11">1+C148/100</f>
-        <v>1.0248999999999999</v>
+        <v>1.0249410000000001</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" ref="H148:H161" si="12">1+D148/100</f>
-        <v>1.0243</v>
+        <v>1.0243359999999999</v>
       </c>
       <c r="I148" s="14">
         <f t="shared" ref="I148:I161" si="13">1+E148/100</f>
-        <v>1.0243</v>
+        <v>1.024289</v>
       </c>
       <c r="J148" s="14">
         <f t="shared" ref="J148:J161" si="14">1+F148/100</f>
-        <v>1.0274000000000001</v>
+        <v>1.027361</v>
       </c>
       <c r="K148" s="14">
         <f t="shared" ref="K148:K159" si="15">100*(PRODUCT(G148:J148)^(1/4)-1)</f>
-        <v>2.5224202386088468</v>
+        <v>2.5230981375514494</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -15248,36 +15711,36 @@
         <v>43008</v>
       </c>
       <c r="C149" s="3">
-        <v>2.34</v>
+        <v>2.3445999999999998</v>
       </c>
       <c r="D149" s="3">
-        <v>2.23</v>
+        <v>2.2252000000000001</v>
       </c>
       <c r="E149" s="3">
-        <v>2.4</v>
+        <v>2.4014000000000002</v>
       </c>
       <c r="F149" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.4291</v>
       </c>
       <c r="G149" s="14">
         <f t="shared" si="11"/>
-        <v>1.0234000000000001</v>
+        <v>1.0234460000000001</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="12"/>
-        <v>1.0223</v>
+        <v>1.0222519999999999</v>
       </c>
       <c r="I149" s="14">
         <f t="shared" si="13"/>
-        <v>1.024</v>
+        <v>1.024014</v>
       </c>
       <c r="J149" s="14">
         <f t="shared" si="14"/>
-        <v>1.0243</v>
+        <v>1.0242910000000001</v>
       </c>
       <c r="K149" s="14">
         <f t="shared" si="15"/>
-        <v>2.3499714128947913</v>
+        <v>2.3500450640823178</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -15288,36 +15751,36 @@
         <v>43100</v>
       </c>
       <c r="C150" s="3">
-        <v>2.42</v>
+        <v>2.4215</v>
       </c>
       <c r="D150" s="3">
-        <v>2.37</v>
+        <v>2.3675999999999999</v>
       </c>
       <c r="E150" s="3">
-        <v>2.13</v>
+        <v>2.1312000000000002</v>
       </c>
       <c r="F150" s="3">
-        <v>2.35</v>
+        <v>2.3473999999999999</v>
       </c>
       <c r="G150" s="14">
         <f t="shared" si="11"/>
-        <v>1.0242</v>
+        <v>1.0242150000000001</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="12"/>
-        <v>1.0237000000000001</v>
+        <v>1.023676</v>
       </c>
       <c r="I150" s="14">
         <f t="shared" si="13"/>
-        <v>1.0213000000000001</v>
+        <v>1.021312</v>
       </c>
       <c r="J150" s="14">
         <f t="shared" si="14"/>
-        <v>1.0235000000000001</v>
+        <v>1.023474</v>
       </c>
       <c r="K150" s="14">
         <f t="shared" si="15"/>
-        <v>2.3174395144807347</v>
+        <v>2.3168651862225609</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -15328,36 +15791,36 @@
         <v>43190</v>
       </c>
       <c r="C151" s="3">
-        <v>2.87</v>
+        <v>2.8687999999999998</v>
       </c>
       <c r="D151" s="3">
-        <v>2.78</v>
+        <v>2.7808000000000002</v>
       </c>
       <c r="E151" s="3">
-        <v>2.5099999999999998</v>
+        <v>2.5053999999999998</v>
       </c>
       <c r="F151" s="3">
-        <v>2.4</v>
+        <v>2.3969</v>
       </c>
       <c r="G151" s="14">
         <f t="shared" si="11"/>
-        <v>1.0286999999999999</v>
+        <v>1.028688</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="12"/>
-        <v>1.0278</v>
+        <v>1.0278080000000001</v>
       </c>
       <c r="I151" s="14">
         <f t="shared" si="13"/>
-        <v>1.0250999999999999</v>
+        <v>1.0250539999999999</v>
       </c>
       <c r="J151" s="14">
         <f t="shared" si="14"/>
-        <v>1.024</v>
+        <v>1.0239689999999999</v>
       </c>
       <c r="K151" s="14">
         <f t="shared" si="15"/>
-        <v>2.6398209672111594</v>
+        <v>2.6377930741862565</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -15368,20 +15831,20 @@
         <v>43281</v>
       </c>
       <c r="C152" s="3">
-        <v>2.98</v>
+        <v>2.9773999999999998</v>
       </c>
       <c r="D152" s="3">
         <v>2.8</v>
       </c>
       <c r="E152" s="3">
-        <v>2.41</v>
+        <v>2.4094000000000002</v>
       </c>
       <c r="F152" s="3">
-        <v>2.59</v>
+        <v>2.5918999999999999</v>
       </c>
       <c r="G152" s="14">
         <f t="shared" si="11"/>
-        <v>1.0298</v>
+        <v>1.029774</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="12"/>
@@ -15389,15 +15852,15 @@
       </c>
       <c r="I152" s="14">
         <f t="shared" si="13"/>
-        <v>1.0241</v>
+        <v>1.0240940000000001</v>
       </c>
       <c r="J152" s="14">
         <f t="shared" si="14"/>
-        <v>1.0259</v>
+        <v>1.025919</v>
       </c>
       <c r="K152" s="14">
         <f t="shared" si="15"/>
-        <v>2.6947754267060642</v>
+        <v>2.6944522825063322</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -15408,36 +15871,36 @@
         <v>43373</v>
       </c>
       <c r="C153" s="3">
-        <v>2.78</v>
+        <v>2.7839</v>
       </c>
       <c r="D153" s="3">
-        <v>2.5</v>
+        <v>2.5021</v>
       </c>
       <c r="E153" s="3">
-        <v>2.71</v>
+        <v>2.7132000000000001</v>
       </c>
       <c r="F153" s="3">
-        <v>2.62</v>
+        <v>2.6154000000000002</v>
       </c>
       <c r="G153" s="14">
         <f t="shared" si="11"/>
-        <v>1.0278</v>
+        <v>1.0278389999999999</v>
       </c>
       <c r="H153" s="14">
         <f t="shared" si="12"/>
-        <v>1.0249999999999999</v>
+        <v>1.025021</v>
       </c>
       <c r="I153" s="14">
         <f t="shared" si="13"/>
-        <v>1.0270999999999999</v>
+        <v>1.0271319999999999</v>
       </c>
       <c r="J153" s="14">
         <f t="shared" si="14"/>
-        <v>1.0262</v>
+        <v>1.026154</v>
       </c>
       <c r="K153" s="14">
         <f t="shared" si="15"/>
-        <v>2.6524465629334415</v>
+        <v>2.6535952661890683</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -15448,36 +15911,36 @@
         <v>43465</v>
       </c>
       <c r="C154" s="3">
-        <v>2.38</v>
+        <v>2.3794</v>
       </c>
       <c r="D154" s="3">
-        <v>2.68</v>
+        <v>2.6800999999999999</v>
       </c>
       <c r="E154" s="3">
-        <v>2.36</v>
+        <v>2.3586999999999998</v>
       </c>
       <c r="F154" s="3">
-        <v>2.21</v>
+        <v>2.2136</v>
       </c>
       <c r="G154" s="14">
         <f t="shared" si="11"/>
-        <v>1.0238</v>
+        <v>1.0237940000000001</v>
       </c>
       <c r="H154" s="14">
         <f t="shared" si="12"/>
-        <v>1.0267999999999999</v>
+        <v>1.0268010000000001</v>
       </c>
       <c r="I154" s="14">
         <f t="shared" si="13"/>
-        <v>1.0236000000000001</v>
+        <v>1.023587</v>
       </c>
       <c r="J154" s="14">
         <f t="shared" si="14"/>
-        <v>1.0221</v>
+        <v>1.0221359999999999</v>
       </c>
       <c r="K154" s="14">
         <f t="shared" si="15"/>
-        <v>2.4073581713849102</v>
+        <v>2.4078096349711586</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -15488,36 +15951,36 @@
         <v>43555</v>
       </c>
       <c r="C155" s="3">
-        <v>2.36</v>
+        <v>2.3586999999999998</v>
       </c>
       <c r="D155" s="3">
-        <v>2.2200000000000002</v>
+        <v>2.2246999999999999</v>
       </c>
       <c r="E155" s="3">
-        <v>2.23</v>
+        <v>2.2259000000000002</v>
       </c>
       <c r="F155" s="3">
-        <v>2.08</v>
+        <v>2.0756999999999999</v>
       </c>
       <c r="G155" s="14">
         <f t="shared" si="11"/>
-        <v>1.0236000000000001</v>
+        <v>1.023587</v>
       </c>
       <c r="H155" s="14">
         <f t="shared" si="12"/>
-        <v>1.0222</v>
+        <v>1.0222469999999999</v>
       </c>
       <c r="I155" s="14">
         <f t="shared" si="13"/>
-        <v>1.0223</v>
+        <v>1.022259</v>
       </c>
       <c r="J155" s="14">
         <f t="shared" si="14"/>
-        <v>1.0207999999999999</v>
+        <v>1.0207569999999999</v>
       </c>
       <c r="K155" s="14">
         <f t="shared" si="15"/>
-        <v>2.2224519712605417</v>
+        <v>2.2212009470486738</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -15528,28 +15991,28 @@
         <v>43646</v>
       </c>
       <c r="C156" s="3">
-        <v>2.12</v>
+        <v>2.1166</v>
       </c>
       <c r="D156" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1962000000000002</v>
       </c>
       <c r="E156" s="3">
-        <v>1.97</v>
+        <v>1.9733000000000001</v>
       </c>
       <c r="F156" s="3">
         <v>1.72</v>
       </c>
       <c r="G156" s="14">
         <f t="shared" si="11"/>
-        <v>1.0212000000000001</v>
+        <v>1.021166</v>
       </c>
       <c r="H156" s="14">
         <f t="shared" si="12"/>
-        <v>1.022</v>
+        <v>1.021962</v>
       </c>
       <c r="I156" s="14">
         <f t="shared" si="13"/>
-        <v>1.0197000000000001</v>
+        <v>1.019733</v>
       </c>
       <c r="J156" s="14">
         <f t="shared" si="14"/>
@@ -15557,7 +16020,7 @@
       </c>
       <c r="K156" s="14">
         <f t="shared" si="15"/>
-        <v>2.0023360801152634</v>
+        <v>2.0013641180148811</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -15571,13 +16034,13 @@
         <v>2</v>
       </c>
       <c r="D157" s="3">
-        <v>1.95</v>
+        <v>1.9476</v>
       </c>
       <c r="E157" s="3">
-        <v>1.98</v>
+        <v>1.9763999999999999</v>
       </c>
       <c r="F157" s="3">
-        <v>1.96</v>
+        <v>1.9571000000000001</v>
       </c>
       <c r="G157" s="14">
         <f t="shared" si="11"/>
@@ -15585,19 +16048,19 @@
       </c>
       <c r="H157" s="14">
         <f t="shared" si="12"/>
-        <v>1.0195000000000001</v>
+        <v>1.019476</v>
       </c>
       <c r="I157" s="14">
         <f t="shared" si="13"/>
-        <v>1.0198</v>
+        <v>1.0197639999999999</v>
       </c>
       <c r="J157" s="14">
         <f t="shared" si="14"/>
-        <v>1.0196000000000001</v>
+        <v>1.019571</v>
       </c>
       <c r="K157" s="14">
         <f t="shared" si="15"/>
-        <v>1.9724981919775786</v>
+        <v>1.9702730279234526</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -15758,6 +16221,326 @@
       <c r="K161" s="14">
         <f t="shared" ref="K161" si="17">100*(PRODUCT(G161:J161)^(1/4)-1)</f>
         <v>4.6045612628194066</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="15">
+        <v>20204</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44196</v>
+      </c>
+      <c r="C162" s="3">
+        <v>3.2046999999999999</v>
+      </c>
+      <c r="D162" s="3">
+        <v>3.4676999999999998</v>
+      </c>
+      <c r="E162" s="3">
+        <v>3.5053000000000001</v>
+      </c>
+      <c r="F162" s="3">
+        <v>3.3405999999999998</v>
+      </c>
+      <c r="G162" s="14">
+        <f t="shared" ref="G162:G169" si="18">1+C162/100</f>
+        <v>1.0320469999999999</v>
+      </c>
+      <c r="H162" s="14">
+        <f t="shared" ref="H162:H169" si="19">1+D162/100</f>
+        <v>1.0346770000000001</v>
+      </c>
+      <c r="I162" s="14">
+        <f t="shared" ref="I162:I169" si="20">1+E162/100</f>
+        <v>1.035053</v>
+      </c>
+      <c r="J162" s="14">
+        <f t="shared" ref="J162:J169" si="21">1+F162/100</f>
+        <v>1.033406</v>
+      </c>
+      <c r="K162" s="14">
+        <f t="shared" ref="K162:K169" si="22">100*(PRODUCT(G162:J162)^(1/4)-1)</f>
+        <v>3.3795076622452624</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="15">
+        <v>202101</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44286</v>
+      </c>
+      <c r="C163" s="3">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="D163" s="3">
+        <v>5.2754000000000003</v>
+      </c>
+      <c r="E163" s="3">
+        <v>4.0448000000000004</v>
+      </c>
+      <c r="F163" s="3">
+        <v>3.7008999999999999</v>
+      </c>
+      <c r="G163" s="14">
+        <f t="shared" si="18"/>
+        <v>1.0503899999999999</v>
+      </c>
+      <c r="H163" s="14">
+        <f t="shared" si="19"/>
+        <v>1.052754</v>
+      </c>
+      <c r="I163" s="14">
+        <f t="shared" si="20"/>
+        <v>1.040448</v>
+      </c>
+      <c r="J163" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0370090000000001</v>
+      </c>
+      <c r="K163" s="14">
+        <f t="shared" si="22"/>
+        <v>4.5129475018482967</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="15">
+        <v>202102</v>
+      </c>
+      <c r="B164" s="2">
+        <v>44377</v>
+      </c>
+      <c r="C164" s="3">
+        <v>7.5019999999999998</v>
+      </c>
+      <c r="D164" s="3">
+        <v>4.9595000000000002</v>
+      </c>
+      <c r="E164" s="3">
+        <v>4.0124000000000004</v>
+      </c>
+      <c r="F164" s="3">
+        <v>2.6254</v>
+      </c>
+      <c r="G164" s="14">
+        <f t="shared" si="18"/>
+        <v>1.0750200000000001</v>
+      </c>
+      <c r="H164" s="14">
+        <f t="shared" si="19"/>
+        <v>1.0495950000000001</v>
+      </c>
+      <c r="I164" s="14">
+        <f t="shared" si="20"/>
+        <v>1.040124</v>
+      </c>
+      <c r="J164" s="14">
+        <f t="shared" si="21"/>
+        <v>1.026254</v>
+      </c>
+      <c r="K164" s="14">
+        <f t="shared" si="22"/>
+        <v>4.7597779930165451</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="15">
+        <v>202103</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44469</v>
+      </c>
+      <c r="C165" s="3">
+        <v>5.1681999999999997</v>
+      </c>
+      <c r="D165" s="3">
+        <v>4.4593999999999996</v>
+      </c>
+      <c r="E165" s="3">
+        <v>3.3978999999999999</v>
+      </c>
+      <c r="F165" s="3">
+        <v>2.6806999999999999</v>
+      </c>
+      <c r="G165" s="14">
+        <f t="shared" si="18"/>
+        <v>1.051682</v>
+      </c>
+      <c r="H165" s="14">
+        <f t="shared" si="19"/>
+        <v>1.044594</v>
+      </c>
+      <c r="I165" s="14">
+        <f t="shared" si="20"/>
+        <v>1.033979</v>
+      </c>
+      <c r="J165" s="14">
+        <f t="shared" si="21"/>
+        <v>1.026807</v>
+      </c>
+      <c r="K165" s="14">
+        <f t="shared" si="22"/>
+        <v>3.9221508706565933</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="15">
+        <v>202104</v>
+      </c>
+      <c r="B166" s="2">
+        <v>44561</v>
+      </c>
+      <c r="C166" s="3">
+        <v>3.8801000000000001</v>
+      </c>
+      <c r="D166" s="3">
+        <v>4.0016999999999996</v>
+      </c>
+      <c r="E166" s="3">
+        <v>3.0648</v>
+      </c>
+      <c r="F166" s="3">
+        <v>3.1238000000000001</v>
+      </c>
+      <c r="G166" s="14">
+        <f t="shared" si="18"/>
+        <v>1.0388010000000001</v>
+      </c>
+      <c r="H166" s="14">
+        <f t="shared" si="19"/>
+        <v>1.040017</v>
+      </c>
+      <c r="I166" s="14">
+        <f t="shared" si="20"/>
+        <v>1.030648</v>
+      </c>
+      <c r="J166" s="14">
+        <f t="shared" si="21"/>
+        <v>1.0312380000000001</v>
+      </c>
+      <c r="K166" s="14">
+        <f t="shared" si="22"/>
+        <v>3.5167235518314577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="15">
+        <v>202201</v>
+      </c>
+      <c r="B167" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C167" s="3">
+        <v>4.1608000000000001</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2.9601000000000002</v>
+      </c>
+      <c r="E167" s="3">
+        <v>2.9161000000000001</v>
+      </c>
+      <c r="F167" s="3">
+        <v>2.8431999999999999</v>
+      </c>
+      <c r="G167" s="14">
+        <f t="shared" si="18"/>
+        <v>1.0416080000000001</v>
+      </c>
+      <c r="H167" s="14">
+        <f t="shared" si="19"/>
+        <v>1.029601</v>
+      </c>
+      <c r="I167" s="14">
+        <f t="shared" si="20"/>
+        <v>1.029161</v>
+      </c>
+      <c r="J167" s="14">
+        <f t="shared" si="21"/>
+        <v>1.028432</v>
+      </c>
+      <c r="K167" s="14">
+        <f t="shared" si="22"/>
+        <v>3.2186182540772323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="15">
+        <v>202202</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44742</v>
+      </c>
+      <c r="C168" s="3">
+        <v>2.4759000000000002</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2.3372999999999999</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2.1004999999999998</v>
+      </c>
+      <c r="F168" s="3">
+        <v>2.2824</v>
+      </c>
+      <c r="G168" s="14">
+        <f t="shared" si="18"/>
+        <v>1.024759</v>
+      </c>
+      <c r="H168" s="14">
+        <f t="shared" si="19"/>
+        <v>1.0233730000000001</v>
+      </c>
+      <c r="I168" s="14">
+        <f t="shared" si="20"/>
+        <v>1.0210049999999999</v>
+      </c>
+      <c r="J168" s="14">
+        <f t="shared" si="21"/>
+        <v>1.022824</v>
+      </c>
+      <c r="K168" s="14">
+        <f t="shared" si="22"/>
+        <v>2.298936469108992</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="15">
+        <v>202203</v>
+      </c>
+      <c r="B169" s="2">
+        <v>44834</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1.2371000000000001</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1.1125</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1.4502999999999999</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1.4939</v>
+      </c>
+      <c r="G169" s="14">
+        <f t="shared" si="18"/>
+        <v>1.0123709999999999</v>
+      </c>
+      <c r="H169" s="14">
+        <f t="shared" si="19"/>
+        <v>1.0111250000000001</v>
+      </c>
+      <c r="I169" s="14">
+        <f t="shared" si="20"/>
+        <v>1.0145029999999999</v>
+      </c>
+      <c r="J169" s="14">
+        <f t="shared" si="21"/>
+        <v>1.014939</v>
+      </c>
+      <c r="K169" s="14">
+        <f t="shared" si="22"/>
+        <v>1.3233301851479418</v>
       </c>
     </row>
   </sheetData>
@@ -15824,22 +16607,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AJO4"/>
+  <dimension ref="A1:AJN4"/>
   <sheetViews>
-    <sheetView topLeftCell="FR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="GL1" sqref="GL1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="83.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="161" width="10.6640625" style="8" customWidth="1"/>
-    <col min="162" max="951" width="10.83203125" style="9" customWidth="1"/>
-    <col min="952" max="991" width="8.83203125" style="6" customWidth="1"/>
-    <col min="992" max="16384" width="8.83203125" style="6"/>
+    <col min="162" max="950" width="10.83203125" style="9" customWidth="1"/>
+    <col min="951" max="990" width="8.83203125" style="6" customWidth="1"/>
+    <col min="991" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:951" s="18" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:950" s="18" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>641</v>
       </c>
@@ -16422,8 +17203,80 @@
       <c r="GL1" s="12">
         <v>44104</v>
       </c>
-    </row>
-    <row r="2" spans="1:951">
+      <c r="GM1" s="12">
+        <v>44135</v>
+      </c>
+      <c r="GN1" s="12">
+        <v>44165</v>
+      </c>
+      <c r="GO1" s="12">
+        <v>44196</v>
+      </c>
+      <c r="GP1" s="12">
+        <v>44227</v>
+      </c>
+      <c r="GQ1" s="12">
+        <v>44255</v>
+      </c>
+      <c r="GR1" s="12">
+        <v>44286</v>
+      </c>
+      <c r="GS1" s="12">
+        <v>44316</v>
+      </c>
+      <c r="GT1" s="12">
+        <v>44347</v>
+      </c>
+      <c r="GU1" s="12">
+        <v>44377</v>
+      </c>
+      <c r="GV1" s="12">
+        <v>44408</v>
+      </c>
+      <c r="GW1" s="12">
+        <v>44439</v>
+      </c>
+      <c r="GX1" s="12">
+        <v>44469</v>
+      </c>
+      <c r="GY1" s="12">
+        <v>44500</v>
+      </c>
+      <c r="GZ1" s="12">
+        <v>44530</v>
+      </c>
+      <c r="HA1" s="12">
+        <v>44561</v>
+      </c>
+      <c r="HB1" s="12">
+        <v>44592</v>
+      </c>
+      <c r="HC1" s="12">
+        <v>44620</v>
+      </c>
+      <c r="HD1" s="12">
+        <v>44651</v>
+      </c>
+      <c r="HE1" s="12">
+        <v>44681</v>
+      </c>
+      <c r="HF1" s="12">
+        <v>44712</v>
+      </c>
+      <c r="HG1" s="12">
+        <v>44742</v>
+      </c>
+      <c r="HH1" s="12">
+        <v>44773</v>
+      </c>
+      <c r="HI1" s="12">
+        <v>44804</v>
+      </c>
+      <c r="HJ1" s="12">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:950">
       <c r="A2" s="4" t="s">
         <v>588</v>
       </c>
@@ -17006,6 +17859,79 @@
       <c r="GL2" s="8">
         <v>44104</v>
       </c>
+      <c r="GM2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GN2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GO2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GP2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GQ2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GR2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GS2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GT2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GU2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GV2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GW2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GX2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GY2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="GZ2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HA2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HB2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HC2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HD2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HE2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HF2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HG2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HH2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HI2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="HJ2" s="8">
+        <v>44135</v>
+      </c>
+      <c r="ACE2" s="6"/>
       <c r="ACF2" s="6"/>
       <c r="ACG2" s="6"/>
       <c r="ACH2" s="6"/>
@@ -17197,9 +18123,8 @@
       <c r="AJL2" s="6"/>
       <c r="AJM2" s="6"/>
       <c r="AJN2" s="6"/>
-      <c r="AJO2" s="6"/>
-    </row>
-    <row r="3" spans="1:951">
+    </row>
+    <row r="3" spans="1:950">
       <c r="A3" t="s">
         <v>636</v>
       </c>
@@ -17776,6 +18701,47 @@
       <c r="GL3" s="8">
         <v>44057</v>
       </c>
+      <c r="GM3" s="8"/>
+      <c r="GN3" s="8"/>
+      <c r="GO3" s="8">
+        <v>44151</v>
+      </c>
+      <c r="GP3" s="8"/>
+      <c r="GQ3" s="8"/>
+      <c r="GR3" s="8">
+        <v>44239</v>
+      </c>
+      <c r="GS3" s="8"/>
+      <c r="GT3" s="8"/>
+      <c r="GU3" s="8">
+        <v>44330</v>
+      </c>
+      <c r="GV3" s="8"/>
+      <c r="GW3" s="8"/>
+      <c r="GX3" s="8">
+        <v>44421</v>
+      </c>
+      <c r="GY3" s="8"/>
+      <c r="GZ3" s="8"/>
+      <c r="HA3" s="8">
+        <v>44515</v>
+      </c>
+      <c r="HB3" s="8"/>
+      <c r="HC3" s="8"/>
+      <c r="HD3" s="8">
+        <v>44603</v>
+      </c>
+      <c r="HE3" s="8"/>
+      <c r="HF3" s="8"/>
+      <c r="HG3" s="8">
+        <v>44694</v>
+      </c>
+      <c r="HH3" s="8"/>
+      <c r="HI3" s="8"/>
+      <c r="HJ3" s="8">
+        <v>44785</v>
+      </c>
+      <c r="ACE3" s="6"/>
       <c r="ACF3" s="6"/>
       <c r="ACG3" s="6"/>
       <c r="ACH3" s="6"/>
@@ -17967,9 +18933,8 @@
       <c r="AJL3" s="6"/>
       <c r="AJM3" s="6"/>
       <c r="AJN3" s="6"/>
-      <c r="AJO3" s="6"/>
-    </row>
-    <row r="4" spans="1:951">
+    </row>
+    <row r="4" spans="1:950">
       <c r="A4" t="s">
         <v>173</v>
       </c>
@@ -18545,6 +19510,46 @@
       </c>
       <c r="GL4" s="8">
         <v>44057</v>
+      </c>
+      <c r="GM4" s="8"/>
+      <c r="GN4" s="8"/>
+      <c r="GO4" s="8">
+        <v>44151</v>
+      </c>
+      <c r="GP4" s="8"/>
+      <c r="GQ4" s="8"/>
+      <c r="GR4" s="8">
+        <v>44239</v>
+      </c>
+      <c r="GS4" s="8"/>
+      <c r="GT4" s="8"/>
+      <c r="GU4" s="8">
+        <v>44330</v>
+      </c>
+      <c r="GV4" s="8"/>
+      <c r="GW4" s="8"/>
+      <c r="GX4" s="8">
+        <v>44421</v>
+      </c>
+      <c r="GY4" s="8"/>
+      <c r="GZ4" s="8"/>
+      <c r="HA4" s="8">
+        <v>44515</v>
+      </c>
+      <c r="HB4" s="8"/>
+      <c r="HC4" s="8"/>
+      <c r="HD4" s="8">
+        <v>44603</v>
+      </c>
+      <c r="HE4" s="8"/>
+      <c r="HF4" s="8"/>
+      <c r="HG4" s="8">
+        <v>44694</v>
+      </c>
+      <c r="HH4" s="8"/>
+      <c r="HI4" s="8"/>
+      <c r="HJ4" s="8">
+        <v>44785</v>
       </c>
     </row>
   </sheetData>
